--- a/book_library.xlsx
+++ b/book_library.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1263">
   <si>
     <t xml:space="preserve">shelf</t>
   </si>
@@ -141,6 +141,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Galaxy 20</t>
     </r>
@@ -150,6 +151,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -158,6 +160,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Edition</t>
     </r>
@@ -200,6 +203,2593 @@
   </si>
   <si>
     <t xml:space="preserve">https://archive.org/details/isbn_9780312416546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Gardner, Lawn, Ridl, &amp; Schakel | &lt;a href=”https://archive.org/details/isbn_9780312416546/page/n1515/mode/2up”&gt;Archive&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seagull_stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Seagull Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-393-93091-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347443156i/979344.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/seagullreadersto0000unse_b9l0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goodreads.com/book/show/979344.The_Seagull_Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Joseph Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seagull_plays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-393-93324-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1174431682i/398816.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/seagullreaderpla0000unse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/398816.The_Seagull_Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storming_reality_studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storming the Reality Studio: A Casebook of Cyberpunk and Postmodern Fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388293064i/370160.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Storming_the_Reality_Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/370160.Storming_the_Reality_Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Larry McCaffery.  This collection of fictions by well-known contemporary writers and critical commentary by postmodern theorists addresses issues concerning how cyberpunk functions within postmodern culture.[1] This casebook became the criterion for promoting the interaction between the genre of science fiction and the literary avant-garde.  &lt;a href=”https://www.jstor.org/stable/j.ctv1168ch3”&gt;Duke University Press&lt;/a&gt; | &lt;a href=”https://archive.org/details/stormingrealitys0000unse”&gt;Archive&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asimov_golden_years_scifi_sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac Asimov Presents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixth Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Golden Years of Science Fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-517-65754-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.isfdb.org/wiki/images/b/b4/GLNYRS619XX.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.isfdb.org/cgi-bin/pl.cgi?40864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/series/69367-isaac-asimov-presents-the-golden-years-of-science-fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Isaac Asimov and Martin H. Greenberg  &lt;a href=”https://www.isfdb.org/cgi-bin/pl.cgi?40864”&gt;ISFDB&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strange_tales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Classic Fantasy Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1508150067i/36421941.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/books/edition/The_Classic_Fantasy_Collection/IQAvDwAAQBAJ?hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36421941-the-classic-fantasy-collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Tales from H.P. Lovecraft, Robert E. Howard, Arthur Machen, George MacDonald, Lafcadio Hearn, H.G. Wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adams_douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams, Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hitchhikers_guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitchhiker’s Guide to the Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ultimate Hitchhiker's Guide to the Galaxy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0345453747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1404613595i/13.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Hitchhiker%27s_Guide_to_the_Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13.The_Ultimate_Hitchhiker_s_Guide_to_the_Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains: The Hitchhiker's Guide to the Galaxy, The Restaurant at the End of the Universe, Life, The Universe and Everything, So Long, and Thanks for All the Fish, and Mostly Harmless.  The series follows the adventures of Arthur Dent, a hapless Englishman, following the destruction of the Earth by the Vogons (a race of unpleasant and bureaucratic aliens) to make way for a hyperspace bypass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aldiss_brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldiss, Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_stop_starship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Stop (aka Starship)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1321611598i/384579.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Non-Stop_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/384579.Non_Stop?from_search=true&amp;from_srp=true&amp;qid=tHGg2U7G0X&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is about problems that the inhabitants of a huge generation space ship face after an alien amino acid that they picked up on another planet triggers a pandemic. Law and order began to collapse, and knowledge of the ship and of its purpose was eventually almost entirely lost throughout the vessel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allende_isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allende, Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom_golden_dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of the Beasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of the Golden Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388245620i/16529.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Kingdom_of_the_Golden_Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/16529.Kingdom_of_the_Golden_Dragon?from_search=true&amp;from_srp=true&amp;qid=4LGSo9IJYg&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The plot is set in the Forbidden Kingdom, a fictional remote Himalayan country. A Buddhist lama named Tensing takes his disciple, Prince Dil Bahadur, to the Valley of the Yeti to find healing plants that do not grow anywhere else. They find themselves ringed by the yetis just as they drink in the sights, but the matriarch saves them and says that the fast-dwindling yetis have lost their forebears’ unparalleled mental powers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anderson_poul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson, Poul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvest_stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvest of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1396463101i/924513.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Poul_Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/924513.Harvest_of_Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To save Earth from the crushing grip of totalitarianism, Kyra Davis journeys from the planet's rebel enclaves to the decadence of a lunar colony to a new world threatened by a dying star as she seeks to rescue the leader of Earth's last refuge of freedom. Reprint.  &lt;a href=”https://archive.org/details/harvestofstars0000ande”&gt;Archive&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asimov_isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asimov, Isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods_themselves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gods Themselves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1351076141i/41821.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Gods_Themselves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/41821.The_Gods_Themselves?from_search=true&amp;from_srp=true&amp;qid=MMhkEGPVTS&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the twenty-second century Earth obtains limitless, free energy from a source science little understands: an exchange between Earth and a parallel universe, using a process devised by the aliens. But even free energy has a price. The transference process itself will eventually lead to the destruction of the Earth's Sun--and of Earth itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winds_change_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The winds of Change...and Other Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1330820595i/314316.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Winds_of_Change_and_Other_Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/314316.The_Winds_of_Change_and_Other_Stories?ref=nav_sb_ss_1_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Nothing (1975), A Perfect Fit" (1981), Belief" (1953), Death of a Foy (1980), Fair Exchange? (1978), For the Birds (1980), Found! (1978), Good Taste (1976), How It Happened (1979), Ideas Die Hard (1957), Ignition Point! (1981), It Is Coming (1979), The Last Answer (1980), The Last Shuttle (1981), Lest We Remember (1982), Nothing for Nothing (1979), One Night of Song (1982), The Smile That Loses (1982), Sure Thing" (1977), To Tell at a Glance (1983), The Winds of Change (1982)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asprin_robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asprin, Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another_fine_myth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myth Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Fine Myth &amp; Myth Conceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388184908i/64399.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Robert_Asprin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/64399.Another_Fine_Myth_Myth_Conceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Fine Myth - Skeeve's master is murdered, and now this apprentice magician must deal with Aahz, a powerless demon summoned by the old magician as a joke.
+Myth Conceptions - Skeeve auditions for court magician of Rodrick and, unfortunately, gets the job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mything_persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myth-ing Persons &amp; Little Myth Maker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390320907i/148240.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/search?utf8=%E2%9C%93&amp;q=robert+asprin&amp;search_type=books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeeve, a powerful young magician, and his companions venture into an upside-down dimension to search for his missing demon partner, Aahz, in Myth-ing Persons, and finds himself saddled with Markie, a pint-sized troublemaker, as an IOU for a high-stakes poker game in Little Myth Marker, in an entertaining omnibus volume. Reprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banks_iain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banks, Iain M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider_phlebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider Phlebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1327951890i/8935689.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Consider_Phlebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/8935689-consider-phlebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Culture and the Idiran Empire are at war in a galaxy-spanning conflict. A Culture Mind, fleeing the destruction of its ship in an Idiran ambush, takes refuge on Schar's World. The Dra'Azon, godlike incorporeal beings, maintain Schar's World as a monument to the world's extinct civilisation and the dangers of nuclear proliferation, forbidding access to both the Culture and the Idirans. Horza, a shape-changing mercenary, is rescued from execution by the Idirans who believe the Dra'Azon guardian may let him onto the planet as in the past he was part of a small group of Changers who acted as stewards. They instruct him to retrieve the Mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player_games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Player of Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386922873i/18630.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Player_of_Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/18630.The_Player_of_Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jernau Morat Gurgeh, a famously skillful player of board games and other similar contests, lives on Chiark Orbital (space station), and is bored with his successful life. The Culture's Special Circumstances (SC) inquires about his willingness to participate in a long journey but won't explain further unless Gurgeh agrees to participate. While he is considering this offer, one of his drone friends, Mawhrin-Skel, which had been ejected from SC due to its unstable personality, convinces him to cheat in one of his games in an attempt to win in an unprecedentedly perfect fashion. The attempt fails, but Mawhrin-Skel uses its recording of the event to blackmail Gurgeh into accepting the offer with the condition that Mawhrin-Skel be admitted back into SC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1587400756i/12007.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Use_of_Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/12007.Use_of_Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The narrative takes the form of a biography of a man called Cheradenine Zakalwe, who was born outside of the Culture but was recruited into it by Special Circumstances agent Diziet Sma to work as an operative intervening in less advanced civilizations. The novel recounts several of these interventions and Zakalwe's attempts to come to terms with his own past.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288930712i/12013.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Excession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/12013.Excession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book is largely about the response of the Culture's Minds (benevolent AIs with enormous intellectual and physical capabilities and distinctive personalities) to the Excession itself and the way in which another society, the Affront, whose systematic brutality horrifies the Culture, tries to use the Excession to increase its power. As in Banks' other Culture novels the main themes are the moral dilemmas that confront a hyperpower and how biological characters find ways to give their lives meaning in a post-scarcity society that is presided over by benign super-intelligent machines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look_windward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look to Windward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288930978i/12016.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Look_to_Windward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/12016.Look_to_Windward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look to Windward is loosely a sequel to Consider Phlebas, Banks's first published Culture novel. Consider Phlebas took its name from the following line in the poem and dealt with the events of the Idiran-Culture War; Look to Windward deals with the results of the war on those who lived through it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feersum_endjinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feersum Endjinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1330098070i/12015.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Feersum_Endjinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/12015.Feersum_Endjinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After dying seven times, Count Alandre Sessine VII has only one life remaining, and he becomes a fugitive in search of others like himself while he tries to track down his killer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bradbury_ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradbury, Ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahrenheit_451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrenheit 451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1383718290i/13079982.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Fahrenheit_451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13079982-fahrenheit-451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Guy Montag is a fireman. His job is to destroy the most illegal of commodities, the printed book, along with the houses in which they are hidden. Montag never questions the destruction and ruin his actions produce, returning each day to his bland life and wife, Mildred, who spends all day with her television “family.” But when he meets an eccentric young neighbor, Clarisse, who introduces him to a past where people didn’t live in fear and to a present where one sees the world through the ideas in books instead of the mindless chatter of television, Montag begins to question everything he has ever known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illustrated_man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Illustrated Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1374049820i/24830.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Illustrated_Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/24830.The_Illustrated_Man?ref=nav_sb_ss_1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though most were written in the 1940s and 1950s, these 18 classic stories will be just as chillingly effective 50 years from now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumas_alexandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumas, Alexandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three_musketeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Three Musketeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1677809469i/20464700.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Three_Musketeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/20464700-the-three-muskateers?from_search=true&amp;from_srp=true&amp;qid=x1YsGuhzzn&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The classic book, The Three Musketeers by Alexandre Dumas! There's a reason why The Three Musketeers is one of the best books of all time. If you haven't read this classic, then you'd better pick up a copy of The Three Musketeers by Alexandre Dumas today!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burgess_anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgess, Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clockwork_orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Clockwork Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1549260060i/41817486.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Clockwork_Orange_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/41817486-a-clockwork-orange?from_search=true&amp;from_srp=true&amp;qid=YkW7o29bJE&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Anthony Burgess's influential nightmare vision of the future, criminals take over after dark. Teen gang leader Alex narrates in fantastically inventive slang that echoes the violent intensity of youth rebelling against society. Dazzling and transgressive, A Clockwork Orange is a frightening fable about good and evil and the meaning of human freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buter_octavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butler, Octavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parable_sower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parable of the Sower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442169447i/52397.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Parable_of_the_Sower_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/52397.Parable_of_the_Sower?from_search=true&amp;from_srp=true&amp;qid=th16ky8WAL&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n 2024, with the world descending into madness and anarchy, one woman begins a fateful journey toward a better future.
+Lauren Olamina and her family live in one of the only safe neighborhoods remaining on the outskirts of Los Angeles. Behind the walls of their defended enclave, Lauren’s father, a preacher, and a handful of other citizens try to salvage what remains of a culture that has been destroyed by drugs, disease, war, and chronic water shortages. While her father tries to lead people on the righteous path, Lauren struggles with hyperempathy, a condition that makes her extraordinarily sensitive to the pain of others.
+When fire destroys their compound, Lauren’s family is killed and she is forced out into a world that is fraught with danger. With a handful of other refugees, Lauren must make her way north to safety, along the way conceiving a revolutionary idea that may mean salvation for all mankind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_orson_scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card, Orson Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales of Alvin Maker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crystal City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1436242597i/92923.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Crystal_City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/92923.The_Crystal_City?from_search=true&amp;from_srp=true&amp;qid=YsXuWo9RTD&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the lore and the folk-magic of the men and women who settled North America, Orson Scott Card has created an alternate world where magic works, and where that magic has colored the entire history of the colonies. Charms and beseechings, hexes and potions, all have a place in the lives of the people of this world. Dowsers find water, the second sight warns of dangers to come, and a torch can read a person's future---or their heart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chandler_raymond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler, Raymond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big_sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip Marlowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Big Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1371584712i/2052.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Big_Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/2052.The_Big_Sleep?from_search=true&amp;from_srp=true&amp;qid=GqY39rydU9&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a dying millionaire hires Philip Marlowe to handle the blackmailer of one of his two troublesome daughters, Marlowe finds himself involved with more than extortion. Kidnapping, pornography, seduction, and murder are just a few of the complications he gets caught up in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_good-bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Long Good-Bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1356448408i/132434.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Long_Goodbye_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/132434.The_Long_Good_bye?from_search=true&amp;from_srp=true&amp;qid=Xs97mh5vfe&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouble is Philip Marlowe's business. A young drunk slides from under the driving-wheel of a silver wraith, into his arms. His hair's white, his face scared, and he's called Terry Lennox. Soon, Marlowe's thigh-high in a murder case, cooling his heels in the felony tank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chandler_collected_stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collected Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347752081i/124204.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Raymond_Chandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/124204.Collected_Stories?from_search=true&amp;from_srp=true&amp;qid=dR31dwrhVt&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only complete edition of stories by the undisputed master of detective literature, collected here for the first time in one volume, including some stories that have been unavailable for decades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaucer_geoffrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaucer, Geoffrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canterbury_tales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Canterbury Tales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1261208589i/2696.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Canterbury_Tales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/2696.The_Canterbury_Tales?from_search=true&amp;from_srp=true&amp;qid=SZxnZtUSbv&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The procession that crosses Chaucer's pages is as full of life and as richly textured as a medieval tapestry. The Knight, the Miller, the Friar, the Squire, the Prioress, the Wife of Bath, and others who make up the cast of characters -- including Chaucer himself -- are real people, with human emotions and weaknesses. When it is remembered that Chaucer wrote in English at a time when Latin was the standard literary language across western Europe, the magnitude of his achievement is even more remarkable. But Chaucer's genius needs no historical introduction; it bursts forth from every page of The Canterbury Tales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiang_ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiang, Ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stories_your_life_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories of Your Life and Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1356138316i/223380.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Stories_of_Your_Life_and_Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/223380.Stories_of_Your_Life_and_Others?from_search=true&amp;from_srp=true&amp;qid=N8YFxNqVAa&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if men built a tower from Earth to Heaven-and broke through to Heaven's other side? What if we discovered that the fundamentals of mathematics were arbitrary and inconsistent? What if there were a science of naming things that calls life into being from inanimate matter? What if exposure to an alien language forever changed our perception of time? What if all the beliefs of fundamentalist Christianity were literally true, and the sight of sinners being swallowed into fiery pits were a routine event on city streets? These are the kinds of outrageous questions posed by the stories of Ted Chiang. Stories of your life . . . and others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clarke_arthur_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carke, Arthur C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odyssey_two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010: Odyssey Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388271989i/70539.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/2010:_Odyssey_Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/70539.2010?ref=nav_sb_ss_1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set in the year 2010, the plot centres on a joint Soviet-US mission aboard the Soviet spacecraft The Cosmonaut Alexei Leonov. The mission has several objectives, including salvaging the spaceship Discovery and investigating the mysterious "monolith" discovered by Dave Bowman in 2001: A Space Odyssey. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">odyssey_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2061: Odyssey Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347907073i/35816.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/2061:_Odyssey_Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/35816.2061?from_search=true&amp;from_srp=true&amp;qid=jAWaoqiZzb&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur C. Clarke, creator of one of the world's best-loved science fiction tales, revisits the most famous future ever imagined in this NEW YORK TIMES bestseller, as two expeditions into space become inextricably tangled. Heywood Floyd, survivor of two previous encounters with the mysterious monloiths, must again confront Dave Bowman, HAL, and an alien race that has decided that Mankind is to play a part in the evolution of the galaxy whether it wishes to or not. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3001: The Final Odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388271918i/63432.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/3001:_The_Final_Odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/63432.3001?ref=nav_sb_ss_1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On an ill-fated mission to Jupiter in 2001, the mutinous supercomputer HAL sent crewmembers David Bowman and Frank Poole into the frozen void of space. Bowman’s strange transformation into a Star Child is traced through the novels 2010 and 2061. But now, a thousand years after his death, Frank Poole is brought back to life—and thrust into a world far more technically advanced than the one he left behind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clarke_susanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarke, Susanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piranesi_clarke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piranesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1609095173i/50202953.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Piranesi_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/50202953-piranesi?from_search=true&amp;from_srp=true&amp;qid=o2HgQVkRVu&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piranesi’s house is no ordinary building: its rooms are infinite, its corridors endless, its walls are lined with thousands upon thousands of statues, each one different from all the others. Within the labyrinth of halls an ocean is imprisoned; waves thunder up staircases, rooms are flooded in an instant. But Piranesi is not afraid; he understands the tides as he understands the pattern of the labyrinth itself. He lives to explore the house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobb_ernest_bertha_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobb, Ernest &amp; Bertha B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans_boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan’s Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DTXML5PH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Dans-Boy-bertha-ernest-cobb/dp/B000B5YJ3I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/37776043-dan-s-boy?from_search=true&amp;from_srp=true&amp;qid=6xOJbQYTAi&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cook_glen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook, Glen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black_company_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Black Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: 0812521390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1389929874i/140671.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Black_Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/140671.The_Black_Company?from_search=true&amp;from_srp=true&amp;qid=JCqt340t72&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some feel the Lady, newly risen from centuries in thrall, stands between humankind and evil. Some feel she is evil itself. The hard-bitten men of the Black Company take their pay and do what they must, burying their doubts with their dead. Until the prophesy: The White Rose has been reborn, somewhere, to embody good once more. There must be a way for the Black Company to find her... So begins one of the greatest fantasy epics of our age—Glen Cook's Chronicles of the Black Company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crichton_michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crichton, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurassic_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1529604411i/40604658.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Jurassic_Park_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/40604658-jurassic-park?from_search=true&amp;from_srp=true&amp;qid=DWaS4AXpwJ&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An astonishing technique for recovering and cloning dinosaur DNA has been discovered. Now humankind’s most thrilling fantasies have come true. Creatures extinct for eons roam Jurassic Park with their awesome presence and profound mystery, and all the world can visit them—for a price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eaters_dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eaters of the Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1165637964i/7673.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Eaters_of_the_Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7673.Eaters_of_the_Dead?from_search=true&amp;from_srp=true&amp;qid=yo0VgOWR9d&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t is 922 A.D. The refined Arab courtier Ibn Fadlan is accompanying a party of Viking warriors back to their home. He is appalled by their customs—the gratuitous sexuality of their women, their disregard for cleanliness, and their cold-blooded sacrifices. As they enter the frozen, forbidden landscape of the North—where the day’s length does not equal the night’s, where after sunset the sky burns in streaks of color—Fadlan soon discovers that he has been unwillingly enlisted to combat the terrors in the night that come to slaughter the Vikings, the monsters of the mist that devour human flesh. But just how he will do it, Fadlan has no idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dahl_roald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahl, Roald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dahl_cruelty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruelty: Tales of Malice and Greed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471276915i/30141183.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Roald_Dahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30141183-cruelty?ref=nav_sb_ss_2_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even when we mean to be kind we can sometimes be cruel. We each have a streak of nastiness inside us. In these ten tales of cruelty master storyteller Roald Dahl explores how and why it is we make others suffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dahl_lust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lust: Tales of Craving and Desire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471284934i/30141181.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30141181-lust?from_search=true&amp;from_srp=true&amp;qid=8Htg9sT3og&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To what lengths would you go to achieve your heart's desire? In these ten tales of twisted love master storyteller Roald Dahl explores how our darkest impulses reveal who we really are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dahl_madness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madness: Tales of Fear and Unreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471279594i/30141182.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30141182-madness?from_search=true&amp;from_srp=true&amp;qid=yB0BCKAn2L&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our greatest fear is of losing control - of our lives, but, most of all, of ourselves. In these ten unsettling tales of unexpected madness master storyteller Roald Dahl explores what happens when we let go our sanity. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dick_philip_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dick, Philip K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">androids_dream_electric_sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Androids Dream of Electric Sheep?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DWVGYNQZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1507838927i/36402034.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Do_Androids_Dream_of_Electric_Sheep%3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36402034-do-androids-dream-of-electric-sheep?ref=nav_sb_ss_1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was January 2021, and Rick Deckard had a license to kill. Somewhere among the hordes of humans out there, lurked several rogue androids. Deckard's assignment--find them and then..."retire" them. Trouble was, the androids all looked exactly like humans, and they didn't want to be found!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade_runner_comic_motion_picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Official Comics Illustrated Version of the Motion Picture Hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B00072L3GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/7/79/Blade_Runner_1982_cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Marvel_Comics_Super_Special:_Blade_Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/160257807-blade-runner?ref=nav_sb_ss_1_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvel Comics Super Special: Blade Runner or just Blade Runner is a comic book adaptation of the film Blade Runner, published by Marvel Comics in 1982. It was written by Archie Goodwin with art by Al Williamson, Carlos Garzon with Dan Green and Ralph Reese.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward_robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward, Robert L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/1/15/Starquake_novel_cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Starquake_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/263487.Starquake?from_search=true&amp;from_srp=true&amp;qid=uZwXP8YDvU&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starquake, the sequel to Dragons Egg, takes place on the surface of a neutron star. The gravity is 67 billion Earth gravities. The native cheela, the size of sesame seeds, live a million times faster than their human friends in orbit. After a starquake, the humans have only one day to save the remains of cheela civilization from extinction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gibson_william</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibson, William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burning_chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1349075772i/22323.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Burning_Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22323.Burning_Chrome?from_search=true&amp;from_srp=true&amp;qid=1XM9xD59bg&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten tales, from the computer-enhanced hustlers of Johnny Mnemonic to the technofetishist blues of Burning Chrome.
+Johnny Mnemonic (1981), The Gernsback Continuum (1981), Fragments of a Hologram Rose (1977), The Belonging Kind (1981) with John Shirley, Hinterlands (1981), Red Star, Winter Orbit (1983) with Bruce Sterling, New Rose Hotel (1984), The Winter Market (1985), Dogfight (1985) with Michael Swanwick, Burning Chrome (1982)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprawl_neuromancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuromancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B000O76ON6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1554437249i/6088007.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Neuromancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/6088007-neuromancer?from_search=true&amp;from_srp=true&amp;qid=IlP4gHT7vi&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotwired to the leading edges of art and technology, Neuromancer is a cyberpunk, science fiction masterpiece—a classic that ranks with 1984 and Brave New World as one of the twentieth century’s most potent visions of the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprawl_count_zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-575-03696-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390358225i/22200.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Count_Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22200.Count_Zero?from_search=true&amp;from_srp=true&amp;qid=GOVBmVRUD2&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A corporate mercenary wakes in a reconstructed body, a beautiful woman by his side. Then Hosaka Corporation reactivates him, for a mission more dangerous than the one he’s recovering to get a defecting chief of R&amp;D—and the biochip he’s perfected—out intact. But this proves to be of supreme interest to certain other parties—some of whom aren’t remotely human....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprawl_mona_lisa_overdrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona Lisa Overdrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1374778887i/154091.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Mona_Lisa_Overdrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/154091.Mona_Lisa_Overdrive?from_search=true&amp;from_srp=true&amp;qid=50mAHMK7FM&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Gibson, author of the extraordinary multiaward-winning novel Neuromancer, has written his most brilliant and thrilling work to date... The Mona Lisa Overdrive. Enter Gibson's unique world - lyric and mechanical, erotic and violent, sobering and exciting - where multinational corporations and high tech outlaws vie for power, traveling into the computer-generated universe known as cyberspace. Into this world comes Mona, a young girl with a murky past and an uncertain future whose life is on a collision course with internationally famous Sense/Net star Angie Mitchell. Since childhood, Angie has been able to tap into cyberspace without a computer. Now, from inside cyberspace, a kidnapping plot is masterminded by a phantom entity who has plans for Mona, Angie, and all humanity, plans that cannot be controlled... or even known. And behind the intrigue lurks the shadowy Yakuza, the powerful Japanese underworld, whose leaders ruthlessly manipulate people and events to suit their own purposes... or so they think.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge_virtual_light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1409238094i/22326.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Virtual_Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22326.Virtual_Light?from_search=true&amp;from_srp=true&amp;qid=Be7KXAjDRz&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005: Welcome to NoCal and SoCal, the uneasy sister-states of what used to be California. Here the millennium has come and gone, leaving in its wake only stunned survivors. In Los Angeles, Berry Rydell is a former armed-response rentacop now working for a bounty hunter. Chevette Washington is a bicycle messenger turned pickpocket who impulsively snatches a pair of innocent-looking sunglasses. But these are no ordinary shades. What you can see through these high-tech specs can make you rich--or get you killed. Now Berry and Chevette are on the run, zeroing in on the digitalized heart of DatAmerica, where pure information is the greatest high. And a mind can be a terrible thing to crash...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge_idoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388413296i/22325.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Idoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22325.Idoru?from_search=true&amp;from_srp=true&amp;qid=SkrLaLOudu&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In twenty-first century Tokyo, Rez, one of the world's biggest rock stars, prepares to marry Rei Toe, Japan's biggest media star, who is known as the Idoru and who exists only in virtual reality. Reprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge_all_tomorrows_parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Tomorrow’s Parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1420821255i/22321.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/All_Tomorrow%27s_Parties_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22321.All_Tomorrow_s_Parties?from_search=true&amp;from_srp=true&amp;qid=YIs2kA87jI&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although Colin Laney (from Gibson's earlier novel Idoru) lives in a cardboard box, he has the power to change the world. Thanks to an experimental drug that he received during his youth, Colin can see "nodal points" in the vast streams of data that make up the worldwide computer network. Nodal points are rare but significant events in history that forever change society, even though they might not be recognizable as such when they occur. Colin isn't quite sure what's going to happen when society reaches this latest nodal point, but he knows it's going to be big. And he knows it's going to occur on the Bay Bridge in San Francisco, which has been home to a sort of SoHo-esque shantytown since an earthquake rendered it structurally unsound to carry traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue_ant_pattern_recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288326931i/22320.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pattern_Recognition_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22320.Pattern_Recognition?ref=nav_sb_ss_1_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayce Pollard is an expensive, spookily intuitive market-research consultant. In London on a job, she is offered a secret assignment: to investigate some intriguing snippets of video that have been appearing on the Internet. An entire subculture of people is obsessed with these bits of footage, and anybody who can create that kind of brand loyalty would be a gold mine for Cayce's client. But when her borrowed apartment is burgled and her computer hacked, she realizes there's more to this project than she had expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue_ant_spook_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spook Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442535360i/22322.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Spook_Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22322.Spook_Country?from_search=true&amp;from_srp=true&amp;qid=GeyeaR1YEB&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tito is in his early twenties. Born in Cuba, he speaks fluent Russian, lives in one room in a NoLita warehouse, and does delicate jobs involving information transfer.
+Hollis Henry is an investigative journalist, on assignment from a magazine called Node. Node doesn't exist yet, which is fine; she's used to that. But it seems to be actively blocking the kind of buzz that magazines normally cultivate before they start up. Really actively blocking it. It's odd, even a little scary, if Hollis lets herself think about it much. Which she doesn't; she can't afford to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue_ant_zero_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1282769471i/7745031.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Zero_History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7745031-zero-history?ref=nav_sb_ss_1_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollis Henry never intended to work for global marketing magnate Hubertus Bigend again. But now she’s broke, and Bigend has just the thing to get her back in the game...
+Milgrim can disappear in almost any setting, and his Russian is perfectly idiomatic—so much so that he spoke it with his therapist in the secret Swiss clinic where Bigend paid for him to be cured of his addiction…
+Garreth doesn't owe Bigend a thing. But he does have friends from whom he can call in the kinds of favors powerful people need when things go sideways...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jackpot_peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1574084339i/24611819.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/24611819-the-peripheral?ref=nav_sb_ss_1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flynne Fisher lives down a country road, in a rural near-future America where jobs are scarce, unless you count illegal drug manufacture, which she’s trying to avoid. Her brother Burton lives, or tries to, on money from the Veterans Administration, for neurological damage suffered in the Marines’ elite Haptic Recon unit. Flynne earns what she can by assembling product at the local 3D printshop. She made more as a combat scout in an online game, playing for a rich man, but she’s had to let the shooter games go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jackpot_agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1493829667i/34943643.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Agency_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/34943643-agency?from_search=true&amp;from_srp=true&amp;qid=UyNJnTEpRd&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In William Gibson's first novel since 2014's New York Times bestselling The Peripheral, a gifted "app-whisperer" is hired by a mysterious San Francisco start-up and finds herself in contact with a unique and surprisingly combat-savvy AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrust_particular_flavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrust that Particular Flavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348841998i/11890817.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Distrust_That_Particular_Flavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/11890817-distrust-that-particular-flavor?ref=nav_sb_ss_1_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Gibson is known primarily as a novelist, with his work ranging from his groundbreaking first novel, Neuromancer , to his more recent contemporary bestsellers Pattern Recognition, Spook Country , and Zero History . During those nearly thirty years, though, Gibson has been sought out by widely varying publications for his insights into contemporary culture. Wired magazine sent him to Singapore to report on one of the world's most buttoned-up states. The New York Times Magazine asked him to describe what was wrong with the Internet. Rolling Stone published his essay on the ways our lives are all "soundtracked" by the music and the culture around us. And in a speech at the 2010 Book Expo, he memorably described the interactive relationship between writer and reader. These essays and articles have never been collected-until now. Some have never appeared in print at all. In addition, Distrust That Particular Flavor includes journalism from small publishers, online sources, and magazines no longer in existence. This volume will be essential reading for any lover of William Gibson's novels. Distrust That Particular Flavor offers readers a privileged view into the mind of a writer whose thinking has shaped not only a generation of writers but our entire culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herbert_frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert, Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dune_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1555447414i/44767458.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Dune_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/44767458-dune?ref=nav_sb_ss_1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set on the desert planet Arrakis, Dune is the story of the boy Paul Atreides, heir to a noble family tasked with ruling an inhospitable world where the only thing of value is the “spice” melange, a drug capable of extending life and enhancing consciousness. Coveted across the known universe, melange is a prize worth killing for...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dune_messiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dune Messiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9780593098233 (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1577043824i/44492285.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Dune_Messiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/44492285-dune-messiah?from_search=true&amp;from_srp=true&amp;qid=wSdvO4iTQs&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dune Messiah continues the story of Paul Atreides, better known--and feared--as the man christened Muad'Dib. As Emperor of the Known Universe, he possesses more power than a single man was ever meant to wield. Worshipped as a religious icon by the fanatical Fremens, Paul faces the enmity of the political houses he displaced when he assumed the throne--and a conspiracy conducted within his own sphere of influence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hodgson_william_hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodgson, William Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night_land_retold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Night Land: A Story Retold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1912 &amp; 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B004GKNM3W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1328317011i/10577778.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Night_Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Stoddard rewrite of Hodgson original.
+An adventure of both science fiction and fantasy—one of the great love stories--this is William Hope Hodgson's masterpiece, rewritten for the modern reader.  Penned in 1912, The Night Land is considered by many to be a work of genius, but one written in a difficult, archaic style that readers often find impenetrable. As a labor of love, James Stoddard has rewritten Hodgson's book to bring it to a wider audience.  The story opens in the 19th century, but quickly moves to the far future, where the sun has gone out, leaving the world in a darkness broken only by strange lights and mysterious fires. Over the ages, monsters and evil forces have descended to the earth, compelling the surviving humans to take refuge in a great pyramid of imperishable metal built in a miles-deep chasm. The monsters surround the pyramid in a perpetual siege lasting for eons, waiting for the moment when its defenses must fail.  But one man, born out of his time, must leave the pyramid to seek his long-lost love though all the perils of the Night Land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howard_robert_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard, Robert E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conan_adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conan the Adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1285268268i/443774.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Conan_the_Adventurer_(short_story_collection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/443774.Conan_the_Adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collects: People of the Black Circle (Sept 1934), Slithering Shadow (Sept 1933), Drums of Tombalku (1930s), Pool of the Black Ones (Nov 1933)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conan_complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Complete Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B01921JHGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1449628167i/28149241.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Conan_the_Barbarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/28149241-conan?from_search=true&amp;from_srp=true&amp;qid=8TTFgAdDbB&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This has all of the stories but it is a truly awful POD copy. I need to get a nicer version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelloun_tahar_ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelloun, Tahar Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blinding_absence_light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Blinding Absence of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-02-041777-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1583499973i/20870778.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/This_Blinding_Absence_of_Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/20870778-this-blinding-absence-of-light?ref=nav_sb_noss_l_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shocking story set in Morocco's desert concentration camps, from the Prix Goncourt-winning novelist. An immediate and critically acclaimed bestseller in France, This Blinding Absence of Light is Tahar Ben Jelloun's crafting of a horrific real-life narrative into a work of fiction. "In this deeply moving novel," says L'Express, "Tahar Ben Jelloun has chosen imagination as the response to inhumanity—the art of writing as the ultimate liberation." He tells the appalling story of the desert concentration camps in which King Hassan II of Morocco held his political enemies. Not until September 1991, under international pressure, was Hassan's regime forced to open these desert hellholes. A handful of survivors—living cadavers who had shrunk by over a foot in height—emerged from the six-by-three-foot cells in which they had been held underground for decades. Working closely with one of the survivors, Ben Jelloun eschewed the traditional novel format and wrote a book in the simplest of language, reaching always for the most basic of words, the most correct descriptions. The result is "a great novel," according to Le Monde, and what Les Échos calls "a book of universal import, addressing all the horrors, past and doubtless future, that man has inflicted on his fellow men."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka_franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafka, Frankz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metamorphosis_other_stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Metamorphosis and Other Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386925094i/7723.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Metamorphosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7723.The_Metamorphosis_and_Other_Stories?from_search=true&amp;from_srp=true&amp;qid=p5O8Fv3O04&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Judgement, The Metamorphosis, In the Penal Colony, A Country Doctor, A Report to an Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le_guin_ursula_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Guin, Ursula K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthsea_first_four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The First Four Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1584887380l/52969000.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Earthsea_(universe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/52969000-earthsea?ref=nav_sb_ss_1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wizard of Earthsea, The Tombs of Atuan, The Farthest Shore, Tehanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tales_from_earthsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales from Earthsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309202073i/13659.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13659.Tales_from_Earthsea?ref=nav_sb_ss_1_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five stories of Ursula K. Le Guin's world-renowned realm of Earthsea are collected in one volume. Featuring two classic stories, two original tales, and a brand-new novella, as well as new maps and a special essay on Earthsea's history, languages, literature, and magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthsea_other_wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Other Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309285821i/13658.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13658.The_Other_Wind?ref=nav_sb_ss_1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sorcerer Alder fears sleep. He dreams of the land of death, of his wife who died young and longs to return to him so much that she kissed him across the low stone wall that separates our world from the Dry Land-where the grass is withered, the stars never move, and lovers pass without knowing each other. The dead are pulling Alder to them at night. Through him they may free themselves and invade Earthsea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lathe_heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lathe of Heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1433084322i/59924.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Lathe_of_Heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/59924.The_Lathe_of_Heaven?from_search=true&amp;from_srp=true&amp;qid=347YPR7pXU&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A classic science fiction novel by one of the greatest writers of the genre, set in a future world where one man's dreams control the fate of humanity.
+In a future world racked by violence and environmental catastrophes, George Orr wakes up one day to discover that his dreams have the ability to alter reality. He seeks help from Dr. William Haber, a psychiatrist who immediately grasps the power George wields. Soon George must preserve reality itself as Dr. Haber becomes adept at manipulating George's dreams for his own purposes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unreal_real_where_earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unreal &amp; The Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where on Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388535821i/13591878.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Ursula_K._Le_Guin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13591878-the-unreal-and-the-real?ref=nav_sb_ss_1_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unreal and the Real is a major event not to be missed. In this two-volume selection of Ursula K. Le Guin's best short stories—as selected by the National Book Award winning author herself—the reader will be delighted, provoked, amused, and faced with the sharp, satirical voice of one of the best short story writers of the present day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liber_fritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiber, Fritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swords_against_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fafhrd and the Gray Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swords Against Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1441810943i/218716.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Fafhrd_and_the_Gray_Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/218716.Swords_Against_Death?from_search=true&amp;from_srp=true&amp;qid=LTrOEdu263&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Swords Against Death, Fafhrd and the Gray Mouser journey from the ancient city of Lankhmar, searching for a little adventure and debauchery to ease their broken hearts. When a stranger challenges them to find and fight Death on the Bleak Shore, they battle demonic birds, living mountains, and evil monks on the way to their heroic fate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lynch_scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynch, Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lies_locke_lamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentleman Bastard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lies of Locke Lamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1659900442i/643750.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Lies_of_Locke_Lamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/643750.The_Lies_of_Locke_Lamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An orphan’s life is harsh—and often short—in the mysterious island city of Camorr. But young Locke Lamora dodges death and slavery, becoming a thief under the tutelage of a gifted con artist. As leader of the band of light-fingered brothers known as the Gentleman Bastards, Locke is soon infamous, fooling even the underworld’s most feared ruler. But in the shadows lurks someone still more ambitious and deadly. Faced with a bloody coup that threatens to destroy everyone and everything that holds meaning in his mercenary life, Locke vows to beat the enemy at his own brutal game—or die trying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mccabe_patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCabe, Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butcher_boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Butcher Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1417408216i/82965.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Butcher_Boy_(novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/82965.The_Butcher_Boy?from_search=true&amp;from_srp=true&amp;qid=Mn1xwVWm8b&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a precisely crafted, often lyrical, portrait of the descent into madness of a young killer in small-town Ireland. "Imagine Huck Finn crossed with Charlie Starkweather," said The Washington Post. Short-listed for the Bram Stoker Award and England's prestigious Booker Prize.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcgregor_jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McGregor, Jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nobody_speaks_remarkable_things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Nobody Speaks of Remarkable Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1440279416i/103345.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/If_Nobody_Speaks_of_Remarkable_Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/103345.If_Nobody_Speaks_Of_Remarkable_Things?ref=nav_sb_ss_1_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Nobody Speaks of Remarkable Things explores the hopes, fears, and unspoken despairs of a diverse a single father with painfully scarred hands; a group of young club-goers just home from an all-night rave, sweetly high and mulling over vague dreams; and the nervous young man at number 18 who collects weird urban junk and is haunted by the specter of unrequited love. What eventually unites them is an utterly surprising and terrible twist of fate that shatters their everyday, ordinary tranquility, and all that they take for granted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miller_walter_m_jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miller, Walter M. Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canticle_for_leibowitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Canticle for Leibowitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B001FY2JKO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/d/d2/A_Canticle_for_Leibowitz_cover_1st_ed.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Canticle_for_Leibowitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/157354565-a-canticle-for-liebowitz?from_search=true&amp;from_srp=true&amp;qid=tE48JoWyqk&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a nightmarish ruined world slowly awakening to the light after sleeping in darkness, the infant rediscoveries of science are secretly nourished by cloistered monks dedicated to the study and preservation of the relics and writings of the blessed Saint Isaac Leibowitz. From here the story spans centuries of ignorance, violence, and barbarism, viewing through a sharp, satirical eye the relentless progression of a human race damned by its inherent humanness to recelebrate its grand foibles and repeat its grievous mistakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moorcock_michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moorcock, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elric_saga_vol1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elric of Melniboné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Elric Saga, Vol 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1616567014i/56897579.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Elric_of_Melnibon%C3%A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/56897579-elric-of-melnibon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elric of Melnibone, The Fortress of the Pearl, The Sailor on the Sea of Fate, The Weird of the White Wolfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petrov_evgeny_ilf_ilya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrov, Evgeny &amp; Ilf, Ilya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden_calf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Golden Calf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1398195569i/6750324.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Ilf_and_Petrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/6750324-the-golden-calf?ref=nav_sb_ss_2_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostap Bender, the "grand strategist," is a con man on the make in the Soviet Union during the New Economic Policy (NEP) period. He’s obsessed with getting one last big score—a few hundred thousand will do—and heading for Rio de Janeiro, where there are "a million and a half people, all of them wearing white pants, without exception."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reynolds_alastari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds, Alastair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamone_dogs_turquoise_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revelation Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Dogs, Turquoise Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348305802i/893590.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Diamond_Dogs,_Turquoise_Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/893590.Diamond_Dogs_Turquoise_Days?ref=nav_sb_noss_l_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just when you thought it was safe to go back into interstellar space ...Alastair Reynolds burst onto the SF scene with the Arthur C. Clarke Award-shortlisted REVELATION SPACE, British Science Fiction Award-winning CHASM CITY, and REDEMPTION ARK. Now experience the phenomenal imagination and breathtaking vision of 'The most exciting space opera writer working today' (Locus) in these two tales of high adventure set in the same universe as his novels. The title story, 'Diamond Dogs', tells of a group of mercenaries trying to unravel the mystery of a particularly inhospitable alien tower on a distant world; 'Turquoise Days' is about Naqi, who has devoted her life to studying the alien Pattern Jugglers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing_ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushing Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309197028i/89186.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pushing_Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/89186.Pushing_Ice?from_search=true&amp;from_srp=true&amp;qid=reY7ICYCtC&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2057. Bella Lind and the crew of her nuclear-powered ship, the Rockhopper, push ice. They mine comets. But when Janus, one of Saturn's ice moons, inexplicably leaves its natural orbit and heads out of the solar system at high speed, Bella is ordered to shadow it for the few vital days before it falls forever out of reach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saberhagen_fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saberhagen, Fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empire_east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empire of the East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388330793i/16482.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Empire_of_the_East_series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/16482.Empire_of_the_East?ref=nav_sb_ss_1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the distant future, society has crumbled. Dark forces now rule the land, keeping all humans under their oppressive thumbs.
+In the darkness of the shadows and whispered on the winds, there is talk of a rebellion. In the swamps, a small band has formed. Determined to regain their freedom, the rebellion, heavily outnumbered, plans to overthrow an army of thousands . . . with the help of one incredible weapon.
+It is only a legend, a story left over from the Old World before magic and the wizards came to the land. A weapon of technology. It is the mystical Elephant, and whoever masters it holds the key to freedom, or defeat.
+One young man, determined to avenge the death of his family, sets out to join the rebellion and find Elephant. What he discovers will change everything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simmons_dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simmons, Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperion_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Cantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1405546838i/77566.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Hyperion_Cantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/77566.Hyperion?from_search=true&amp;from_srp=true&amp;qid=bmRGdQNDpM&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the world called Hyperion, beyond the law of the Hegemony of Man, there waits the creature called the Shrike. There are those who worship it. There are those who fear it. And there are those who have vowed to destroy it. In the Valley of the Time Tombs, where huge, brooding structures move backward through time, the Shrike waits for them all. On the eve of Armageddon, with the entire galaxy at war, seven pilgrims set forth on a final voyage to Hyperion seeking the answers to the unsolved riddles of their lives. Each carries a desperate hope—and a terrible secret. And one may hold the fate of humanity in his hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fall_hyperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fall of Hyperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1541174620i/77565.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/77565.The_Fall_of_Hyperion?from_search=true&amp;from_srp=true&amp;qid=bmRGdQNDpM&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the stunning continuation of the epic adventure begun in Hyperion, Simmons returns us to a far future resplendent with drama and invention. On the world of Hyperion, the mysterious Time Tombs are opening. And the secrets they contain mean that nothing--nothing anywhere in the universe--will ever be the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steinback_john</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steinback, John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1437234939i/5308.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/John_Steinbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/5308.The_Pearl?from_search=true&amp;from_srp=true&amp;qid=jPXgORXhQ7&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like his father and grandfather before him, Kino is a poor diver, gathering pearls from the gulf beds that once brought great wealth to the kings of Spain and now provide Kino, Juana, and their infant son with meager subsistence. Then, on a day like any other, Kino emerges from the sea with a pearl as large as a sea gull’s egg, as “perfect as the moon.” With the pearl comes hope, the promise of comfort and of security…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stephenson_neal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephenson, Neal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow_crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1656932283i/61240297.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Snow_Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/61240297-snow-crash?ref=nav_sb_ss_1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In reality, Hiro Protagonist delivers pizza for Uncle Enzo's CosoNostra Pizza Inc., but in the Metaverse he's a warrior prince. Plunging headlong into the enigma of a new computer virus that's striking down hackers everywhere, he races along the neon-lit streets on a search-and-destroy mission for the shadowy virtual villain threatening to bring about infocalypse. Snow Crash is a mind-altering romp through a future America so bizarre, so outrageous . . . you'll recognize it immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Diamond Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388180931i/827.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Diamond_Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/827.The_Diamond_Age?from_search=true&amp;from_srp=true&amp;qid=V380uRpfld&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Diamond Age: Or, a Young Lady's Illustrated Primer is a postcyberpunk novel by Neal Stephenson. It is to some extent a science fiction coming-of-age story, focused on a young girl named Nell, and set in a future world in which nanotechnology affects all aspects of life. The novel deals with themes of education, social class, ethnicity, and the nature of artificial intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strieber_whitley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strieber, Whitley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communion_true_story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communion: A True Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348070533i/294285.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Communion_(book)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/294285.Communion?ref=nav_sb_ss_1_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On December 26, 1985, at a secluded cabin in upstate New York, Whitley Strieber went skiing with his wife and son, ate Christmas dinner leftovers, and went to bed early.
+Six hours later, he found himself suddenly awake... and forever changed.
+Thus begins the most astonishing true-life odyssey ever recorded—one man's riveting account of his extraordinary experiences with visitors from "elsewhere"... how they found him, where they took him, what they did to him and why...
+Believe it. Or don't believe it. But read it—for this gripping story will move you like no other... will fascinate you, terrify you, and alter the way you experience your world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strugatsky_arkady_boris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strugatsky, Arkady &amp; Boris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roadside_picnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadside Picnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/a/a9/Roadside-picnic-macmillan-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Roadside_Picnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/331256.Roadside_Picnic?ref=nav_sb_ss_1_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Schuhart is a stalker, one of those young rebels who are compelled, in spite of extreme danger, to venture illegally into the Zone to collect the mysterious artifacts that the alien visitors left scattered around. His life is dominated by the place and the thriving black market in the alien products. But when he and his friend Kirill go into the Zone together to pick up a “full empty,” something goes wrong. And the news he gets from his girlfriend upon his return makes it inevitable that he’ll keep going back to the Zone, again and again, until he finds the answer to all his problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolkien_jrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolkien, J.R.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hobbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle-Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hobbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DN8P5BQF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1546071216i/5907.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Hobbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/5907.The_Hobbit_or_There_and_Back_Again?from_search=true&amp;from_srp=true&amp;qid=kJav6zNSCy&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a hole in the ground there lived a hobbit. Not a nasty, dirty, wet hole, filled with the ends of worms and an oozy smell, nor yet a dry, bare, sandy hole with nothing in it to sit down on or to eat: it was a hobbit-hole, and that means comfort.
+Written for J.R.R. Tolkien’s own children, The Hobbit met with instant critical acclaim when it was first published in 1937. Now recognized as a timeless classic, this introduction to the hobbit Bilbo Baggins, the wizard Gandalf, Gollum, and the spectacular world of Middle-earth recounts of the adventures of a reluctant hero, a powerful and dangerous ring, and the cruel dragon Smaug the Magnificent. The text in this 372-page paperback edition is based on that first published in Great Britain by Collins Modern Classics (1998), and includes a note on the text by Douglas A. Anderson (2001).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fellowship_ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lord of the Rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DT42KYKH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/8/8e/The_Fellowship_of_the_Ring_cover.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Fellowship_of_the_Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/61215351-the-fellowship-of-the-ring?ref=nav_sb_ss_1_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In ancient times the Rings of Power were crafted by the Elven-smiths, and Sauron, the Dark Lord, forged the One Ring, filling it with his own power so that he could rule all others. But the One Ring was taken from him, and though he sought it throughout Middle-earth, it remained lost to him. After many ages it fell into the hands of Bilbo Baggins, as told in The Hobbit.
+In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two_towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Two Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DT3YQ3DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/a/a1/The_Two_Towers_cover.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Two_Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/61215372-the-two-towers?from_search=true&amp;from_srp=true&amp;qid=AkGClmJnOJ&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frodo and his Companions of the Ring have been beset by danger during their quest to prevent the Ruling Ring from falling into the hands of the Dark Lord by destroying it in the Cracks of Doom. They have lost the wizard, Gandalf, in a battle in the Mines of Moria. And Boromir, seduced by the power of the Ring, tried to seize it by force. While Frodo and Sam made their escape, the rest of the company was attacked by Orcs. Now they continue the journey alone down the great River Anduin—alone, that is, save for the mysterious creeping figure that follows wherever they go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Return of the King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DT3K656L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/1/11/The_Return_of_the_King_cover.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Return_of_the_King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/61215384-the-return-of-the-king?from_search=true&amp;from_srp=true&amp;qid=hLniuBY3rh&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor.
+To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo’s time is running out.
+Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfinished_tales_numenor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfinished Tales of Numenor &amp; Middle-Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1165611104i/7329.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/J._R._R._Tolkien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7329.Unfinished_Tales?ref=nav_sb_ss_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfinished Tales is a collection of narratives ranging in time from the Elder Days of Middle-earth to the end of the War of the Ring, and provides those who have read The Lord of the Rings with a whole collection of background and new stories from the twentieth century’s most acclaimed popular author.
+The book concentrates on the realm of Middle-earth and comprises such elements as Gandalf’s lively account of how it was that he came to send the Dwarves to the celebrated party at Bag-End, the emergence of the sea-god Ulmo before the eyes of Tuor on the coast of Beleriand, and an exact description of the military organization of the Riders of Rohan.
+Unfinished Tales also contains the only story about the long ages of Numenor before its downfall, and all that is known about such matters as the Five Wizards, the Palantiri and the legend of Amroth. The tales were collated and edited by JRR Tolkien’s son and literary heir, Christopher Tolkien, who provides a short commentary on each story, helping the reader to fill in the gaps and put each story into the context of the rest of his father’s writings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrr_tolkien_biography_carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.R.R. Tolkien: A Biography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386924632i/7336.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7336.J_R_R_Tolkien?ref=nav_sb_ss_1_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Written by Humphrey Carpenter.  The authorized biography of the creator of Middle-earth. In the decades since his death in September 1973, millions have read THE HOBBIT, THE LORD OF THE RINGS, and THE SILMARILLION and become fascinated about the very private man behind the books. Born in South Africa in January 1892, John Ronald Reuel Tolkien was orphaned in childhood and brought up in near-poverty. He served in the first World War, surviving the Battle of the Somme, where he lost many of the closest friends he'd ever had. After the war he returned to the academic life, achieving high repute as a scholar and university teacher, eventually becoming Merton Professor of English at Oxford where he was a close friend of C.S. Lewis and the other writers known as The Inklings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verne_jules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verne, Jules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">journey_center_earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey of the Center of the Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/6/67/A_Journey_to_the_Centre_of_the_Earth-1874.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Journey_to_the_Center_of_the_Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/32829.Journey_to_the_Center_of_the_Earth?from_search=true&amp;from_srp=true&amp;qid=kFNXufdM8I&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurous geology professor chances upon a manuscript in which a 16th-century explorer claims to have found a route to the earth's core. Professor Lidenbrock can't resist the opportunity to investigate, and with his nephew Axel, he sets off across Iceland in the company of Hans Bjelke, a native guide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vonnegut_kurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vonnegut, Kurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sirens_titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sirens of Titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/f/f8/Cover_of_first_edition_%28hardcover.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Sirens_of_Titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/4982.The_Sirens_of_Titan?from_search=true&amp;from_srp=true&amp;qid=LgysptG46A&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sirens of Titan is an outrageous romp through space, time, and morality. The richest, most depraved man on Earth, Malachi Constant, is offered a chance to take a space journey to distant worlds with a beautiful woman at his side. Of course there's a catch to the invitation—and a prophetic vision about the purpose of human life that only Vonnegut has the courage to tell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slaughterhouse-five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaughterhouse-Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-385-31208-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/a/ad/Slaughterhouse-Five_%28first_edition%29_-_Kurt_Vonnegut.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Slaughterhouse-Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/4981.Slaughterhouse_Five?from_search=true&amp;from_srp=true&amp;qid=Cth9SXFJi6&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaughterhouse-Five, an American classic, is one of the world’s great antiwar books. Centering on the infamous World War II firebombing of Dresden, the novel is the result of what Kurt Vonnegut described as a twenty-three-year struggle to write a book about what he had witnessed as an American prisoner of war. It combines historical fiction, science fiction, autobiography, and satire in an account of the life of Billy Pilgrim, a barber’s son turned draftee turned optometrist turned alien abductee. As Vonnegut had, Billy experiences the destruction of Dresden as a POW. Unlike Vonnegut, he experiences time travel, or coming “unstuck in time.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vonnegut_letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1380496331i/17857645.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Kurt_Vonnegut:_Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17857645-kurt-vonnegut?from_search=true&amp;from_srp=true&amp;qid=eP9rROvzKB&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt Vonnegut: Letters is a collection of letters written by American author Kurt Vonnegut, edited by his friend and fellow writer Dan Wakefield. Published by Delacorte Press on October 30, 2012, the book compiles a wide range of Vonnegut's correspondence spanning his entire life, offering insight into his personal thoughts, relationships, and the development of his literary career.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watts_peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watts, Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firefall_blindsight_echopraxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&amp;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1408625001i/22838183.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Peter_Watts_(author)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22838183-firefall?ref=nav_sb_ss_4_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blindsight &amp; Echopraxia collected together.
+FIRST CONTACT: 13 FEBRUARY 2082.
+The day sixty-five thousand objects burned briefly around Earth: an unexplained moment of surveillance by an alien intelligence. We called it Firefall.
+Two months later, we sent the Theseus reconnaisance mission into deep space. Somewhere past Jupiter, we lost contact.
+For the last twenty-five years we have waited for word. No further sightings of ""fireflies"" have been reported.
+But all this is about to change. For a man hiding in the Oregon desert is about to play a key role in the next stage of human evolution. And first he must find the Theseus mission...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wells_hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells, H.G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_machine_wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Time Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0084BKY2Q </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1327942880i/2493.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Time_Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/2493.The_Time_Machine?ref=nav_sb_ss_1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So begins the Time Traveller’s astonishing firsthand account of his journey 800,000 years beyond his own era—and the story that launched H.G. Wells’s successful career and earned him his reputation as the father of science fiction. With a speculative leap that still fires the imagination, Wells sends his brave explorer to face a future burdened with our greatest hopes...and our darkest fears. A pull of the Time Machine’s lever propels him to the age of a slowly dying Earth.  There he discovers two bizarre races—the ethereal Eloi and the subterranean Morlocks—who not only symbolize the duality of human nature, but offer a terrifying portrait of the men of tomorrow as well.  Published in 1895, this masterpiece of invention captivated readers on the threshold of a new century. Thanks to Wells’s expert storytelling and provocative insight, The Time Machine will continue to enthrall readers for generations to come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island_doctor_moreau_wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Island of Doctor Moreau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1414314447i/15990644.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Island_of_Doctor_Moreau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/15990644-the-island-of-doctor-moreau?ref=nav_sb_noss_l_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrift in a dinghy, Edward Prendick, the single survivor from the good ship Lady Vain, is rescued by a vessel carrying a profoundly unusual cargo - a menagerie of savage animals. Tended to recovery by their keeper Montgomery, who gives him dark medicine that tastes of blood, Prendick soon finds himself stranded upon an uncharted island in the Pacific with his rescuer and the beasts. Here, he meets Montgomery's master, the sinister Dr. Moreau - a brilliant scientist whose notorious experiments in vivisection have caused him to abandon the civilised world. It soon becomes clear he has been developing these experiments - with truly horrific results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invisible_man_wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Invisible Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1630661776i/17184.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Invisible_Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17184.The_Invisible_Man?ref=nav_sb_ss_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This masterpiece of science fiction is the fascinating story of Griffin, a scientist who creates a serum to render himself invisible, and his descent into madness that follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war_worlds_wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The War of the Worlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1320391644i/8909.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_War_of_the_Worlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/8909.The_War_of_the_Worlds?from_search=true&amp;from_srp=true&amp;qid=GkPu78e68Q&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an army of invading Martians lands in England, panic and terror seize the population. As the aliens traverse the country in huge three-legged machines, incinerating all in their path with a heat ray and spreading noxious toxic gases, the people of the Earth must come to terms with the prospect of the end of human civilization and the beginning of Martian rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wells_martha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells, Martha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_bones_martha_wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1312044300i/367335.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Martha_Wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/367335.City_of_Bones?ref=nav_sb_ss_1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the greatest city of them all is Charisat: Imperial seat and wonder of wonders, a great monolithic structure towering over the desert. Charisat, a phantasmagorical place where silken courtesans and beggars weave lies side by side, where any man’s dreams can be fulfilled at the whisper of a genie, and where the tier that you live on determines how high up the food (or more importantly, water) chain you are. It is the goal of every schemer, treasure hunter, and madman intent on finding his heart’s content — a place that dazzles the senses, makes the most somber mind dizzy with its scents and sights — and where no one knows friend from foe when it comes to the desperate fight for dwindling resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wolfe_gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfe, Gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifth_head_cerberus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fifth Head of Cerberus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1383352739i/845501.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Fifth_Head_of_Cerberus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/845501.The_Fifth_Head_of_Cerberus?ref=nav_sb_ss_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In The Fifth Head of Cerberus, Wolfe skillfully interweaves three bizarre tales to create a mesmerizing pattern: the harrowing account of the son of a mad genius who discovers his hideous heritage; a young man's mythic dreamquest for his darker half; the bizarre chronicle of a scientists' nightmarish imprisonment. Like an intricate, braided knot, the pattern at last unfolds to reveal astonishing truths about this strange and savage alien landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shadow_claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of the New Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow &amp; Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388180510i/40992.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Book_of_the_New_Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/40992.Shadow_Claw?from_search=true&amp;from_srp=true&amp;qid=kMjqFJLkHw&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Shadow of the Torturer &amp; The Claw of the Conciliator
+The Shadow of the Torturer is the tale of young Severian, an apprentice in the Guild of Torturers on the world called Urth, exiled for committing the ultimate sin of his profession -- showing mercy toward his victim.
+The Claw of the Conciliator continues the saga of Severian, banished from his home, as he undertakes a mythic quest to discover the awesome power of an ancient relic, and learn the truth about his hidden destiny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_citadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword &amp; Citadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1543852974i/40995.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/40995.Sword_Citadel?from_search=true&amp;from_srp=true&amp;qid=0LFaL2cOG2&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sword of the Lictor &amp; The Citadel fo the Autarch
+The Sword of the Lictor is the third volume in Wolfe's remarkable epic, chronicling the odyssey of the wandering pilgrim called Severian, driven by a powerful and unfathomable destiny, as he carries out a dark mission far from his home.
+The Citadel of the Autarch brings The Book of the New Sun to its harrowing conclusion, as Severian clashes in a final reckoning with the dread Autarch, fulfilling an ancient prophecy that will forever alter the realm known as Urth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urth_new_sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urth of the New Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1532670795i/60215.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Urth_of_the_New_Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/60215.The_Urth_of_the_New_Sun?ref=nav_sb_ss_1_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The long awaited sequel to Gene Wolfe’s four-volume classic, The Book of the New Sun. We return to the world of Severian, now the Autarch of Urth, as he leaves the planet on one of the huge spaceships of the alien Hierodules to travel across time and space to face his greatest test, to become the legendary New Sun or die. The strange, rich, original spaceship scenes give way to travels in time, wherein Severian revisits times and places which fill in parts of the background of the four-volume work, that will thrill and intrigue particularly all readers of the earlier books. But The Urth of the New Sun is an independent structure all of a piece, an integral masterpiece to shelve beside the classics, one itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litany_long_sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of the Long Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litany of the Long Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390370485i/288132.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Book_of_the_Long_Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/288132.Litany_of_the_Long_Sun?ref=nav_sb_ss_1_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightside the Long Sun &amp; Lake of the Long Sun
+The story of Patera Silk, a devout priest whose destiny is wrapped up with the gods he serves, takes place within the Whorl, a vast, cylindrical starship that has traveled for generations and is crumbling into disrepair. Through a strange and amazing series of events, Silk finds himself descending to base thievery, running afoul of a notorious crime lord, befriending a cyborg soldier, and encountering at least one of the gods of Mainframe.
+But when Silk encounters the Outsider, who may be a God of a very different sort, all his beliefs are shaken to the core, and his life swiftly takes a messianic turn. In a rousing climax, Silk becomes the reluctant leader of a political rebellion against the corrupt Ayuntamiento, who rule the city-state of Viron.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epiphany_long_sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epiphany of the Long Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1456757491i/201991.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/130454971-epiphany-of-the-long-sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calde of the Long Sun &amp; Exodus From the Long Sun
+The two novels combined in this omnibus (Caldé of the Long Sun and Exodus from the Long Sun) comprise the second half of Gene Wolfe's long novel, The Book of the Long Sun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wizard_knight_knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wizard Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1437398168i/60212.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Wizard_Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/60212.The_Knight?ref=nav_sb_ss_1_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young man in his teens is transported from our world to a magical realm that contains seven levels of reality. Very quickly transformed by magic into a grown man of heroic proportions, he takes the name Able and sets out on a quest to find the sword that has been promised to him, a sword he will get from a dragon, the one very special blade that will help him fulfill his life ambition to become a knight and a true hero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wizard_knight_wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388709694i/40996.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/40996.The_Wizard?ref=nav_sb_ss_2_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Able returns to Mythgathr on his steed Cloud, a great mare the color of her name. Able is filled with new knowledge of the ways of the seven-fold world and possessed of great magical secrets. His knighthood now beyond question, Able works to fulfill his vows to his king, his lover, his friends, his gods, and even his enemies. Able must set his world right, restoring the proper order among the denizens of all the seven worlds.
+The Wizard is a charming, riveting, emotionally charged tale of wonders, written with all the beauty one would expect from a writer whom Damon Knight called "a national treasure."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pirate_freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1312045737i/703026.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pirate_Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/703026.Pirate_Freedom?ref=nav_sb_ss_1_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh from the monastery, the former novice finds himself inexplicably transported back to the Golden Age of Piracy, where an unexpected new life awaits him. At first, he resists joining the notorious Brethren of the Coast, but he soon embraces the life of a buccaneer, even as he succumbs to the seductive charms of a beautiful and enigmatic senorita. As the captain of his own swift ship, which may or may not be cursed, he plunders the West Indies in search of Spanish gold. From Tortuga to Port Royal, from the stormy waters of the Caribbean to steamy tropical jungles, Captain Chris finds danger, passion, adventure, and treachery as he hoists the black flag and sets sail for the Spanish mainland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zindel_paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zindel, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pigman_zindel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pigman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1393796714i/128092.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Pigman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/128092.The_Pigman?from_search=true&amp;from_srp=true&amp;qid=8s16HOEJWC&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When sophomores John and Lorraine played a practical joke a few months ago on a stranger named Angelo Pignati, they had no idea what they were starting. Virtually overnight, almost against their will, the two befriended the lonely old man; it wasn't long before they were more comfortable in his house than their own. But now Mr. Pignati is dead. And for John and Lorraine, the only way to find peace is to write down their friend's story - the story of the Pigman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bizony_piers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bizony, Piers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasa_archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NASA Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Project Mercury to the Mars Rovers: 60 Years in Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1551981190i/42346811.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.taschen.com/en/books/photography/01176/the-nasa-archives-60-years-in-space/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/42346811-the-nasa-archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researched and edited in collaboration with NASA, this collection gathers more than 500 historic photographs and rare concept renderings, scanned and re-mastered using the latest technology, and reproduced with black matte borders that protect the pages from fingerprints. Texts by science and technology journalist Piers Bizony, former NASA chief historian Roger Launius, and best-selling Apollo historian Andrew Chaikin round out this comprehensive exploration of NASA, spanning from its earliest days to its current development of new space systems for the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crawford_richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawford, Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introdution_americas_music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Introduction to America's Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-393-97409-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1696942197i/143621489.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/introductiontoam0000craw_p6d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/143621489-introduction-to-americas-music-text-only?from_search=true&amp;from_srp=true&amp;qid=KnixafYcZK&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tells the facinating story of music in the United States, from the sacred works of the 1500’s to the jazz and rock that enlivened the turn of the millennium.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimeo_nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimeo, Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory_palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Memory Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1718894981i/208894905.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Memory_Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/en/book/show/208894905-the-memory-palace</t>
   </si>
   <si>
     <r>
@@ -207,8 +2797,10 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Edited by Gardner, Lawn, Ridl, &amp; Schakel | &lt;a href=”</t>
+      <t xml:space="preserve">https://thememorypalace.us/
+</t>
     </r>
     <r>
       <rPr>
@@ -216,2629 +2808,1108 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://archive.org/details/isbn_9780312416546/page/n1515/mode/2up</t>
+      <t xml:space="preserve">https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/
+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">”&gt;Archive&lt;/a&gt;</t>
+      <t xml:space="preserve">A vivid collection of surprising true stories that brings to life long-forgotten icons, heroes who never got their due, and ordinary people who never made it to the history books, from the creator of the popular podcast The Memory Palace. What was Dreamland, Brooklyn's most popular attraction, like before it burned down? Whatever happened to Shipwreck Kelly? What were the glistening orbs John Glenn saw from his capsule on his first trip to space? For more than a decade, Nate DiMeo has brought the big and small of American history to life in The Memory Palace, a podcast of crystalline short stories that are all completely true. In this beautifully designed collection, where DiMeo takes advantage of the visual form of a book by creating striking juxtapositions between images and text, he gathers the best of the show and adds brand-new stories exclusive to the book, which especially take their inspiration from photographs and the emergence of photography. The collection adds up to a unique take on the past that asks what gets to count as history in the first place, draws deep meaning from forgotten lives, and often dives into past crazes and the sometimes humorous and sometimes devastating fact that what or who is popular in one moment can become a barely remembered curiosity in the next. He resurrects stories that deserve to be memorialized, like that of the Surfmen of the Outer Banks who saved countless sailors' lives and the workers who risked theirs daily to dig the base of the Brooklyn Bridge.  Each one of these poignant, vivid stories brings the past completely alive with the potential to shift our perspectives on the world today and to send readers out searching for all of the hidden stories it contains, just beyond the surface.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">seagull_stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Seagull Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-0-393-93091-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347443156i/979344.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://archive.org/details/seagullreadersto0000unse_b9l0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://goodreads.com/book/show/979344.The_Seagull_Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edited by Joseph Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seagull_plays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-0-393-93324-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1174431682i/398816.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://archive.org/details/seagullreaderpla0000unse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/398816.The_Seagull_Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storming_reality_studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storming the Reality Studio: A Casebook of Cyberpunk and Postmodern Fiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388293064i/370160.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Storming_the_Reality_Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/370160.Storming_the_Reality_Studio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edited by Larry McCaffery.  This collection of fictions by well-known contemporary writers and critical commentary by postmodern theorists addresses issues concerning how cyberpunk functions within postmodern culture.[1] This casebook became the criterion for promoting the interaction between the genre of science fiction and the literary avant-garde.  &lt;a href=”https://www.jstor.org/stable/j.ctv1168ch3”&gt;Duke University Press&lt;/a&gt; | &lt;a href=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://archive.org/details/stormingrealitys0000unse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”&gt;Archive&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">asimov_golden_years_scifi_sixth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Asimov Presents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixth Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Golden Years of Science Fiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-0-517-65754-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.isfdb.org/wiki/images/b/b4/GLNYRS619XX.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.isfdb.org/cgi-bin/pl.cgi?40864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/series/69367-isaac-asimov-presents-the-golden-years-of-science-fiction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edited by Isaac Asimov and Martin H. Greenberg  &lt;a href=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.isfdb.org/cgi-bin/pl.cgi?40864</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”&gt;ISFDB&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strange_tales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Classic Fantasy Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1508150067i/36421941.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com/books/edition/The_Classic_Fantasy_Collection/IQAvDwAAQBAJ?hl=en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/36421941-the-classic-fantasy-collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strange Tales from H.P. Lovecraft, Robert E. Howard, Arthur Machen, George MacDonald, Lafcadio Hearn, H.G. Wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adams_douglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adams, Douglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitchhikers_guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitchhiker’s Guide to the Galaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ultimate Hitchhiker's Guide to the Galaxy
+    <t xml:space="preserve">elias_thomas_dykeman_peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias, Thomas S. &amp; Dykeman, Peter A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ediabal_wild_plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edible Wild Plants: A North American Field Guide to Over 200 Natural Foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1328813503i/977083.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/ediblewildplants0000elia_e4e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/977083.Edible_Wild_Plants?ref=nav_sb_ss_1_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already a huge success in previous editions, this must-have field guide now features a fresh new cover, as well as nearly 400 color photos and detailed information on more than 200 species of edible plants all across North America. With all the plants conveniently organized by season, enthusiasts will find it very simple to locate and identify their desired ingredients. Each entry includes images, plus facts on the plant’s habitat, physical properties, harvesting, preparation, and poisonous look-alikes. The introduction contains tempting recipes and there’s a quick-reference seasonal key for each plant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallenkamp_charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallenkamp, Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon_hunter_roy_chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Hunter: Roy Chapman Andrews and the Central Asiatic Expeditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390020545i/640367.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Roy_Chapman_Andrews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/640367.Dragon_Hunter?from_search=true&amp;from_srp=true&amp;qid=S534FWkZJL&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n Dragon Hunter, Charles Gallenkamp vividly recounts these extraordinary discoveries and the unforgettable advantures that attended them. Filled with astonishing tales of Andrews and his team braving raging sandstorms and murderous bandits, enduring civil wars and political intrigue, and reveling in the fascinating world of Peking's foreign colony, Dragon Hunter also traces the religious controversy over evolution and the anti-imperialist conflicts involving China, Mongolia and the United States that were sparked by Andrews' expeditions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manaugh_geoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manaugh, Geoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burglars_guide_to_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Burglar's Guide to the City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1427163018i/22237142.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://burglarsguide.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22237142-a-burglar-s-guide-to-the-city?from_search=true&amp;from_srp=true&amp;qid=UH20qU3szG&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the core of A Burglar's Guide to the City is an unexpected and thrilling insight: how any building transforms when seen through the eyes of someone hoping to break into it. Studying architecture the way a burglar would, Geoff Manaugh takes readers through walls, down elevator shafts, into panic rooms, up to the buried vaults of banks, and out across the rooftops of an unsuspecting city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rossi_milo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossi, Milo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encyclopedia_weird_wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Encyclopedia of the Weird and Wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1680758952i/125516055.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/books/edition/The_Encyclopedia_of_the_Weird_and_Wonder/rx2yEAAAQBAJ?hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/125516055-the-encyclopedia-of-the-weird-and-wonderful?from_search=true&amp;from_srp=true&amp;qid=gIK8oxzKUS&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever wondered what it was like to be a mother in the Mesolithic period as the climate shifted, the seas rose, and wild game migrated? Or what types of dogs paced the wide and narrow forest patches of North America as their masters constructed some of the largest earthen works in the world? Or what meals were eaten under the trees of the old- growth forests of ancient Europe, how China accidentally invented standardized testing by refining their government, or what fashion trends shook the mining camps during the California gold rush?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagan_carl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagan, Carl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagan_cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388620656i/55030.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Cosmos_(Sagan_book)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/55030.Cosmos?ref=nav_sb_ss_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmos is the story of our long journey of discovery and the forces and individuals who helped to shape modern science, including Democritus, Hypatia, Kepler, Newton, Huy-gens, Champollion, Lowell and Humason. Sagan looks at our planet from an extra-terrestrial vantage point and sees a blue jewel-like world, inhabited by a lifeform that is just beginning to discover its own unity and to ven-ture into the vast ocean of space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demon_haunted_world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Demon-Haunted World: Science as a Candle in the Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1553691804i/17349.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Demon-Haunted_World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17349.The_Demon_Haunted_World?from_search=true&amp;from_srp=true&amp;qid=7tPqnNEn5v&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can we make intelligent decisions about our increasingly technology-driven lives if we don’t understand the difference between the myths of pseudoscience and the testable hypotheses of science? Pulitzer Prize-winning author and distinguished astronomer Carl Sagan argues that scientific thinking is critical not only to the pursuit of truth but to the very well-being of our democratic institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snyder_timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snyder, Timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on_tyranny_twenty_lessons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Tyranny: Twenty Lessons from the Twentieth Century</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1484763736i/33917107.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/On_Tyranny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/33917107-on-tyranny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty Lessons is a call to arms and a guide to resistance, with invaluable ideas for how we can preserve our freedoms in the uncertain years to come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weisman_alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weisman, Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">world_without_us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The World Without Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-312-34729-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1441986417i/248787.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_World_Without_Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/248787.The_World_Without_Us?ref=nav_sb_ss_1_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In The World Without Us, Alan Weisman offers an utterly original approach to questions of humanity's impact on the planet: he asks us to envision our Earth, without us. In this far-reaching narrative, Weisman explains how our massive infrastructure would collapse and finally vanish without human presence; which everyday items may become immortalized as fossils; how copper pipes and wiring would be crushed into mere seams of reddish rock; why some of our earliest buildings might be the last architecture left; and how plastic, bronze sculpture, radio waves, and some man-made molecules may be our most lasting gifts to the universe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wills_garry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wills, Garry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bomb_power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1441877096i/7254108.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Garry_Wills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7254108-bomb-power?from_search=true&amp;from_srp=true&amp;qid=MW1bxcHRD6&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Pulitzer Prize-winning historian Garry Wills, a groundbreaking examination of how the atomic bomb profoundly altered the nature of American democracy and has left us in a state of war alert ever since.
+In Bomb Power , Garry Wills reveals how the atomic bomb transformed our nation down to its deepest constitutional roots-by dramatically increasing the power of the modern presidency and redefining the government as a national security state-in ways still felt today. A masterful reckoning from one of America's preeminent historians, Bomb Power draws a direct line from the Manhattan Project to the usurpations of George W. Bush.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">womack_ytasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Womack, Ytasha L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afrofuturism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrofuturism: The World of Black Sci-Fi and Fantasy Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1365399528i/17706971.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Afrofuturism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17706971-afrofuturism?from_search=true&amp;from_srp=true&amp;qid=19RkDrdzdP&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this hip, accessible primer to the music, literature, and art of Afrofuturism, author Ytasha Womack introduces readers to the burgeoning community of artists creating Afrofuturist works, the innovators from the past, and the wide range of subjects they explore. From the sci-fi literature of Samuel Delany, Octavia Butler, and N. K. Jemisin to the musical cosmos of Sun Ra, George Clinton, and the Black Eyed Peas’ will.i.am, to the visual and multimedia artists inspired by African Dogon myths and Egyptian deities, the book’s topics range from the “alien” experience of blacks in America to the “wake up” cry that peppers sci-fi literature, sermons, and activism. With a twofold aim to entertain and enlighten, Afrofuturists strive to break down racial, ethnic, and social limitations to empower and free individuals to be themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art-Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fenster_julie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenster, Julie M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit_invention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spirit of Invention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1391126689i/7156082.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Julie_M._Fenster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7156082-the-spirit-of-invention?from_search=true&amp;from_srp=true&amp;qid=rszICAJDze&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spirit of Invention is a fascinating examination of innovation as a driving characteristic of Americans from all eras and all walks of life. In this book we meet Gertrude Forbes, a sickly widow so poor she had to live in her aunt's attic, who overcame the odds to invent, among other things, an adjustable ironing board cover. We follow Cromwell Dixon, a fifteen-year-old from Columbus, Ohio, whose dreams of finding a way to fly inspired him to invent a bicycle-powered airship. We see John Dove, an African-American inventor, originating concepts integral to the compact disc. We learn about Purdue University, one of the earliest educational institutions to promote invention and engineering ideas. We eavesdrop on Thomas Edison in his laboratory in Menlo Park, New Jersey, and also find out about the beginnings of film colorization, a controversial process that adds tint to film. And we read about Luther Burbank and how he revolutionized plant breeding. The book even reviews the invention of illegal devices such as the "light wand," which induced slot machines to pay out on every spin, and we are introduced to a poker player who invented a "holdout" that allowed him to conceal cards in a shirt sleeve during games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gooden_brett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gooden, Brett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacesuit_history_face_fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacesuit: A History Through Face and Fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1359621078i/15865289.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barnesandnoble.com/w/spacesuit-brett-gooden/1112144434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/15865289-spacesuit?ref=nav_sb_ss_1_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The space suit is an icon of space flight. It is the very symbol of interplanetary exploration - of pioneering adventure, of excitement and danger, and of man's quest to learn more of other worlds.This book follows the remarkable history of the space suit through science fiction and fact. With an absorbing blend of drama and detail, Brett Gooden explains how this seemingly impossible dream gradually evolved into the complex suits of today and how the quest continues for the 'Mars and Beyond' suits of tomorrow.Man has dreamt of flying into space and walking on other planets for hundreds of years. But the risks to the human body involved in making this a reality only were only first recognized when, in the 1800s, an adventurous few climbed high mountains and took the first tentative steps into the sky under hydrogen filled balloons.Gradually it became clear that to leave the earth's atmosphere and gravity, our frail bodies would need protection from many dangers. Jules Verne, in his epic novel Around the Moon in 1872, recognized this need and was one of the first to suggest that some form of suit, similar to that used by deep sea divers, might allow his space voyagers to venture safely into the vacuum outside their spaceship.In the period between the World Wars, daring pilots, competing with each other, ventured higher and higher into the thinner atmosphere. They challenged the physiologists and engineers to provide them with special suits to achieve this goal.At the same time, cheap pulp fiction magazines pumped out colorful adventures of humans in space. Their eye-catching cover illustrations became the archetypical feature of these 'pulps' and allowed artists to give vent to their wildest fantasy. Nevertheless, their inventive dreams for space suits fed back to the scientific community. Fiction influenced fact. Complemented by astonishing and detailed illustrations, this book unlocks the seemingly impenetrable secrets of how the space suit was made into a practical and essential device. How simple everyday items such as the car tire, the caterpillar and the concertina provided critical clues that eventually brought the space suit to reality. This is the fascinating, extraordinary and often bizarre story of the Space suit - through Fact and Fiction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korn_peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korn, Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">little_book_wooden_boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Book of Wooden Boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1542957579i/41002921.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.leevalley.com/en-us/shop/tools/books-and-dvds/117382-little-book-of-wooden-boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/41002921-little-book-of-wooden-boxes?ref=nav_sb_ss_1_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This craftsman's companion celebrates the uncontained creativity of woodturners, furniture artists, and elite craftsmen from around the world! Little Book of Wooden Boxes features 31 of today's finest woodworkers and elite artisans—such as Michael Hosaluk, Steven Kennard, Richard Raffin, Jacques Vesery, Bonnie Klein, and Hans Weissflog—who share their amazing techniques, their inventive talents, and the inspiration that fuels their distinctive designs. Each artist's profile includes full-color, studio-quality photographs of their most spectacular and inspirational work, including jewelry boxes, desk boxes, reliquaries, keepsake boxes and more, along with insights on their design ideas and objectives. Curated by nationally known historian and author Oscar P. Fitzgerald, this book is sure to become a treasure in every woodworking library. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kozel_nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kozel, Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design_groundbreaking_moments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design: The Groundbreaking Moments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1359619350i/16266386.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/designgroundbrea0000koze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/16266386-design?from_search=true&amp;from_srp=true&amp;qid=bzc5dA8h8w&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This latest volume in Prestel's Groundbreaking Moments series explores great ideas and turning points in the history of design. The bentwood chair, Bauhaus furniture, Dieter Rams's designs for Braun, Apple computers, and IKEA furniture have made their way into homes and offices around the world, but all these objects signify major departures from those that came before--a new way of designing things that, in many cases, we now take for granted. In 20 fascinating and diverse chapters, this book explores such "groundbreaking moments" in product design. Conceptually--rather than chronologically--organized, it focuses on innovative, nonconventional approaches by designers, artists, and schools of ideas that left indelible impressions on the ways we live and work. Each chapter opens with a design object that founded or laid the groundwork for a particular style, introduced the use of new materials, uncovered innovative production techniques, or redefined the functionality of the object. From the unique to the mass produced, each of the objects featured here tells the story of an idea, its implementation, and the way it shaped the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metcalf_eugene_maresca_frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metcalf, Eugene W. &amp; Maresca, Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ray_gun_fotofolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Gun: Fotofolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1584180043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pictures.abebooks.com/isbn/9781584180043-us.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Ray-Gun-Eugene-Jr-Metcalf/dp/1584180048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abebooks.com/9781584180043/Ray-Gun-Metcalf-Eugene-Maresca-1584180048/plp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authoritative, comprehensive and visually dazzling a history of Ray guns and Space Toys as they evolved over a span of forty years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norman_don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman, Don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design_everyday_things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Design of Everyday Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442460745i/840.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Design_of_Everyday_Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/840.The_Design_of_Everyday_Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ultimate guide to human-centered design Even the smartest among us can feel inept as we fail to figure out which light switch or oven burner to turn on, or whether to push, pull, or slide a door. The fault, argues this ingenious -- even liberating -- book, lies not in ourselves, but in product design that ignores the needs of users and the principles of cognitive psychology. The problems range from ambiguous and hidden controls to arbitrary relationships between controls and functions, coupled with a lack of feedback or other assistance and unreasonable demands on memorization. The Design of Everyday Things shows that good, usable design is possible. The rules are make things visible, exploit natural relationships that couple function and control, and make intelligent use of constraints. The guide the user effortlessly to the right action on the right control at the right time. The Design of Everyday Things is a powerful primer on how -- and why -- some products satisfy customers while others only frustrate them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scala_irene_korol_bevington_william</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scala, Irene Korol &amp; Bevington, William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designing_with_type_essential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing with Type: The Essential Guide to Typography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1403184088i/28600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.designingwithtype.com/5/home.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/28600.Designing_with_Type?from_search=true&amp;from_srp=true&amp;qid=lv5zm6tKtt&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The classic Designing with Type has been completely redesigned, with an updated format and full color throughout. New information and new images make this perennial best-seller an even more valuable tool for anyone interested in learning about typography. The fifth edition has been integrated with a convenient website, www.designingwithtype.com, where students and teachers can examine hundreds of design solutions and explore a world of typographic information. First published more than thirty-five years ago, Designing with Type has sold more than 250,000 copies—and this fully updated edition, with its new online resource, will educate and inspire a new generation of designers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">su_kat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su, Kat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crap_taxidermy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crap Taxidermy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1403186988i/22299612.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.penguinrandomhouse.com/books/247692/crap-taxidermy-by-kat-su/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22299612-crap-taxidermy?from_search=true&amp;from_srp=true&amp;qid=orPOCD4Oyc&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A relaxed toad enjoying a smoke and a brew. A cat with eerily flexible front legs. A smiling lion with receding gums. Whether you choose to laugh or cringe at these spectacularly bad attempts at taxidermy, you won't be able to tear your eyes away from the curiosities inside. This volume brings together the very best of the worst (along with a DIY "Stuff Your Own Mouse" lesson by an Insect Preparator from the American Museum of Natural History), showcasing the most perverse yet imaginative anatomical reconstructions of the animal kingdom you'll ever see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art-Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bernstein_abbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernstein, Abbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">art_mad_max_fury_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Art of Mad Max Fury Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1429446563i/24951496.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Mad_Max:_Fury_Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/24951496-the-art-of-mad-max?ref=nav_sb_ss_1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Rockatansky returns. Haunted by his turbulent past, the wandering Road Warrior becomes swept up with a group fleeing across the Wasteland in a War Rig driven by an elite Imperator, Furiosa. Seeking escape from the tyranny of Immortan Joe, what follows is a high-octane Road War - and a chance for redemption.  The Art of Mad Max: Fury Road is the official companion to the highly anticipated movie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gould_charles_chou_joey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gould, Charles &amp; Chou, Joey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_is_for_alien_abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A is for Alien: An ABC Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1703188785i/202514062.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.penguinrandomhouse.com/books/743127/a-is-for-alien-an-abc-book-20th-century-studios-by-charles-gould-illustrated-by-joey-chou/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/202514062-a-is-for-alien?from_search=true&amp;from_srp=true&amp;qid=SfHhwBQh9l&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow Ripley and the rest of the Nostromo crew on a space adventure that introduces the alphabet from A to Z. With fun illustrations, this light-hearted reimagining of the iconic movie Alien will delight fans young and old, as well as Little Golden Book collectors throught the universe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phillips_william</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillips, William H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">film_introduction_third_edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film: An Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1311979202i/1437713.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abebooks.com/Film-Introduction-Phillips-William-H-BedfordSt/30972720955/bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/1437713.Film?ac=1&amp;from_search=true&amp;qid=bo4tVIsNxc&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most comprehensive and accessible text of its kind, An Introduction combines the universal appeal of movies with the academic rigor instructors require. It includes a wider array of films, more help for students, and a broader selection of images than any other introductory book. Combining up-to-date examples and over 500 images with numerous classroom-tested learning tools and study aids, Film helps beginning students develop the critical skills they need to analyze films and understand the medium in all its variety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rinzler_jw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinzler, J. W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete_making_indiana_jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Complete Making of Indiana Jones - The Definitive Story Behind All Four Films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1320511091i/2193680.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.penguinrandomhouseretail.com/book/?isbn=9780345501295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/2193680.The_Complete_Making_of_Indiana_Jones?from_search=true&amp;from_srp=true&amp;qid=7fA68tJLvl&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• exclusive on-set interviews with the entire cast and crew of Indiana Jones and the Kingdom of the Crystal Skull , including Harrison Ford, Shia LaBeouf, Cate Blanchett, Ray Winstone, and John Hurt–plus director Steven Spielberg, executive producer George Lucas, screenwriter David Koepp, and the incredible production team that built some of the most fantastic sets ever.
+• hundreds of full-color images–from storyboards, concept paintings, and set design schematics to still photos from all four films with candid action shots of the productions in progress
+• an in-depth chronicle of the making of the first three Indiana Jones movies– Raiders of the Lost Ark , Indiana Jones and the Temple of Doom , and Indiana Jones and the Last Crusade –including transcripts of the original concept meetings, cast and crew anecdotes, production photos, and information on scenes that were cut from the final films
+• never-before-seen artwork and archival gems from the Lucasfilm Archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stars_wars_storyboards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars: Storyboards: The Original Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386729298i/18405505.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/isbn_9781419707742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/18405505-star-wars-storyboards?from_search=true&amp;from_srp=true&amp;qid=bQtwqfQ2nU&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the first time, Lucasfilm has opened its Archives to present the complete storyboards for the original Star Wars trilogy—the world-changing A New Hope and its operatic sequels, The Empire Strikes Back and Return of the Jedi—as well as never-before-published art from early conceptual and deleted scenes.
+From the opening chase above Tatooine in A New Hope to the Battle of Endor in Jedi, this book presents the visual inspiration behind now-iconic moments. Readers can finally see a full set of storyboards by legendary artist Joe Johnston, as well as early boards for Episode IV by Alex Tavoularis and for Episode V by Ivor Beddoes, rarely seen Episode VI boards by Roy Carnon, and Ralph McQuarrie’s never-before-seen storyboards for Episode V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art-Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ames_lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ames, Lee J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draw_50_cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 50 Cars, Trucks, and Motorcycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0823085767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/61qGR2bYnjL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/draw50carstrucks00ames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/888160.Draw_50_Cars_Trucks_and_Motorcycles?from_search=true&amp;from_srp=true&amp;qid=oTJacknSs9&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw 50 Cars, Trucks, and Motorcycles shows artists of all levels how to draw with ease by following simple step-by-step examples. Celebrated author Lee J. Ames shows you how to draw your favorite hot rods, sports cars, and clunkers, including Rolls-Royces, Bentleys, dump trucks, tandem bikes, and Harley-Davidsons, with drawings of classic models from 1870 to 1984. Ames’s drawing method has proven successful for children and adults of all ages over the past forty years. The twenty-nine books in the Draw 50 series have sold more than 5 million copies and have shown artists from beginning to advanced levels how to draw everything from animals to airplanes. It’s easy to have your dream car at your fingertips when it’s done the Draw 50 way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldman_ken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldman, Ken &amp; Stephanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete_book_of_poses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Complete Book of Poses: A Comprehensive Photographic and Illustrated Reference Book for Learning to Draw More Than 500 Poses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1475852736i/29468173.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/completebookofpo0000gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/29468173-the-complete-book-of-poses-for-artists?from_search=true&amp;from_srp=true&amp;qid=5nZTLuSsLX&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packed with helpful photographs, hundreds of techniques, and loads of expert instruction, The Complete Book of Posesfor Artists is the perfect resource for artists of all skill levels.  The human figure is one of the most difficult subjects to capture in drawing. The Complete Book of Poses for Artists combines photographs and illustrations that demonstrate how to accurately render the human form in hundreds of realistic poses. The book guides artists through the process of drawing the human figure as it pertains to anatomy, proportions, volume, mass, gesture, movement, and expression. From there, the book reveals how these characteristics come together using light, shape, line, and form to accurately depict the human figure in a variety of everyday poses, including standing, sitting, reclining, and action. Each section features color photographs of people in several "core" poses (e.g., sitting, reclining, and action), as well as multiple variations of those poses. Step-by-step artist illustrations demonstrate how to render the core pose, whereas illustrations and professional tips demonstrate how to turn the core pose into a new variation. In addition, step-by-step drawing instructions and techniques demonstrate how to capture realistic poses as they differ from one person to the next across a range of human characteristics, such as age (child, teen, adult, senior citizen); body type (ectomorph, mesomorph, endomorph); gender; and activity (e.g., athlete, dancer, etc.). Packed with helpful photographs, hundreds of techniques, and loads of expert instruction, The Complete Book of Posesfor Artists is the perfect resource for artists of all skill levels-and one that will be referred to over and over again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuller_grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuller, Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_sketching_drawing_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Sketching and Drawing Now: Simple Techniques for Drawing Landscapes, People, and Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386096502i/19160756.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/19160756-start-sketching-drawing-now?from_search=true&amp;from_srp=true&amp;qid=F7zsfD5Px5&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A complete course for the can't-wait-to-get-started beginner!Got the urge to draw? What are you waiting for?! Getting started is as easy as 1-2-3 with Grant Fuller's Start Sketching &amp; Drawing Now! Packed full of easy and fun techniques, readers will learn to create accurate and expressive likenesses of people, animals, landscapes, and objects. Suddenly rendering even something as mundane as an electrical plug will become an adventure in seeing-and as you'll discover, learning how to really see your subject is half the battle.   • A progressive series of lessons range from proven exercises for developing hand-eye coordination, expressive line work and keen powers of observation, to creating the illusion of depth and dimension, realistic textures, reflections and more   • 30 step-by-step demonstrations cover an exciting range of subjects, including still lifes, landscapes, architecture, animals and people   • Graphite pencil is the featured medium, but charcoal, pen &amp; ink, colored pencils and pastels are also exploredPractice is important, of course, but this expert instruction will fast forward you past many hours of trial, error and frustration. With every lesson you'll develop skills and confidence. Get started today with simple materials you may already have or can easily pick up at any major retailer. Before you know it, you'll be able to capture a wide range of subjects with artistic style and vision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray_peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray, Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creative_drawing_illustation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative Drawing &amp; Illustration: A Sourcebook of Inspirational Drawing Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1344730488i/13355573.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barnesandnoble.com/w/creative-drawing-illustration-peter-gray/1110931299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/13355573-creative-drawing-illustration?from_search=true&amp;from_srp=true&amp;qid=JVNQ1d05r6&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an emphasis on developing creative techniques, this book focuses on aspirational or sensational imagery rather than the academic exercises of the traditional drawing manual. Each subject tackled is approached for impact, quirkiness, or visual interest. The author demonstrates each point with his own accomplished artworks and with step-by-step examples for people to follow. Each spread covers a different topic, making it easy for readers to look up a theme or to work through the book as a structured course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamernik_harry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamernik, Harry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face_off_draw_amazing_caricatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face Off: How to Draw Amazing Caricatures &amp; Comic Portraits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388177933i/43564.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/face-off-how-to-draw-amazing-caricatures-comic-portraits_202112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/43564.Face_Off?from_search=true&amp;from_srp=true&amp;qid=mYeucPwD3q&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover the fast, fun art of drawing comic portraits! Face Off shows you how to draw life like never before. Caricaturist Harold Hamernik shares the secrets to capturing the sillier side of friends, family, celebrities, strangers—any face that crosses your path. 40 step-by-step demonstrations show you how to sketch whimsical and expressive likenesses while developing your own quick, loose, improvisational style. You'll get expert instruction on: Practice the simple techniques in this book, then start drawing! It's the most fun you can have with paper, pencils and markers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hart_christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hart, Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure_it_out_drawing_essentials_poses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure It Out! Drawing Essentials Poses: The Beginner's Guide to the Natural-Looking Figure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1457571054i/26029306.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Figure-Drawing-Essential-Poses-Natural-Looking/dp/1936096994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/26029306-figure-it-out-drawing-essential-poses?from_search=true&amp;from_srp=true&amp;qid=w4Z4ggHwWI&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestselling how-to-draw author Christopher Hart helps artists fine-tune their skills with the fundamentals of drawing natural-looking figures. Eschewing the esoteric “art poses” and wooden mannequins commonly found in art books, he portrays everyday, real-life gestures on human-looking foundation figures: standing, sitting, kneeling, and reclining, with arms folded, ankles crossed, hands on hips, and more, all shown from various angles. Hart also explores deeper concepts such as perspective, illusion of depth, casting shadows, and foreshortening, and provides step-by-step tutorials that take artists through complete, naturally posed figure drawings from start to finish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humongous_book_cartooning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humongous Book of Cartooning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1320532786i/7023641.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.penguinrandomhouse.ca/books/76235/humongous-book-of-cartooning-by-christopher-hart/9780823050369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/7023641-humongous-book-of-cartooning?from_search=true&amp;from_srp=true&amp;qid=gTzy9iEzNb&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Hart's Humongous Book of Cartooning is a great value book covering everything the beginner needs to master cartooning. It teaches how to draw cartoon people, fantasy characters, layouts, background design and much more. This latest cartoon title from Chris Hart, the world's bestselling author of drawing and cartooning books, packs a wallop. It's the cartooning book that has it all: cartoon people, animals, retro-style "toons'", funny robots (no one has ever done cartoon robots in a how-to book before, and movies like "Wall-E" and "Robots" were smash hits and prove their appeal), fantasy characters and even sections on cartoon costumes, character design, and cartoon backgrounds and composition. The Humongous Book of Cartooning is humongous, not only because it's so big, but also because it includes a huge amount of original eye-catching characters and copious visual "side hints" that Chris is famous for. There is more actual instruction in this book than in any other of Chris' cartooning titles. In short, if you want to know how to draw cartoons, Chris Hart's Humongous Book of Cartooning is for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lente_pak_van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lente, Pak &amp; Van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_comics_like_pros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Comics Like the Pros: The Inside Scoop on how to Write, Draw &amp; Sell your Comic Books and Graphic Novels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1394857181i/20262569.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barnesandnoble.com/w/make-comics-like-the-pros-greg-pak/1117737034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/20262569-make-comics-like-the-pros?from_search=true&amp;from_srp=true&amp;qid=RP9kVU28ZF&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A step-by-step guide to all aspects of comic book creation--from conceptualization to early drafts to marketing and promotion--written by two of the industry's most seasoned and successful pros. Every aspiring comic book creator wants to know: what separates the beloved comics of major publishers like Marvel, DC, Valiant, and Image from all the rest? Fan-favorite comic book writers Greg Pak and Fred Van Lente reveal the secrets of comics' top talents in "Make Comics Like the Pros." The authors take readers step by step through the comics creation process from idea to finished work, and along the way offer examples and insights from their own careers as well as their collaborators'. Not only that, but Pak and Van Lente also join forces with Eisner Award-winning cartoonist Colleen Coover to produce an original comic inside the book! With its unprecedented level of insider access, "Make Comics Like the Pros" gives comic book hopefuls the tools they need to reach the next level of sequential arts stardom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loomis_andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loomis, Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure_drawing_for_all_worth_fndamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure Drawing for All it's Worth: A Book of Fundamentals for An Artistic Career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0BDS6NW9T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1677031265i/83815379.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/loomis_FIGURE_draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/83815379-figure-drawing-for-all-its-worth?from_search=true&amp;from_srp=true&amp;qid=A0zuB5EwTk&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Loomis teaches all the skills needed to draw figures in this book. The deeper complexities of drawing figures are explained by Andrew, and he shows how to bring your drawings to life. The difficulty of drawing faces and the various body parts shall become far easier as you progress to the next level of drawing the human form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staiger_katheleen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staiger, Kathleen Lochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil_painting_course_always_wanted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oil Painting Course You've Always Wanted: Guided Lessons for Beginners and Experienced Artists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388441524i/203479.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.penguinrandomhouse.com/books/171588/the-oil-painting-course-youve-always-wanted-by-kathleen-staiger/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/203479.The_Oil_Painting_Course_You_ve_Always_Wanted?from_search=true&amp;from_srp=true&amp;qid=oCzzPzZAeB&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In The Oil Painting Course You've Always Wanted , author Kathleen Staiger presents crystal clear, step-by-step lessons that build to reinforce learning. Brush control, creating the illusion of three dimensions, foolproof color mixing, still-life painting, landscapes, and portraits--every topic is covered in clear text, diagrams, illustrations, exercises, and demonstrations. Staiger has taught oil painting for more than thirty-five years; many of her students are now exhibiting and selling their paintings. Everyone from beginning hobby painters, to art students, to BFA graduates has questions about oil painting. Here at last are the answers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thompson_keith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson, Keith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50_robots_to_draw_paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Robots To Draw &amp; Paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1403793771i/969604.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Robots-Draw-Paint-Fantastic-Characters/dp/0715324063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/163308007-50-robots-to-draw-and-paint?ref=nav_sb_noss_l_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Fantastic Robot Characters For Comics, Computer Games, And Graphic Novels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">williams_richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williams, Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animations_survival_kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Animator's Survival Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1311991805i/136091.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Animator%27s_Survival_Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/136091.The_Animator_s_Survival_Kit?from_search=true&amp;from_srp=true&amp;qid=0hDD9TtINh&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation is one of the hottest areas of filmmaking today--and the master animator who bridges the old generation and the new is Richard Williams. During his more than forty years in the business, Williams has been one of the true innovators, winning three Academy Awards and serving as the link between Disney's golden age of animation by hand and the new computer animation exemplified by Toy Story.
+Perhaps even more important, though, has been his dedication in passing along his knowledge to a new generation of animators so that they in turn could push the medium in new directions. In this book, based on his sold-out master classes in the United States and across Europe, Williams provides the underlying principles of animation that every animator--from beginner to expert, classic animator to computer animation whiz --needs. Urging his readers to "invent but be believable," he illustrates his points with hundreds of drawings, distilling the secrets of the masters into a working system in order to create a book that will become the standard work on all forms of animation for professionals, students, and fans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various_authors_mythology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulfinchs_mythology_complete_texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulfinch's Mythology </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Complete Texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Age of Fable, The Age of Chivalry, Legends of Charlemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0517201619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41WvZz88ySL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gutenberg.org/cache/epub/3327/pg3327.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between 1855 and 1863, Thomas Bulfinch published the three volumes of his masterpiece, Bulfinch's Mythology. Each volume of this signature contribution to literature focuses on a different historical era in mythology-from ancient Greek and Roman fables, to tales of King Arthur and his Knights of the Round Table, and into the Middle Ages with stories of great heroism and romance. A bank clerk by day, Bulfinch sought to bring enlightenment to his fellow men and women through his meticulous research and elegant retellings of some of the world's most important myths. Every reader seeking an introduction, a refresher, or simply a new take on the great legends of the past should pick up Bulfinch's Mythology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holy_bible_king_james</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King James Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1511051497i/36620650.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/King_James_Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/1923820.The_Holy_Bible?from_search=true&amp;from_srp=true&amp;qid=sPBycVKKVV&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The King James Version (KJV), also the King James Bible (KJB) and the Authorized Version (AV), is an Early Modern English translation of the Christian Bible for the Church of England, which was commissioned in 1604 and published in 1611, by sponsorship of King James VI and I.[d][e] The 80 books of the King James Version[4] include 39 books of the Old Testament, 14 books of Apocrypha, and the 27 books of the New Testament. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">holy_bible_niv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Bible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New International Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1631965680i/280111.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/New_International_Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/280111.Holy_Bible?ref=nav_sb_ss_1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The New International Version (NIV) is a translation of the Bible into contemporary English. Published by Biblica, the complete NIV was released on October 27, 1978,[6] with a minor revision in 1984 and a major revision in 2011. The NIV relies on recently-published critical editions of the original Hebrew, Aramaic, and Greek texts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lleywellyn_2020_magical_almanac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llewellyn's 2020 Magical Almanac: Practical Magic for Everyday Living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1540697577i/42124386.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/books/edition/Llewellyn_s_2020_Magical_Almanac/V5afDwAAQBAJ?hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/42124386-llewellyn-s-2020-magical-almanac?from_search=true&amp;from_srp=true&amp;qid=becconHcq4&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrich your magical practice and expand your mind with Llewellyn's 2020 Magical Almanac. For more than twenty-five years, this almanac has provided useful spells, rituals, and ideas that inspire all levels of practitioners to improve their connection to the elements.
+This year's edition features nearly thirty compelling articles, grouped by element, on magic and yoga, crystal grids, psychic protection, transportation mojo, principles of hermeticism, entropic magic, rituals for personal justice, magic in numbers, pop culture folk saints, and much more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">campbell_joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbell, Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power_of_myth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Power of Myth - With Bill Moyers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1327878742i/35519.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Joseph_Campbell_and_the_Power_of_Myth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/35519.The_Power_of_Myth?ref=nav_sb_ss_1_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Power Of Myth launched an extraordinary resurgence of interest in Joseph Campbell and his work. A preeminent scholar, writer, and teacher, he has had a profound influence on millions of people. To him, mythology was the "song of the universe, the music of the spheres." With Bill Moyers, one of America's most prominent journalists, as his thoughtful and engaging interviewer, The Power Of Myth touches on subjects from modern marriage to virgin births, from Jesus to John Lennon, offering a brilliant combination of intelligence and wit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero_thousand_faces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hero With a Thousand Faces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442885694i/588138.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Hero_with_a_Thousand_Faces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/588138.The_Hero_With_a_Thousand_Faces?from_search=true&amp;from_srp=true&amp;qid=S3NXQkOQnq&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first popular work to combine the spiritual and psychological insights of modern psychoanalysis with the archetypes of world mythology, the book creates a roadmap for navigating the frustrating path of contemporary life. Examining heroic myths in the light of modern psychology, it considers not only the patterns and stages of mythology but also its relevance to our lives today—and to the life of any person seeking a fully realized existence.
+Myth, according to Campbell, is the projection of a culture's dreams onto a large screen; Campbell's book, like Star Wars, the film it helped inspire, is an exploration of the big-picture moments from the stage that is our world. It is a must-have resource for both experienced students of mythology and the explorer just beginning to approach myth as a source of knowledge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green_roger_lancelyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green, Roger Lancelyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tales_ancient_egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales of Ancient Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309204886i/74619.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/talesofancienteg00gree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/74619.Tales_of_Ancient_Egypt?from_search=true&amp;from_srp=true&amp;qid=xYvHbI9832&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These stories include the great myths - of Amen-Ra, who created all the creatures in the world; of Isis, searching the waters for her dead husband Osiris; of the Bennu Bird and the Book of Thoth. But there are also tales told for pleasure about magic, treasure and adventure - even the first ever Cinderella story.Please ask if you need a specific version. The data provided here may not be correct. With buying and not asking you are accepting the book as is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jackson_jake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson, Jake (General Editor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myths_babylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myths of Babylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1532364673i/40921369.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simonandschuster.com/books/Myths-of-Babylon/J-K-Jackson/The-Worlds-Greatest-Myths-and-Legends/9781786647634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/40921369-myths-of-babylon?from_search=true&amp;from_srp=true&amp;qid=hzssTVGjnQ&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babylonian myths, inherited in Mesopotamia from Sumeria, influenced by the ancient Assyrians represent a pinnacle of human achievement in the period around 1800 BC. Here we find humankind battling with the elements in their Flood myth, a grim creation story and the great Epic of Gilgamesh, one of the earliest recorded literary treasures. Babylon, a powerful city state at the time of the ancient Egyptians was a centre of profound spiritual, economic and military power, themes all represented in the fragments and myths of this book of classic tales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">native_american_myths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native American Myths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1409636358i/23149515.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simonandschuster.com/books/Native-American-Myths/J-K-Jackson/The-Worlds-Greatest-Myths-and-Legends/9780857758217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/23149515-native-american-myths?from_search=true&amp;from_srp=true&amp;qid=l22hqwlDef&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he tribes of North America and their folk tales are deeply fascinating because they are unique amongst the mythologies of the world. The tribes were isolated from outside influence for thousands of years and developed a fruitful, empathetic relationship with their landscape, evolving a tradition that respected and feared nature in equal measure. The same themes can be found in the stories -- of the relationships between humans and animals, of gods and supernatural powers -- all to explain the world around them. The retold tales collected for this new book celebrate the diverse tribal vision of a rich and powerful land that still resonates today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aztec_myths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aztec Myths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1543101237i/42785966.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simonandschuster.com/books/Aztec-Myths/J-K-Jackson/The-Worlds-Greatest-Myths-and-Legends/9781787552975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/42785966-aztec-myths?from_search=true&amp;from_srp=true&amp;qid=A9d82ibJxG&amp;rank=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though the Olmecs (1250–200 bc) were the first civilization in Mexico, the Aztecs (1325–1521) –Mesoamerica’s last imperial civilization and the most significant of the militaristic post-Classic period – are probably who first come to mind when we think of great empires of that region. Like other Mesoamerican cultures, Aztec gods and myths reflected a natural philosophy where ideas concerning life and death were linked symbolically to the earth, sky and sea in a grand cosmic scheme. Their religion was dominated by the tribal war god Huitzilopochtli, the rain/fertility god Tlaloc and the supreme deity Tezcatlipoca, the Lord of the Smoking Mirror. This fascinating collection explores the history, culture, gods, calendar, myths and tales of this people, from migration legends to the origin myth of the Five Suns.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">978-0345453747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1404613595i/13.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Hitchhiker%27s_Guide_to_the_Galaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/13.The_Ultimate_Hitchhiker_s_Guide_to_the_Galaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains: The Hitchhiker's Guide to the Galaxy, The Restaurant at the End of the Universe, Life, The Universe and Everything, So Long, and Thanks for All the Fish, and Mostly Harmless.  The series follows the adventures of Arthur Dent, a hapless Englishman, following the destruction of the Earth by the Vogons (a race of unpleasant and bureaucratic aliens) to make way for a hyperspace bypass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aldiss_brian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldiss, Brian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non_stop_starship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Stop (aka Starship)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1321611598i/384579.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Non-Stop_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/384579.Non_Stop?from_search=true&amp;from_srp=true&amp;qid=tHGg2U7G0X&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is about problems that the inhabitants of a huge generation space ship face after an alien amino acid that they picked up on another planet triggers a pandemic. Law and order began to collapse, and knowledge of the ship and of its purpose was eventually almost entirely lost throughout the vessel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allende_isabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allende, Isabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingdom_golden_dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City of the Beasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingdom of the Golden Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388245620i/16529.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Kingdom_of_the_Golden_Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/16529.Kingdom_of_the_Golden_Dragon?from_search=true&amp;from_srp=true&amp;qid=4LGSo9IJYg&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The plot is set in the Forbidden Kingdom, a fictional remote Himalayan country. A Buddhist lama named Tensing takes his disciple, Prince Dil Bahadur, to the Valley of the Yeti to find healing plants that do not grow anywhere else. They find themselves ringed by the yetis just as they drink in the sights, but the matriarch saves them and says that the fast-dwindling yetis have lost their forebears’ unparalleled mental powers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">anderson_poul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson, Poul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harvest_stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvest of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1396463101i/924513.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Poul_Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/924513.Harvest_of_Stars</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">To save Earth from the crushing grip of totalitarianism, Kyra Davis journeys from the planet's rebel enclaves to the decadence of a lunar colony to a new world threatened by a dying star as she seeks to rescue the leader of Earth's last refuge of freedom. Reprint.  &lt;a href=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://archive.org/details/harvestofstars0000ande</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”&gt;Archive&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">asimov_isaac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asimov, Isaac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gods_themselves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Gods Themselves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1351076141i/41821.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Gods_Themselves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/41821.The_Gods_Themselves?from_search=true&amp;from_srp=true&amp;qid=MMhkEGPVTS&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the twenty-second century Earth obtains limitless, free energy from a source science little understands: an exchange between Earth and a parallel universe, using a process devised by the aliens. But even free energy has a price. The transference process itself will eventually lead to the destruction of the Earth's Sun--and of Earth itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winds_change_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The winds of Change...and Other Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1330820595i/314316.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Winds_of_Change_and_Other_Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/314316.The_Winds_of_Change_and_Other_Stories?ref=nav_sb_ss_1_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Nothing (1975), A Perfect Fit" (1981), Belief" (1953), Death of a Foy (1980), Fair Exchange? (1978), For the Birds (1980), Found! (1978), Good Taste (1976), How It Happened (1979), Ideas Die Hard (1957), Ignition Point! (1981), It Is Coming (1979), The Last Answer (1980), The Last Shuttle (1981), Lest We Remember (1982), Nothing for Nothing (1979), One Night of Song (1982), The Smile That Loses (1982), Sure Thing" (1977), To Tell at a Glance (1983), The Winds of Change (1982)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asprin_robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asprin, Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another_fine_myth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myth Adventures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another Fine Myth &amp; Myth Conceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388184908i/64399.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Robert_Asprin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/64399.Another_Fine_Myth_Myth_Conceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another Fine Myth - Skeeve's master is murdered, and now this apprentice magician must deal with Aahz, a powerless demon summoned by the old magician as a joke.
-Myth Conceptions - Skeeve auditions for court magician of Rodrick and, unfortunately, gets the job.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mything_persons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myth-ing Persons &amp; Little Myth Maker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390320907i/148240.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/search?utf8=%E2%9C%93&amp;q=robert+asprin&amp;search_type=books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeeve, a powerful young magician, and his companions venture into an upside-down dimension to search for his missing demon partner, Aahz, in Myth-ing Persons, and finds himself saddled with Markie, a pint-sized troublemaker, as an IOU for a high-stakes poker game in Little Myth Marker, in an entertaining omnibus volume. Reprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banks_iain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banks, Iain M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consider_phlebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Culture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider Phlebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1327951890i/8935689.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Consider_Phlebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/8935689-consider-phlebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Culture and the Idiran Empire are at war in a galaxy-spanning conflict. A Culture Mind, fleeing the destruction of its ship in an Idiran ambush, takes refuge on Schar's World. The Dra'Azon, godlike incorporeal beings, maintain Schar's World as a monument to the world's extinct civilisation and the dangers of nuclear proliferation, forbidding access to both the Culture and the Idirans. Horza, a shape-changing mercenary, is rescued from execution by the Idirans who believe the Dra'Azon guardian may let him onto the planet as in the past he was part of a small group of Changers who acted as stewards. They instruct him to retrieve the Mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">player_games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Player of Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386922873i/18630.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Player_of_Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/18630.The_Player_of_Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jernau Morat Gurgeh, a famously skillful player of board games and other similar contests, lives on Chiark Orbital (space station), and is bored with his successful life. The Culture's Special Circumstances (SC) inquires about his willingness to participate in a long journey but won't explain further unless Gurgeh agrees to participate. While he is considering this offer, one of his drone friends, Mawhrin-Skel, which had been ejected from SC due to its unstable personality, convinces him to cheat in one of his games in an attempt to win in an unprecedentedly perfect fashion. The attempt fails, but Mawhrin-Skel uses its recording of the event to blackmail Gurgeh into accepting the offer with the condition that Mawhrin-Skel be admitted back into SC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use_weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1587400756i/12007.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Use_of_Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/12007.Use_of_Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The narrative takes the form of a biography of a man called Cheradenine Zakalwe, who was born outside of the Culture but was recruited into it by Special Circumstances agent Diziet Sma to work as an operative intervening in less advanced civilizations. The novel recounts several of these interventions and Zakalwe's attempts to come to terms with his own past.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288930712i/12013.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Excession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/12013.Excession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The book is largely about the response of the Culture's Minds (benevolent AIs with enormous intellectual and physical capabilities and distinctive personalities) to the Excession itself and the way in which another society, the Affront, whose systematic brutality horrifies the Culture, tries to use the Excession to increase its power. As in Banks' other Culture novels the main themes are the moral dilemmas that confront a hyperpower and how biological characters find ways to give their lives meaning in a post-scarcity society that is presided over by benign super-intelligent machines.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look_windward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look to Windward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288930978i/12016.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Look_to_Windward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/12016.Look_to_Windward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look to Windward is loosely a sequel to Consider Phlebas, Banks's first published Culture novel. Consider Phlebas took its name from the following line in the poem and dealt with the events of the Idiran-Culture War; Look to Windward deals with the results of the war on those who lived through it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feersum_endjinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feersum Endjinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1330098070i/12015.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Feersum_Endjinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/12015.Feersum_Endjinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After dying seven times, Count Alandre Sessine VII has only one life remaining, and he becomes a fugitive in search of others like himself while he tries to track down his killer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bradbury_ray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradbury, Ray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fahrenheit_451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrenheit 451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1383718290i/13079982.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Fahrenheit_451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/13079982-fahrenheit-451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Guy Montag is a fireman. His job is to destroy the most illegal of commodities, the printed book, along with the houses in which they are hidden. Montag never questions the destruction and ruin his actions produce, returning each day to his bland life and wife, Mildred, who spends all day with her television “family.” But when he meets an eccentric young neighbor, Clarisse, who introduces him to a past where people didn’t live in fear and to a present where one sees the world through the ideas in books instead of the mindless chatter of television, Montag begins to question everything he has ever known.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illustrated_man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Illustrated Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1374049820i/24830.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Illustrated_Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/24830.The_Illustrated_Man?ref=nav_sb_ss_1_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even though most were written in the 1940s and 1950s, these 18 classic stories will be just as chillingly effective 50 years from now. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumas_alexandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumas, Alexandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three_musketeers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Three Musketeers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1677809469i/20464700.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Three_Musketeers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/20464700-the-three-muskateers?from_search=true&amp;from_srp=true&amp;qid=x1YsGuhzzn&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The classic book, The Three Musketeers by Alexandre Dumas! There's a reason why The Three Musketeers is one of the best books of all time. If you haven't read this classic, then you'd better pick up a copy of The Three Musketeers by Alexandre Dumas today!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burgess_anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgess, Anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clockwork_orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Clockwork Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1549260060i/41817486.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Clockwork_Orange_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/41817486-a-clockwork-orange?from_search=true&amp;from_srp=true&amp;qid=YkW7o29bJE&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Anthony Burgess's influential nightmare vision of the future, criminals take over after dark. Teen gang leader Alex narrates in fantastically inventive slang that echoes the violent intensity of youth rebelling against society. Dazzling and transgressive, A Clockwork Orange is a frightening fable about good and evil and the meaning of human freedom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buter_octavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butler, Octavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parable_sower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parable of the Sower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442169447i/52397.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Parable_of_the_Sower_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/52397.Parable_of_the_Sower?from_search=true&amp;from_srp=true&amp;qid=th16ky8WAL&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n 2024, with the world descending into madness and anarchy, one woman begins a fateful journey toward a better future.
-Lauren Olamina and her family live in one of the only safe neighborhoods remaining on the outskirts of Los Angeles. Behind the walls of their defended enclave, Lauren’s father, a preacher, and a handful of other citizens try to salvage what remains of a culture that has been destroyed by drugs, disease, war, and chronic water shortages. While her father tries to lead people on the righteous path, Lauren struggles with hyperempathy, a condition that makes her extraordinarily sensitive to the pain of others.
-When fire destroys their compound, Lauren’s family is killed and she is forced out into a world that is fraught with danger. With a handful of other refugees, Lauren must make her way north to safety, along the way conceiving a revolutionary idea that may mean salvation for all mankind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_orson_scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card, Orson Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales of Alvin Maker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Crystal City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1436242597i/92923.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Crystal_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/92923.The_Crystal_City?from_search=true&amp;from_srp=true&amp;qid=YsXuWo9RTD&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the lore and the folk-magic of the men and women who settled North America, Orson Scott Card has created an alternate world where magic works, and where that magic has colored the entire history of the colonies. Charms and beseechings, hexes and potions, all have a place in the lives of the people of this world. Dowsers find water, the second sight warns of dangers to come, and a torch can read a person's future---or their heart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chandler_raymond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandler, Raymond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big_sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philip Marlowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Big Sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1371584712i/2052.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Big_Sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/2052.The_Big_Sleep?from_search=true&amp;from_srp=true&amp;qid=GqY39rydU9&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a dying millionaire hires Philip Marlowe to handle the blackmailer of one of his two troublesome daughters, Marlowe finds himself involved with more than extortion. Kidnapping, pornography, seduction, and murder are just a few of the complications he gets caught up in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long_good-bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Long Good-Bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1356448408i/132434.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Long_Goodbye_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/132434.The_Long_Good_bye?from_search=true&amp;from_srp=true&amp;qid=Xs97mh5vfe&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trouble is Philip Marlowe's business. A young drunk slides from under the driving-wheel of a silver wraith, into his arms. His hair's white, his face scared, and he's called Terry Lennox. Soon, Marlowe's thigh-high in a murder case, cooling his heels in the felony tank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chandler_collected_stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collected Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347752081i/124204.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Raymond_Chandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/124204.Collected_Stories?from_search=true&amp;from_srp=true&amp;qid=dR31dwrhVt&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The only complete edition of stories by the undisputed master of detective literature, collected here for the first time in one volume, including some stories that have been unavailable for decades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaucer_geoffrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaucer, Geoffrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canterbury_tales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Canterbury Tales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1261208589i/2696.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Canterbury_Tales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/2696.The_Canterbury_Tales?from_search=true&amp;from_srp=true&amp;qid=SZxnZtUSbv&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The procession that crosses Chaucer's pages is as full of life and as richly textured as a medieval tapestry. The Knight, the Miller, the Friar, the Squire, the Prioress, the Wife of Bath, and others who make up the cast of characters -- including Chaucer himself -- are real people, with human emotions and weaknesses. When it is remembered that Chaucer wrote in English at a time when Latin was the standard literary language across western Europe, the magnitude of his achievement is even more remarkable. But Chaucer's genius needs no historical introduction; it bursts forth from every page of The Canterbury Tales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chiang_ted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiang, Ted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stories_your_life_others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories of Your Life and Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1356138316i/223380.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Stories_of_Your_Life_and_Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/223380.Stories_of_Your_Life_and_Others?from_search=true&amp;from_srp=true&amp;qid=N8YFxNqVAa&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if men built a tower from Earth to Heaven-and broke through to Heaven's other side? What if we discovered that the fundamentals of mathematics were arbitrary and inconsistent? What if there were a science of naming things that calls life into being from inanimate matter? What if exposure to an alien language forever changed our perception of time? What if all the beliefs of fundamentalist Christianity were literally true, and the sight of sinners being swallowed into fiery pits were a routine event on city streets? These are the kinds of outrageous questions posed by the stories of Ted Chiang. Stories of your life . . . and others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clarke_arthur_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carke, Arthur C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odyssey_two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Odyssey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010: Odyssey Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388271989i/70539.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/2010:_Odyssey_Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/70539.2010?ref=nav_sb_ss_1_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set in the year 2010, the plot centres on a joint Soviet-US mission aboard the Soviet spacecraft The Cosmonaut Alexei Leonov. The mission has several objectives, including salvaging the spaceship Discovery and investigating the mysterious "monolith" discovered by Dave Bowman in 2001: A Space Odyssey. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">odyssey_three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2061: Odyssey Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347907073i/35816.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/2061:_Odyssey_Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/35816.2061?from_search=true&amp;from_srp=true&amp;qid=jAWaoqiZzb&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur C. Clarke, creator of one of the world's best-loved science fiction tales, revisits the most famous future ever imagined in this NEW YORK TIMES bestseller, as two expeditions into space become inextricably tangled. Heywood Floyd, survivor of two previous encounters with the mysterious monloiths, must again confront Dave Bowman, HAL, and an alien race that has decided that Mankind is to play a part in the evolution of the galaxy whether it wishes to or not. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">final_odyssey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3001: The Final Odyssey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388271918i/63432.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/3001:_The_Final_Odyssey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/63432.3001?ref=nav_sb_ss_1_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On an ill-fated mission to Jupiter in 2001, the mutinous supercomputer HAL sent crewmembers David Bowman and Frank Poole into the frozen void of space. Bowman’s strange transformation into a Star Child is traced through the novels 2010 and 2061. But now, a thousand years after his death, Frank Poole is brought back to life—and thrust into a world far more technically advanced than the one he left behind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clarke_susanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarke, Susanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piranesi_clarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piranesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1609095173i/50202953.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Piranesi_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/50202953-piranesi?from_search=true&amp;from_srp=true&amp;qid=o2HgQVkRVu&amp;rank=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piranesi’s house is no ordinary building: its rooms are infinite, its corridors endless, its walls are lined with thousands upon thousands of statues, each one different from all the others. Within the labyrinth of halls an ocean is imprisoned; waves thunder up staircases, rooms are flooded in an instant. But Piranesi is not afraid; he understands the tides as he understands the pattern of the labyrinth itself. He lives to explore the house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobb_ernest_bertha_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobb, Ernest &amp; Bertha B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dans_boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan’s Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DTXML5PH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Dans-Boy-bertha-ernest-cobb/dp/B000B5YJ3I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/37776043-dan-s-boy?from_search=true&amp;from_srp=true&amp;qid=6xOJbQYTAi&amp;rank=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cook_glen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook, Glen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black_company_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Black Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: 0812521390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1389929874i/140671.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Black_Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/140671.The_Black_Company?from_search=true&amp;from_srp=true&amp;qid=JCqt340t72&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some feel the Lady, newly risen from centuries in thrall, stands between humankind and evil. Some feel she is evil itself. The hard-bitten men of the Black Company take their pay and do what they must, burying their doubts with their dead. Until the prophesy: The White Rose has been reborn, somewhere, to embody good once more. There must be a way for the Black Company to find her... So begins one of the greatest fantasy epics of our age—Glen Cook's Chronicles of the Black Company.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crichton_michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crichton, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurassic_park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurassic Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1529604411i/40604658.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Jurassic_Park_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/40604658-jurassic-park?from_search=true&amp;from_srp=true&amp;qid=DWaS4AXpwJ&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An astonishing technique for recovering and cloning dinosaur DNA has been discovered. Now humankind’s most thrilling fantasies have come true. Creatures extinct for eons roam Jurassic Park with their awesome presence and profound mystery, and all the world can visit them—for a price.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eaters_dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eaters of the Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1165637964i/7673.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Eaters_of_the_Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/7673.Eaters_of_the_Dead?from_search=true&amp;from_srp=true&amp;qid=yo0VgOWR9d&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t is 922 A.D. The refined Arab courtier Ibn Fadlan is accompanying a party of Viking warriors back to their home. He is appalled by their customs—the gratuitous sexuality of their women, their disregard for cleanliness, and their cold-blooded sacrifices. As they enter the frozen, forbidden landscape of the North—where the day’s length does not equal the night’s, where after sunset the sky burns in streaks of color—Fadlan soon discovers that he has been unwillingly enlisted to combat the terrors in the night that come to slaughter the Vikings, the monsters of the mist that devour human flesh. But just how he will do it, Fadlan has no idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dahl_roald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dahl, Roald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dahl_cruelty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruelty: Tales of Malice and Greed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471276915i/30141183.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Roald_Dahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/30141183-cruelty?ref=nav_sb_ss_2_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even when we mean to be kind we can sometimes be cruel. We each have a streak of nastiness inside us. In these ten tales of cruelty master storyteller Roald Dahl explores how and why it is we make others suffer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dahl_lust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lust: Tales of Craving and Desire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471284934i/30141181.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/30141181-lust?from_search=true&amp;from_srp=true&amp;qid=8Htg9sT3og&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To what lengths would you go to achieve your heart's desire? In these ten tales of twisted love master storyteller Roald Dahl explores how our darkest impulses reveal who we really are.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dahl_madness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madness: Tales of Fear and Unreason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1471279594i/30141182.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/30141182-madness?from_search=true&amp;from_srp=true&amp;qid=yB0BCKAn2L&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our greatest fear is of losing control - of our lives, but, most of all, of ourselves. In these ten unsettling tales of unexpected madness master storyteller Roald Dahl explores what happens when we let go our sanity. .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dick_philip_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick, Philip K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">androids_dream_electric_sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blade Runner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do Androids Dream of Electric Sheep?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DWVGYNQZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1507838927i/36402034.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Do_Androids_Dream_of_Electric_Sheep%3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/36402034-do-androids-dream-of-electric-sheep?ref=nav_sb_ss_1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was January 2021, and Rick Deckard had a license to kill. Somewhere among the hordes of humans out there, lurked several rogue androids. Deckard's assignment--find them and then..."retire" them. Trouble was, the androids all looked exactly like humans, and they didn't want to be found!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blade_runner_comic_motion_picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Official Comics Illustrated Version of the Motion Picture Hit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B00072L3GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/7/79/Blade_Runner_1982_cover.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Marvel_Comics_Super_Special:_Blade_Runner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/160257807-blade-runner?ref=nav_sb_ss_1_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marvel Comics Super Special: Blade Runner or just Blade Runner is a comic book adaptation of the film Blade Runner, published by Marvel Comics in 1982. It was written by Archie Goodwin with art by Al Williamson, Carlos Garzon with Dan Green and Ralph Reese.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward_robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward, Robert L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/1/15/Starquake_novel_cover.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Starquake_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/263487.Starquake?from_search=true&amp;from_srp=true&amp;qid=uZwXP8YDvU&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starquake, the sequel to Dragons Egg, takes place on the surface of a neutron star. The gravity is 67 billion Earth gravities. The native cheela, the size of sesame seeds, live a million times faster than their human friends in orbit. After a starquake, the humans have only one day to save the remains of cheela civilization from extinction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gibson_william</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibson, William</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burning_chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burning Chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1349075772i/22323.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Burning_Chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22323.Burning_Chrome?from_search=true&amp;from_srp=true&amp;qid=1XM9xD59bg&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ten tales, from the computer-enhanced hustlers of Johnny Mnemonic to the technofetishist blues of Burning Chrome.
-Johnny Mnemonic (1981), The Gernsback Continuum (1981), Fragments of a Hologram Rose (1977), The Belonging Kind (1981) with John Shirley, Hinterlands (1981), Red Star, Winter Orbit (1983) with Bruce Sterling, New Rose Hotel (1984), The Winter Market (1985), Dogfight (1985) with Michael Swanwick, Burning Chrome (1982)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprawl_neuromancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuromancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B000O76ON6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1554437249i/6088007.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Neuromancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/6088007-neuromancer?from_search=true&amp;from_srp=true&amp;qid=IlP4gHT7vi&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotwired to the leading edges of art and technology, Neuromancer is a cyberpunk, science fiction masterpiece—a classic that ranks with 1984 and Brave New World as one of the twentieth century’s most potent visions of the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprawl_count_zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-575-03696-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390358225i/22200.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Count_Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22200.Count_Zero?from_search=true&amp;from_srp=true&amp;qid=GOVBmVRUD2&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A corporate mercenary wakes in a reconstructed body, a beautiful woman by his side. Then Hosaka Corporation reactivates him, for a mission more dangerous than the one he’s recovering to get a defecting chief of R&amp;D—and the biochip he’s perfected—out intact. But this proves to be of supreme interest to certain other parties—some of whom aren’t remotely human....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprawl_mona_lisa_overdrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mona Lisa Overdrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1374778887i/154091.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Mona_Lisa_Overdrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/154091.Mona_Lisa_Overdrive?from_search=true&amp;from_srp=true&amp;qid=50mAHMK7FM&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Gibson, author of the extraordinary multiaward-winning novel Neuromancer, has written his most brilliant and thrilling work to date... The Mona Lisa Overdrive. Enter Gibson's unique world - lyric and mechanical, erotic and violent, sobering and exciting - where multinational corporations and high tech outlaws vie for power, traveling into the computer-generated universe known as cyberspace. Into this world comes Mona, a young girl with a murky past and an uncertain future whose life is on a collision course with internationally famous Sense/Net star Angie Mitchell. Since childhood, Angie has been able to tap into cyberspace without a computer. Now, from inside cyberspace, a kidnapping plot is masterminded by a phantom entity who has plans for Mona, Angie, and all humanity, plans that cannot be controlled... or even known. And behind the intrigue lurks the shadowy Yakuza, the powerful Japanese underworld, whose leaders ruthlessly manipulate people and events to suit their own purposes... or so they think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bridge_virtual_light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1409238094i/22326.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Virtual_Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22326.Virtual_Light?from_search=true&amp;from_srp=true&amp;qid=Be7KXAjDRz&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005: Welcome to NoCal and SoCal, the uneasy sister-states of what used to be California. Here the millennium has come and gone, leaving in its wake only stunned survivors. In Los Angeles, Berry Rydell is a former armed-response rentacop now working for a bounty hunter. Chevette Washington is a bicycle messenger turned pickpocket who impulsively snatches a pair of innocent-looking sunglasses. But these are no ordinary shades. What you can see through these high-tech specs can make you rich--or get you killed. Now Berry and Chevette are on the run, zeroing in on the digitalized heart of DatAmerica, where pure information is the greatest high. And a mind can be a terrible thing to crash...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bridge_idoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388413296i/22325.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Idoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22325.Idoru?from_search=true&amp;from_srp=true&amp;qid=SkrLaLOudu&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In twenty-first century Tokyo, Rez, one of the world's biggest rock stars, prepares to marry Rei Toe, Japan's biggest media star, who is known as the Idoru and who exists only in virtual reality. Reprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bridge_all_tomorrows_parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Tomorrow’s Parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1420821255i/22321.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/All_Tomorrow%27s_Parties_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22321.All_Tomorrow_s_Parties?from_search=true&amp;from_srp=true&amp;qid=YIs2kA87jI&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although Colin Laney (from Gibson's earlier novel Idoru) lives in a cardboard box, he has the power to change the world. Thanks to an experimental drug that he received during his youth, Colin can see "nodal points" in the vast streams of data that make up the worldwide computer network. Nodal points are rare but significant events in history that forever change society, even though they might not be recognizable as such when they occur. Colin isn't quite sure what's going to happen when society reaches this latest nodal point, but he knows it's going to be big. And he knows it's going to occur on the Bay Bridge in San Francisco, which has been home to a sort of SoHo-esque shantytown since an earthquake rendered it structurally unsound to carry traffic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue_ant_pattern_recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattern Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1288326931i/22320.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pattern_Recognition_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22320.Pattern_Recognition?ref=nav_sb_ss_1_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayce Pollard is an expensive, spookily intuitive market-research consultant. In London on a job, she is offered a secret assignment: to investigate some intriguing snippets of video that have been appearing on the Internet. An entire subculture of people is obsessed with these bits of footage, and anybody who can create that kind of brand loyalty would be a gold mine for Cayce's client. But when her borrowed apartment is burgled and her computer hacked, she realizes there's more to this project than she had expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue_ant_spook_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spook Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442535360i/22322.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Spook_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22322.Spook_Country?from_search=true&amp;from_srp=true&amp;qid=GeyeaR1YEB&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tito is in his early twenties. Born in Cuba, he speaks fluent Russian, lives in one room in a NoLita warehouse, and does delicate jobs involving information transfer.
-Hollis Henry is an investigative journalist, on assignment from a magazine called Node. Node doesn't exist yet, which is fine; she's used to that. But it seems to be actively blocking the kind of buzz that magazines normally cultivate before they start up. Really actively blocking it. It's odd, even a little scary, if Hollis lets herself think about it much. Which she doesn't; she can't afford to. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue_ant_zero_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zero History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1282769471i/7745031.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Zero_History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/7745031-zero-history?ref=nav_sb_ss_1_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollis Henry never intended to work for global marketing magnate Hubertus Bigend again. But now she’s broke, and Bigend has just the thing to get her back in the game...
-Milgrim can disappear in almost any setting, and his Russian is perfectly idiomatic—so much so that he spoke it with his therapist in the secret Swiss clinic where Bigend paid for him to be cured of his addiction…
-Garreth doesn't owe Bigend a thing. But he does have friends from whom he can call in the kinds of favors powerful people need when things go sideways...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackpot_peripheral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Peripheral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1574084339i/24611819.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Peripheral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/24611819-the-peripheral?ref=nav_sb_ss_1_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flynne Fisher lives down a country road, in a rural near-future America where jobs are scarce, unless you count illegal drug manufacture, which she’s trying to avoid. Her brother Burton lives, or tries to, on money from the Veterans Administration, for neurological damage suffered in the Marines’ elite Haptic Recon unit. Flynne earns what she can by assembling product at the local 3D printshop. She made more as a combat scout in an online game, playing for a rich man, but she’s had to let the shooter games go.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackpot_agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1493829667i/34943643.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Agency_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/34943643-agency?from_search=true&amp;from_srp=true&amp;qid=UyNJnTEpRd&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In William Gibson's first novel since 2014's New York Times bestselling The Peripheral, a gifted "app-whisperer" is hired by a mysterious San Francisco start-up and finds herself in contact with a unique and surprisingly combat-savvy AI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrust_particular_flavor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrust that Particular Flavor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348841998i/11890817.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Distrust_That_Particular_Flavor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/11890817-distrust-that-particular-flavor?ref=nav_sb_ss_1_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Gibson is known primarily as a novelist, with his work ranging from his groundbreaking first novel, Neuromancer , to his more recent contemporary bestsellers Pattern Recognition, Spook Country , and Zero History . During those nearly thirty years, though, Gibson has been sought out by widely varying publications for his insights into contemporary culture. Wired magazine sent him to Singapore to report on one of the world's most buttoned-up states. The New York Times Magazine asked him to describe what was wrong with the Internet. Rolling Stone published his essay on the ways our lives are all "soundtracked" by the music and the culture around us. And in a speech at the 2010 Book Expo, he memorably described the interactive relationship between writer and reader. These essays and articles have never been collected-until now. Some have never appeared in print at all. In addition, Distrust That Particular Flavor includes journalism from small publishers, online sources, and magazines no longer in existence. This volume will be essential reading for any lover of William Gibson's novels. Distrust That Particular Flavor offers readers a privileged view into the mind of a writer whose thinking has shaped not only a generation of writers but our entire culture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herbert_frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert, Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dune_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1555447414i/44767458.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Dune_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/44767458-dune?ref=nav_sb_ss_1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set on the desert planet Arrakis, Dune is the story of the boy Paul Atreides, heir to a noble family tasked with ruling an inhospitable world where the only thing of value is the “spice” melange, a drug capable of extending life and enhancing consciousness. Coveted across the known universe, melange is a prize worth killing for...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dune_messiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dune Messiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9780593098233 (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1577043824i/44492285.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Dune_Messiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/44492285-dune-messiah?from_search=true&amp;from_srp=true&amp;qid=wSdvO4iTQs&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dune Messiah continues the story of Paul Atreides, better known--and feared--as the man christened Muad'Dib. As Emperor of the Known Universe, he possesses more power than a single man was ever meant to wield. Worshipped as a religious icon by the fanatical Fremens, Paul faces the enmity of the political houses he displaced when he assumed the throne--and a conspiracy conducted within his own sphere of influence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hodgson_william_hope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hodgson, William Hope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night_land_retold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Night Land: A Story Retold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1912 &amp; 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B004GKNM3W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1328317011i/10577778.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Night_Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Stoddard rewrite of Hodgson original.
-An adventure of both science fiction and fantasy—one of the great love stories--this is William Hope Hodgson's masterpiece, rewritten for the modern reader.  Penned in 1912, The Night Land is considered by many to be a work of genius, but one written in a difficult, archaic style that readers often find impenetrable. As a labor of love, James Stoddard has rewritten Hodgson's book to bring it to a wider audience.  The story opens in the 19th century, but quickly moves to the far future, where the sun has gone out, leaving the world in a darkness broken only by strange lights and mysterious fires. Over the ages, monsters and evil forces have descended to the earth, compelling the surviving humans to take refuge in a great pyramid of imperishable metal built in a miles-deep chasm. The monsters surround the pyramid in a perpetual siege lasting for eons, waiting for the moment when its defenses must fail.  But one man, born out of his time, must leave the pyramid to seek his long-lost love though all the perils of the Night Land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howard_robert_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard, Robert E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conan_adventurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conan the Adventurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1285268268i/443774.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Conan_the_Adventurer_(short_story_collection)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/443774.Conan_the_Adventurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collects: People of the Black Circle (Sept 1934), Slithering Shadow (Sept 1933), Drums of Tombalku (1930s), Pool of the Black Ones (Nov 1933)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conan_complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Complete Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B01921JHGK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1449628167i/28149241.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Conan_the_Barbarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/28149241-conan?from_search=true&amp;from_srp=true&amp;qid=8TTFgAdDbB&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This has all of the stories but it is a truly awful POD copy. I need to get a nicer version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelloun_tahar_ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelloun, Tahar Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blinding_absence_light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Blinding Absence of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-02-041777-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1583499973i/20870778.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/This_Blinding_Absence_of_Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/20870778-this-blinding-absence-of-light?ref=nav_sb_noss_l_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shocking story set in Morocco's desert concentration camps, from the Prix Goncourt-winning novelist. An immediate and critically acclaimed bestseller in France, This Blinding Absence of Light is Tahar Ben Jelloun's crafting of a horrific real-life narrative into a work of fiction. "In this deeply moving novel," says L'Express, "Tahar Ben Jelloun has chosen imagination as the response to inhumanity—the art of writing as the ultimate liberation." He tells the appalling story of the desert concentration camps in which King Hassan II of Morocco held his political enemies. Not until September 1991, under international pressure, was Hassan's regime forced to open these desert hellholes. A handful of survivors—living cadavers who had shrunk by over a foot in height—emerged from the six-by-three-foot cells in which they had been held underground for decades. Working closely with one of the survivors, Ben Jelloun eschewed the traditional novel format and wrote a book in the simplest of language, reaching always for the most basic of words, the most correct descriptions. The result is "a great novel," according to Le Monde, and what Les Échos calls "a book of universal import, addressing all the horrors, past and doubtless future, that man has inflicted on his fellow men."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka_franz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafka, Frankz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metamorphosis_other_stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Metamorphosis and Other Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386925094i/7723.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Metamorphosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/7723.The_Metamorphosis_and_Other_Stories?from_search=true&amp;from_srp=true&amp;qid=p5O8Fv3O04&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Judgement, The Metamorphosis, In the Penal Colony, A Country Doctor, A Report to an Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le_guin_ursula_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Guin, Ursula K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthsea_first_four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The First Four Books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1584887380l/52969000.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Earthsea_(universe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/52969000-earthsea?ref=nav_sb_ss_1_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Wizard of Earthsea, The Tombs of Atuan, The Farthest Shore, Tehanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tales_from_earthsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales from Earthsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309202073i/13659.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/13659.Tales_from_Earthsea?ref=nav_sb_ss_1_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five stories of Ursula K. Le Guin's world-renowned realm of Earthsea are collected in one volume. Featuring two classic stories, two original tales, and a brand-new novella, as well as new maps and a special essay on Earthsea's history, languages, literature, and magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthsea_other_wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Other Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309285821i/13658.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/13658.The_Other_Wind?ref=nav_sb_ss_1_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sorcerer Alder fears sleep. He dreams of the land of death, of his wife who died young and longs to return to him so much that she kissed him across the low stone wall that separates our world from the Dry Land-where the grass is withered, the stars never move, and lovers pass without knowing each other. The dead are pulling Alder to them at night. Through him they may free themselves and invade Earthsea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lathe_heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lathe of Heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1433084322i/59924.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Lathe_of_Heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/59924.The_Lathe_of_Heaven?from_search=true&amp;from_srp=true&amp;qid=347YPR7pXU&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A classic science fiction novel by one of the greatest writers of the genre, set in a future world where one man's dreams control the fate of humanity.
-In a future world racked by violence and environmental catastrophes, George Orr wakes up one day to discover that his dreams have the ability to alter reality. He seeks help from Dr. William Haber, a psychiatrist who immediately grasps the power George wields. Soon George must preserve reality itself as Dr. Haber becomes adept at manipulating George's dreams for his own purposes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unreal_real_where_earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Unreal &amp; The Real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where on Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388535821i/13591878.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Ursula_K._Le_Guin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/13591878-the-unreal-and-the-real?ref=nav_sb_ss_1_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Unreal and the Real is a major event not to be missed. In this two-volume selection of Ursula K. Le Guin's best short stories—as selected by the National Book Award winning author herself—the reader will be delighted, provoked, amused, and faced with the sharp, satirical voice of one of the best short story writers of the present day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liber_fritz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiber, Fritz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swords_against_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafhrd and the Gray Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swords Against Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1441810943i/218716.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Fafhrd_and_the_Gray_Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/218716.Swords_Against_Death?from_search=true&amp;from_srp=true&amp;qid=LTrOEdu263&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Swords Against Death, Fafhrd and the Gray Mouser journey from the ancient city of Lankhmar, searching for a little adventure and debauchery to ease their broken hearts. When a stranger challenges them to find and fight Death on the Bleak Shore, they battle demonic birds, living mountains, and evil monks on the way to their heroic fate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lynch_scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynch, Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lies_locke_lamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentleman Bastard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lies of Locke Lamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1659900442i/643750.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Lies_of_Locke_Lamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/643750.The_Lies_of_Locke_Lamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An orphan’s life is harsh—and often short—in the mysterious island city of Camorr. But young Locke Lamora dodges death and slavery, becoming a thief under the tutelage of a gifted con artist. As leader of the band of light-fingered brothers known as the Gentleman Bastards, Locke is soon infamous, fooling even the underworld’s most feared ruler. But in the shadows lurks someone still more ambitious and deadly. Faced with a bloody coup that threatens to destroy everyone and everything that holds meaning in his mercenary life, Locke vows to beat the enemy at his own brutal game—or die trying.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mccabe_patrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McCabe, Patrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">butcher_boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Butcher Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1417408216i/82965.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Butcher_Boy_(novel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/82965.The_Butcher_Boy?from_search=true&amp;from_srp=true&amp;qid=Mn1xwVWm8b&amp;rank=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a precisely crafted, often lyrical, portrait of the descent into madness of a young killer in small-town Ireland. "Imagine Huck Finn crossed with Charlie Starkweather," said The Washington Post. Short-listed for the Bram Stoker Award and England's prestigious Booker Prize.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcgregor_jon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McGregor, Jon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nobody_speaks_remarkable_things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Nobody Speaks of Remarkable Things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1440279416i/103345.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/If_Nobody_Speaks_of_Remarkable_Things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/103345.If_Nobody_Speaks_Of_Remarkable_Things?ref=nav_sb_ss_1_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Nobody Speaks of Remarkable Things explores the hopes, fears, and unspoken despairs of a diverse a single father with painfully scarred hands; a group of young club-goers just home from an all-night rave, sweetly high and mulling over vague dreams; and the nervous young man at number 18 who collects weird urban junk and is haunted by the specter of unrequited love. What eventually unites them is an utterly surprising and terrible twist of fate that shatters their everyday, ordinary tranquility, and all that they take for granted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miller_walter_m_jr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miller, Walter M. Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canticle_for_leibowitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Canticle for Leibowitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B001FY2JKO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/d/d2/A_Canticle_for_Leibowitz_cover_1st_ed.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/A_Canticle_for_Leibowitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/157354565-a-canticle-for-liebowitz?from_search=true&amp;from_srp=true&amp;qid=tE48JoWyqk&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a nightmarish ruined world slowly awakening to the light after sleeping in darkness, the infant rediscoveries of science are secretly nourished by cloistered monks dedicated to the study and preservation of the relics and writings of the blessed Saint Isaac Leibowitz. From here the story spans centuries of ignorance, violence, and barbarism, viewing through a sharp, satirical eye the relentless progression of a human race damned by its inherent humanness to recelebrate its grand foibles and repeat its grievous mistakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moorcock_michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moorcock, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elric_saga_vol1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elric of Melniboné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Elric Saga, Vol 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1616567014i/56897579.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Elric_of_Melnibon%C3%A9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/56897579-elric-of-melnibon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elric of Melnibone, The Fortress of the Pearl, The Sailor on the Sea of Fate, The Weird of the White Wolfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petrov_evgeny_ilf_ilya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrov, Evgeny &amp; Ilf, Ilya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden_calf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Golden Calf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1398195569i/6750324.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Ilf_and_Petrov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/6750324-the-golden-calf?ref=nav_sb_ss_2_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostap Bender, the "grand strategist," is a con man on the make in the Soviet Union during the New Economic Policy (NEP) period. He’s obsessed with getting one last big score—a few hundred thousand will do—and heading for Rio de Janeiro, where there are "a million and a half people, all of them wearing white pants, without exception."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reynolds_alastari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds, Alastair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamone_dogs_turquoise_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revelation Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamond Dogs, Turquoise Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348305802i/893590.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Diamond_Dogs,_Turquoise_Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/893590.Diamond_Dogs_Turquoise_Days?ref=nav_sb_noss_l_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just when you thought it was safe to go back into interstellar space ...Alastair Reynolds burst onto the SF scene with the Arthur C. Clarke Award-shortlisted REVELATION SPACE, British Science Fiction Award-winning CHASM CITY, and REDEMPTION ARK. Now experience the phenomenal imagination and breathtaking vision of 'The most exciting space opera writer working today' (Locus) in these two tales of high adventure set in the same universe as his novels. The title story, 'Diamond Dogs', tells of a group of mercenaries trying to unravel the mystery of a particularly inhospitable alien tower on a distant world; 'Turquoise Days' is about Naqi, who has devoted her life to studying the alien Pattern Jugglers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing_ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushing Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1309197028i/89186.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pushing_Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/89186.Pushing_Ice?from_search=true&amp;from_srp=true&amp;qid=reY7ICYCtC&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057. Bella Lind and the crew of her nuclear-powered ship, the Rockhopper, push ice. They mine comets. But when Janus, one of Saturn's ice moons, inexplicably leaves its natural orbit and heads out of the solar system at high speed, Bella is ordered to shadow it for the few vital days before it falls forever out of reach. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">saberhagen_fred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saberhagen, Fred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empire_east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empire of the East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388330793i/16482.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Empire_of_the_East_series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/16482.Empire_of_the_East?ref=nav_sb_ss_1_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the distant future, society has crumbled. Dark forces now rule the land, keeping all humans under their oppressive thumbs.
-In the darkness of the shadows and whispered on the winds, there is talk of a rebellion. In the swamps, a small band has formed. Determined to regain their freedom, the rebellion, heavily outnumbered, plans to overthrow an army of thousands . . . with the help of one incredible weapon.
-It is only a legend, a story left over from the Old World before magic and the wizards came to the land. A weapon of technology. It is the mystical Elephant, and whoever masters it holds the key to freedom, or defeat.
-One young man, determined to avenge the death of his family, sets out to join the rebellion and find Elephant. What he discovers will change everything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simmons_dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simmons, Dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperion_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion Cantos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1405546838i/77566.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Hyperion_Cantos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/77566.Hyperion?from_search=true&amp;from_srp=true&amp;qid=bmRGdQNDpM&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the world called Hyperion, beyond the law of the Hegemony of Man, there waits the creature called the Shrike. There are those who worship it. There are those who fear it. And there are those who have vowed to destroy it. In the Valley of the Time Tombs, where huge, brooding structures move backward through time, the Shrike waits for them all. On the eve of Armageddon, with the entire galaxy at war, seven pilgrims set forth on a final voyage to Hyperion seeking the answers to the unsolved riddles of their lives. Each carries a desperate hope—and a terrible secret. And one may hold the fate of humanity in his hands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fall_hyperion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fall of Hyperion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1541174620i/77565.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/77565.The_Fall_of_Hyperion?from_search=true&amp;from_srp=true&amp;qid=bmRGdQNDpM&amp;rank=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the stunning continuation of the epic adventure begun in Hyperion, Simmons returns us to a far future resplendent with drama and invention. On the world of Hyperion, the mysterious Time Tombs are opening. And the secrets they contain mean that nothing--nothing anywhere in the universe--will ever be the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steinback_john</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steinback, John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the_pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1437234939i/5308.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/John_Steinbeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/5308.The_Pearl?from_search=true&amp;from_srp=true&amp;qid=jPXgORXhQ7&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like his father and grandfather before him, Kino is a poor diver, gathering pearls from the gulf beds that once brought great wealth to the kings of Spain and now provide Kino, Juana, and their infant son with meager subsistence. Then, on a day like any other, Kino emerges from the sea with a pearl as large as a sea gull’s egg, as “perfect as the moon.” With the pearl comes hope, the promise of comfort and of security…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stephenson_neal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephenson, Neal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow_crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snow Crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1656932283i/61240297.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Snow_Crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/61240297-snow-crash?ref=nav_sb_ss_1_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In reality, Hiro Protagonist delivers pizza for Uncle Enzo's CosoNostra Pizza Inc., but in the Metaverse he's a warrior prince. Plunging headlong into the enigma of a new computer virus that's striking down hackers everywhere, he races along the neon-lit streets on a search-and-destroy mission for the shadowy virtual villain threatening to bring about infocalypse. Snow Crash is a mind-altering romp through a future America so bizarre, so outrageous . . . you'll recognize it immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Diamond Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388180931i/827.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Diamond_Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/827.The_Diamond_Age?from_search=true&amp;from_srp=true&amp;qid=V380uRpfld&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Diamond Age: Or, a Young Lady's Illustrated Primer is a postcyberpunk novel by Neal Stephenson. It is to some extent a science fiction coming-of-age story, focused on a young girl named Nell, and set in a future world in which nanotechnology affects all aspects of life. The novel deals with themes of education, social class, ethnicity, and the nature of artificial intelligence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strieber_whitley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strieber, Whitley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communion_true_story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communion: A True Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348070533i/294285.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Communion_(book)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/294285.Communion?ref=nav_sb_ss_1_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On December 26, 1985, at a secluded cabin in upstate New York, Whitley Strieber went skiing with his wife and son, ate Christmas dinner leftovers, and went to bed early.
-Six hours later, he found himself suddenly awake... and forever changed.
-Thus begins the most astonishing true-life odyssey ever recorded—one man's riveting account of his extraordinary experiences with visitors from "elsewhere"... how they found him, where they took him, what they did to him and why...
-Believe it. Or don't believe it. But read it—for this gripping story will move you like no other... will fascinate you, terrify you, and alter the way you experience your world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strugatsky_arkady_boris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strugatsky, Arkady &amp; Boris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roadside_picnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roadside Picnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/a/a9/Roadside-picnic-macmillan-cover.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Roadside_Picnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/331256.Roadside_Picnic?ref=nav_sb_ss_1_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Schuhart is a stalker, one of those young rebels who are compelled, in spite of extreme danger, to venture illegally into the Zone to collect the mysterious artifacts that the alien visitors left scattered around. His life is dominated by the place and the thriving black market in the alien products. But when he and his friend Kirill go into the Zone together to pick up a “full empty,” something goes wrong. And the news he gets from his girlfriend upon his return makes it inevitable that he’ll keep going back to the Zone, again and again, until he finds the answer to all his problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolkien_jrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolkien, J.R.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hobbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle-Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hobbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DN8P5BQF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1546071216i/5907.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Hobbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/5907.The_Hobbit_or_There_and_Back_Again?from_search=true&amp;from_srp=true&amp;qid=kJav6zNSCy&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a hole in the ground there lived a hobbit. Not a nasty, dirty, wet hole, filled with the ends of worms and an oozy smell, nor yet a dry, bare, sandy hole with nothing in it to sit down on or to eat: it was a hobbit-hole, and that means comfort.
-Written for J.R.R. Tolkien’s own children, The Hobbit met with instant critical acclaim when it was first published in 1937. Now recognized as a timeless classic, this introduction to the hobbit Bilbo Baggins, the wizard Gandalf, Gollum, and the spectacular world of Middle-earth recounts of the adventures of a reluctant hero, a powerful and dangerous ring, and the cruel dragon Smaug the Magnificent. The text in this 372-page paperback edition is based on that first published in Great Britain by Collins Modern Classics (1998), and includes a note on the text by Douglas A. Anderson (2001).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fellowship_ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lord of the Rings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fellowship of the Ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DT42KYKH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/8/8e/The_Fellowship_of_the_Ring_cover.gif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Fellowship_of_the_Ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/61215351-the-fellowship-of-the-ring?ref=nav_sb_ss_1_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-In ancient times the Rings of Power were crafted by the Elven-smiths, and Sauron, the Dark Lord, forged the One Ring, filling it with his own power so that he could rule all others. But the One Ring was taken from him, and though he sought it throughout Middle-earth, it remained lost to him. After many ages it fell into the hands of Bilbo Baggins, as told in The Hobbit.
-In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two_towers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Two Towers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DT3YQ3DF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/a/a1/The_Two_Towers_cover.gif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Two_Towers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/61215372-the-two-towers?from_search=true&amp;from_srp=true&amp;qid=AkGClmJnOJ&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frodo and his Companions of the Ring have been beset by danger during their quest to prevent the Ruling Ring from falling into the hands of the Dark Lord by destroying it in the Cracks of Doom. They have lost the wizard, Gandalf, in a battle in the Mines of Moria. And Boromir, seduced by the power of the Ring, tried to seize it by force. While Frodo and Sam made their escape, the rest of the company was attacked by Orcs. Now they continue the journey alone down the great River Anduin—alone, that is, save for the mysterious creeping figure that follows wherever they go.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_king</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Return of the King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0DT3K656L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/1/11/The_Return_of_the_King_cover.gif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Return_of_the_King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/61215384-the-return-of-the-king?from_search=true&amp;from_srp=true&amp;qid=hLniuBY3rh&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor.
-To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo’s time is running out.
-Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfinished_tales_numenor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfinished Tales of Numenor &amp; Middle-Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1165611104i/7329.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/J._R._R._Tolkien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/7329.Unfinished_Tales?ref=nav_sb_ss_1_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfinished Tales is a collection of narratives ranging in time from the Elder Days of Middle-earth to the end of the War of the Ring, and provides those who have read The Lord of the Rings with a whole collection of background and new stories from the twentieth century’s most acclaimed popular author.
-The book concentrates on the realm of Middle-earth and comprises such elements as Gandalf’s lively account of how it was that he came to send the Dwarves to the celebrated party at Bag-End, the emergence of the sea-god Ulmo before the eyes of Tuor on the coast of Beleriand, and an exact description of the military organization of the Riders of Rohan.
-Unfinished Tales also contains the only story about the long ages of Numenor before its downfall, and all that is known about such matters as the Five Wizards, the Palantiri and the legend of Amroth. The tales were collated and edited by JRR Tolkien’s son and literary heir, Christopher Tolkien, who provides a short commentary on each story, helping the reader to fill in the gaps and put each story into the context of the rest of his father’s writings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrr_tolkien_biography_carpenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.R.R. Tolkien: A Biography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386924632i/7336.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/7336.J_R_R_Tolkien?ref=nav_sb_ss_1_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written by Humphrey Carpenter.  The authorized biography of the creator of Middle-earth. In the decades since his death in September 1973, millions have read THE HOBBIT, THE LORD OF THE RINGS, and THE SILMARILLION and become fascinated about the very private man behind the books. Born in South Africa in January 1892, John Ronald Reuel Tolkien was orphaned in childhood and brought up in near-poverty. He served in the first World War, surviving the Battle of the Somme, where he lost many of the closest friends he'd ever had. After the war he returned to the academic life, achieving high repute as a scholar and university teacher, eventually becoming Merton Professor of English at Oxford where he was a close friend of C.S. Lewis and the other writers known as The Inklings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verne_jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verne, Jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journey_center_earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey of the Center of the Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/6/67/A_Journey_to_the_Centre_of_the_Earth-1874.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Journey_to_the_Center_of_the_Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/32829.Journey_to_the_Center_of_the_Earth?from_search=true&amp;from_srp=true&amp;qid=kFNXufdM8I&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurous geology professor chances upon a manuscript in which a 16th-century explorer claims to have found a route to the earth's core. Professor Lidenbrock can't resist the opportunity to investigate, and with his nephew Axel, he sets off across Iceland in the company of Hans Bjelke, a native guide. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vonnegut_kurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vonnegut, Kurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sirens_titan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sirens of Titan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/f/f8/Cover_of_first_edition_%28hardcover.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Sirens_of_Titan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/4982.The_Sirens_of_Titan?from_search=true&amp;from_srp=true&amp;qid=LgysptG46A&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sirens of Titan is an outrageous romp through space, time, and morality. The richest, most depraved man on Earth, Malachi Constant, is offered a chance to take a space journey to distant worlds with a beautiful woman at his side. Of course there's a catch to the invitation—and a prophetic vision about the purpose of human life that only Vonnegut has the courage to tell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slaughterhouse-five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slaughterhouse-Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-385-31208-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/a/ad/Slaughterhouse-Five_%28first_edition%29_-_Kurt_Vonnegut.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Slaughterhouse-Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/4981.Slaughterhouse_Five?from_search=true&amp;from_srp=true&amp;qid=Cth9SXFJi6&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slaughterhouse-Five, an American classic, is one of the world’s great antiwar books. Centering on the infamous World War II firebombing of Dresden, the novel is the result of what Kurt Vonnegut described as a twenty-three-year struggle to write a book about what he had witnessed as an American prisoner of war. It combines historical fiction, science fiction, autobiography, and satire in an account of the life of Billy Pilgrim, a barber’s son turned draftee turned optometrist turned alien abductee. As Vonnegut had, Billy experiences the destruction of Dresden as a POW. Unlike Vonnegut, he experiences time travel, or coming “unstuck in time.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vonnegut_letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1380496331i/17857645.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Kurt_Vonnegut:_Letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/17857645-kurt-vonnegut?from_search=true&amp;from_srp=true&amp;qid=eP9rROvzKB&amp;rank=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurt Vonnegut: Letters is a collection of letters written by American author Kurt Vonnegut, edited by his friend and fellow writer Dan Wakefield. Published by Delacorte Press on October 30, 2012, the book compiles a wide range of Vonnegut's correspondence spanning his entire life, offering insight into his personal thoughts, relationships, and the development of his literary career.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">watts_peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watts, Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firefall_blindsight_echopraxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firefall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&amp;2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1408625001i/22838183.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Peter_Watts_(author)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/22838183-firefall?ref=nav_sb_ss_4_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blindsight &amp; Echopraxia collected together.
-FIRST CONTACT: 13 FEBRUARY 2082.
-The day sixty-five thousand objects burned briefly around Earth: an unexplained moment of surveillance by an alien intelligence. We called it Firefall.
-Two months later, we sent the Theseus reconnaisance mission into deep space. Somewhere past Jupiter, we lost contact.
-For the last twenty-five years we have waited for word. No further sightings of ""fireflies"" have been reported.
-But all this is about to change. For a man hiding in the Oregon desert is about to play a key role in the next stage of human evolution. And first he must find the Theseus mission...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wells_hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wells, H.G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_machine_wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Time Machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN: B0084BKY2Q </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1327942880i/2493.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Time_Machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/2493.The_Time_Machine?ref=nav_sb_ss_1_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So begins the Time Traveller’s astonishing firsthand account of his journey 800,000 years beyond his own era—and the story that launched H.G. Wells’s successful career and earned him his reputation as the father of science fiction. With a speculative leap that still fires the imagination, Wells sends his brave explorer to face a future burdened with our greatest hopes...and our darkest fears. A pull of the Time Machine’s lever propels him to the age of a slowly dying Earth.  There he discovers two bizarre races—the ethereal Eloi and the subterranean Morlocks—who not only symbolize the duality of human nature, but offer a terrifying portrait of the men of tomorrow as well.  Published in 1895, this masterpiece of invention captivated readers on the threshold of a new century. Thanks to Wells’s expert storytelling and provocative insight, The Time Machine will continue to enthrall readers for generations to come.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island_doctor_moreau_wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Island of Doctor Moreau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1414314447i/15990644.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Island_of_Doctor_Moreau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/15990644-the-island-of-doctor-moreau?ref=nav_sb_noss_l_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrift in a dinghy, Edward Prendick, the single survivor from the good ship Lady Vain, is rescued by a vessel carrying a profoundly unusual cargo - a menagerie of savage animals. Tended to recovery by their keeper Montgomery, who gives him dark medicine that tastes of blood, Prendick soon finds himself stranded upon an uncharted island in the Pacific with his rescuer and the beasts. Here, he meets Montgomery's master, the sinister Dr. Moreau - a brilliant scientist whose notorious experiments in vivisection have caused him to abandon the civilised world. It soon becomes clear he has been developing these experiments - with truly horrific results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invisible_man_wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Invisible Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1630661776i/17184.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Invisible_Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/17184.The_Invisible_Man?ref=nav_sb_ss_1_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This masterpiece of science fiction is the fascinating story of Griffin, a scientist who creates a serum to render himself invisible, and his descent into madness that follows.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">war_worlds_wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The War of the Worlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1320391644i/8909.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://en.wikipedia.org/wiki/The</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_War_of_the_Worlds</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/8909.The_War_of_the_Worlds?from_search=true&amp;from_srp=true&amp;qid=GkPu78e68Q&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an army of invading Martians lands in England, panic and terror seize the population. As the aliens traverse the country in huge three-legged machines, incinerating all in their path with a heat ray and spreading noxious toxic gases, the people of the Earth must come to terms with the prospect of the end of human civilization and the beginning of Martian rule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wells_martha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wells, Martha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_bones_martha_wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City of Bones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1312044300i/367335.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Martha_Wells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/367335.City_of_Bones?ref=nav_sb_ss_1_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the greatest city of them all is Charisat: Imperial seat and wonder of wonders, a great monolithic structure towering over the desert. Charisat, a phantasmagorical place where silken courtesans and beggars weave lies side by side, where any man’s dreams can be fulfilled at the whisper of a genie, and where the tier that you live on determines how high up the food (or more importantly, water) chain you are. It is the goal of every schemer, treasure hunter, and madman intent on finding his heart’s content — a place that dazzles the senses, makes the most somber mind dizzy with its scents and sights — and where no one knows friend from foe when it comes to the desperate fight for dwindling resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wolfe_gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfe, Gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifth_head_cerberus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fifth Head of Cerberus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1383352739i/845501.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Fifth_Head_of_Cerberus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/845501.The_Fifth_Head_of_Cerberus?ref=nav_sb_ss_1_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In The Fifth Head of Cerberus, Wolfe skillfully interweaves three bizarre tales to create a mesmerizing pattern: the harrowing account of the son of a mad genius who discovers his hideous heritage; a young man's mythic dreamquest for his darker half; the bizarre chronicle of a scientists' nightmarish imprisonment. Like an intricate, braided knot, the pattern at last unfolds to reveal astonishing truths about this strange and savage alien landscape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shadow_claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book of the New Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow &amp; Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388180510i/40992.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Book_of_the_New_Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/40992.Shadow_Claw?from_search=true&amp;from_srp=true&amp;qid=kMjqFJLkHw&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Shadow of the Torturer &amp; The Claw of the Conciliator
-The Shadow of the Torturer is the tale of young Severian, an apprentice in the Guild of Torturers on the world called Urth, exiled for committing the ultimate sin of his profession -- showing mercy toward his victim.
-The Claw of the Conciliator continues the saga of Severian, banished from his home, as he undertakes a mythic quest to discover the awesome power of an ancient relic, and learn the truth about his hidden destiny.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_citadel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword &amp; Citadel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1543852974i/40995.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/40995.Sword_Citadel?from_search=true&amp;from_srp=true&amp;qid=0LFaL2cOG2&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sword of the Lictor &amp; The Citadel fo the Autarch
-The Sword of the Lictor is the third volume in Wolfe's remarkable epic, chronicling the odyssey of the wandering pilgrim called Severian, driven by a powerful and unfathomable destiny, as he carries out a dark mission far from his home.
-The Citadel of the Autarch brings The Book of the New Sun to its harrowing conclusion, as Severian clashes in a final reckoning with the dread Autarch, fulfilling an ancient prophecy that will forever alter the realm known as Urth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urth_new_sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urth of the New Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1532670795i/60215.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Urth_of_the_New_Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/60215.The_Urth_of_the_New_Sun?ref=nav_sb_ss_1_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The long awaited sequel to Gene Wolfe’s four-volume classic, The Book of the New Sun. We return to the world of Severian, now the Autarch of Urth, as he leaves the planet on one of the huge spaceships of the alien Hierodules to travel across time and space to face his greatest test, to become the legendary New Sun or die. The strange, rich, original spaceship scenes give way to travels in time, wherein Severian revisits times and places which fill in parts of the background of the four-volume work, that will thrill and intrigue particularly all readers of the earlier books. But The Urth of the New Sun is an independent structure all of a piece, an integral masterpiece to shelve beside the classics, one itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">litany_long_sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book of the Long Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litany of the Long Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1390370485i/288132.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Book_of_the_Long_Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/288132.Litany_of_the_Long_Sun?ref=nav_sb_ss_1_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nightside the Long Sun &amp; Lake of the Long Sun
-The story of Patera Silk, a devout priest whose destiny is wrapped up with the gods he serves, takes place within the Whorl, a vast, cylindrical starship that has traveled for generations and is crumbling into disrepair. Through a strange and amazing series of events, Silk finds himself descending to base thievery, running afoul of a notorious crime lord, befriending a cyborg soldier, and encountering at least one of the gods of Mainframe.
-But when Silk encounters the Outsider, who may be a God of a very different sort, all his beliefs are shaken to the core, and his life swiftly takes a messianic turn. In a rousing climax, Silk becomes the reluctant leader of a political rebellion against the corrupt Ayuntamiento, who rule the city-state of Viron.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epiphany_long_sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epiphany of the Long Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1456757491i/201991.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/130454971-epiphany-of-the-long-sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calde of the Long Sun &amp; Exodus From the Long Sun
-The two novels combined in this omnibus (Caldé of the Long Sun and Exodus from the Long Sun) comprise the second half of Gene Wolfe's long novel, The Book of the Long Sun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wizard_knight_knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wizard Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1437398168i/60212.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Wizard_Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/60212.The_Knight?ref=nav_sb_ss_1_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A young man in his teens is transported from our world to a magical realm that contains seven levels of reality. Very quickly transformed by magic into a grown man of heroic proportions, he takes the name Able and sets out on a quest to find the sword that has been promised to him, a sword he will get from a dragon, the one very special blade that will help him fulfill his life ambition to become a knight and a true hero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wizard_knight_wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388709694i/40996.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/40996.The_Wizard?ref=nav_sb_ss_2_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Able returns to Mythgathr on his steed Cloud, a great mare the color of her name. Able is filled with new knowledge of the ways of the seven-fold world and possessed of great magical secrets. His knighthood now beyond question, Able works to fulfill his vows to his king, his lover, his friends, his gods, and even his enemies. Able must set his world right, restoring the proper order among the denizens of all the seven worlds.
-The Wizard is a charming, riveting, emotionally charged tale of wonders, written with all the beauty one would expect from a writer whom Damon Knight called "a national treasure."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pirate_freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirate Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1312045737i/703026.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Pirate_Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/703026.Pirate_Freedom?ref=nav_sb_ss_1_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh from the monastery, the former novice finds himself inexplicably transported back to the Golden Age of Piracy, where an unexpected new life awaits him. At first, he resists joining the notorious Brethren of the Coast, but he soon embraces the life of a buccaneer, even as he succumbs to the seductive charms of a beautiful and enigmatic senorita. As the captain of his own swift ship, which may or may not be cursed, he plunders the West Indies in search of Spanish gold. From Tortuga to Port Royal, from the stormy waters of the Caribbean to steamy tropical jungles, Captain Chris finds danger, passion, adventure, and treachery as he hoists the black flag and sets sail for the Spanish mainland.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zindel_paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zindel, Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pigman_zindel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pigman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pigman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1393796714i/128092.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Pigman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodreads.com/book/show/128092.The_Pigman?from_search=true&amp;from_srp=true&amp;qid=8s16HOEJWC&amp;rank=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When sophomores John and Lorraine played a practical joke a few months ago on a stranger named Angelo Pignati, they had no idea what they were starting. Virtually overnight, almost against their will, the two befriended the lonely old man; it wasn't long before they were more comfortable in his house than their own. But now Mr. Pignati is dead. And for John and Lorraine, the only way to find peace is to write down their friend's story - the story of the Pigman.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Fiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bizony_piers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bizony, Piers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasa_archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The NASA Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Project Mercury to the Mars Rovers: 60 Years in Space</t>
+    <t xml:space="preserve">zell_ravenheart_oberon_morning_glory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zell-Ravenheart, Oberon &amp; Morning Glory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating_circles_ceremonies_rituals_season_reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Circles &amp; Ceremonies: Rituals for All Seasons and Reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348899127i/505353.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/505353.Creating_Circles_and_Ceremonies?from_search=true&amp;from_srp=true&amp;qid=cDicMgxlWQ&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Circles and Ceremonies is the accumulation of decades of circles, ceremonies, rituals, Mystery plays, initiations, rites of passage, and other magickal workings co-created by the Zell-Ravenhearts, today's foremost Wizard/Witch couple. For more than 30 years, Oberon and Morning Glory have traveled widely throughout the worldwide magickal community--participating in gatherings, conducting workshops, and creating rituals for groups large and small. They have met and made Magick with the leaders of many traditions: Celtic Shamanism, British Dianic, Italian Strega, Welsh Witchcraft, Faerie Trad, Ceremonial Magick, Ozark Druidry, the New Reformed Order of the Golden Dawn (NROOGD), Hinduism, Native American tribes, Greek and Egyptian mythology, and the futuristic Church of All Worlds.
+</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -2851,11 +3922,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2877,21 +3949,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2908,6 +3988,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFEC9BA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -2945,7 +4043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2962,15 +4060,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3019,16 +4141,16 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -3051,13 +4173,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H174" activeCellId="0" sqref="H174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B263" activeCellId="0" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
@@ -3066,9 +4188,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="63.9"/>
   </cols>
   <sheetData>
@@ -3396,7 +4518,7 @@
       <c r="L8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3519,7 +4641,7 @@
       <c r="L11" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3560,7 +4682,7 @@
       <c r="L12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3629,7 +4751,7 @@
       <c r="D15" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -3641,7 +4763,7 @@
       <c r="I15" s="0" t="n">
         <v>832</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>95</v>
       </c>
       <c r="K15" s="0" t="s">
@@ -3664,7 +4786,7 @@
       <c r="C16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -3807,7 +4929,7 @@
       <c r="L21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3958,7 +5080,7 @@
       <c r="L26" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4308,7 +5430,7 @@
       <c r="L36" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4505,7 +5627,7 @@
       <c r="L43" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4885,7 +6007,7 @@
       <c r="K56" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>291</v>
       </c>
       <c r="M56" s="0" t="s">
@@ -5503,7 +6625,7 @@
       <c r="L77" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="M77" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5831,7 +6953,7 @@
       <c r="L85" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="M85" s="5" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5872,7 +6994,7 @@
       <c r="L86" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="M86" s="5" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6146,7 +7268,7 @@
       <c r="L94" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="M94" s="5" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6512,10 +7634,10 @@
       <c r="K106" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="L106" s="5" t="s">
+      <c r="L106" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="M106" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6553,7 +7675,7 @@
       <c r="K107" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="L107" s="5" t="s">
+      <c r="L107" s="4" t="s">
         <v>556</v>
       </c>
       <c r="M107" s="0" t="s">
@@ -7065,7 +8187,7 @@
       <c r="L126" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="M126" s="4" t="s">
+      <c r="M126" s="5" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7355,7 +8477,7 @@
       <c r="L136" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="M136" s="4" t="s">
+      <c r="M136" s="5" t="s">
         <v>685</v>
       </c>
     </row>
@@ -7456,7 +8578,7 @@
       <c r="L140" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="M140" s="4" t="s">
+      <c r="M140" s="5" t="s">
         <v>703</v>
       </c>
     </row>
@@ -7494,7 +8616,7 @@
       <c r="L141" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="M141" s="4" t="s">
+      <c r="M141" s="5" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7570,7 +8692,7 @@
       <c r="L143" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="M143" s="4" t="s">
+      <c r="M143" s="5" t="s">
         <v>725</v>
       </c>
     </row>
@@ -7608,7 +8730,7 @@
       <c r="L144" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="M144" s="4" t="s">
+      <c r="M144" s="5" t="s">
         <v>731</v>
       </c>
     </row>
@@ -7887,7 +9009,7 @@
       <c r="L153" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="M153" s="4" t="s">
+      <c r="M153" s="5" t="s">
         <v>774</v>
       </c>
     </row>
@@ -8056,7 +9178,7 @@
       <c r="J158" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="K158" s="5" t="s">
+      <c r="K158" s="4" t="s">
         <v>799</v>
       </c>
       <c r="L158" s="0" t="s">
@@ -8207,7 +9329,7 @@
       <c r="L163" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="M163" s="4" t="s">
+      <c r="M163" s="5" t="s">
         <v>824</v>
       </c>
     </row>
@@ -8248,7 +9370,7 @@
       <c r="L164" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="M164" s="4" t="s">
+      <c r="M164" s="5" t="s">
         <v>830</v>
       </c>
     </row>
@@ -8330,7 +9452,7 @@
       <c r="L166" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="M166" s="4" t="s">
+      <c r="M166" s="5" t="s">
         <v>843</v>
       </c>
     </row>
@@ -8371,7 +9493,7 @@
       <c r="L167" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="M167" s="4" t="s">
+      <c r="M167" s="5" t="s">
         <v>848</v>
       </c>
     </row>
@@ -8453,7 +9575,7 @@
       <c r="L169" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="M169" s="4" t="s">
+      <c r="M169" s="5" t="s">
         <v>860</v>
       </c>
     </row>
@@ -8560,6 +9682,12 @@
       <c r="C173" s="0" t="s">
         <v>878</v>
       </c>
+      <c r="D173" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
@@ -8580,77 +9708,2713 @@
       <c r="F174" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="G174" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I174" s="0" t="s">
-        <v>46</v>
+      <c r="G174" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>9783836569507</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>468</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>46</v>
+        <v>882</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>46</v>
+        <v>883</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>46</v>
+        <v>884</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>46</v>
+        <v>885</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>882</v>
+      <c r="A175" s="6" t="s">
+        <v>876</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>882</v>
+        <v>46</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="G175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="H175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="I175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="J175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="K175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="L175" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="M175" s="0" t="s">
-        <v>882</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>578</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="L176" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="M176" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>9780593446157</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="J178" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="L178" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>9780806974880</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="J180" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="L180" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="M180" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>9780670890934</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="L182" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="M182" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>9780374117269</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="L184" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="M184" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>9781577153412</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J186" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="L186" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="M186" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>9780375508325</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="L188" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="M188" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>9780345409461</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="L189" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="M189" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>9780804190114</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="L191" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="M191" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H193" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="J193" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="K193" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="L193" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="M193" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>9781594202407</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="J195" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="K195" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="L195" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M195" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>9781613747964</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J197" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="K197" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="L197" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="M197" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>9780061231896</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J199" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="K199" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="L199" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="M199" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>9780954311544</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J201" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="K201" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="L201" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="M201" s="0" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>9781565239968</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="J203" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L203" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M203" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>9783791347882</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="J205" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K205" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L205" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M205" s="0" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H207" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J207" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K207" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L207" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M207" s="0" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>9780465067107</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J209" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K209" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L209" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M209" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>9780823014132</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="J211" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L211" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M211" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>9781607748205</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J213" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L213" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M213" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>9781783298167</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="J215" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K215" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L215" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M215" s="0" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>9780736444842</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J217" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K217" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L217" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M217" s="0" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>9780312412678</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>669</v>
+      </c>
+      <c r="J219" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K219" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L219" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M219" s="0" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>9780345501295</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J221" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K221" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L221" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M221" s="5" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>9781419707742</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="J222" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L222" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H224" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="J224" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K224" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L224" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M224" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H226" s="5" t="n">
+        <v>9781633221376</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J226" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K226" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L226" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M226" s="0" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>9781440320620</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="J228" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L228" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M228" s="0" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>9781848378421</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L230" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M230" s="0" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>9781581807592</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J232" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K232" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L232" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M232" s="0" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>9781936096992</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="J234" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K234" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L234" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M234" s="0" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>9780823050369</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="J235" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K235" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L235" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M235" s="0" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>9780385344630</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J237" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K237" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L237" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M237" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>1943</v>
+      </c>
+      <c r="H239" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J239" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K239" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L239" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M239" s="0" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>9780823032594</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L241" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M241" s="0" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>9780764133107</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K243" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L243" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M243" s="0" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>9780571202287</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K245" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L245" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H247" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>957</v>
+      </c>
+      <c r="J247" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K247" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L247" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M247" s="0" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>1611</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>9789897783616</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>1590</v>
+      </c>
+      <c r="J248" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K248" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L248" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M248" s="0" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>9780310902713</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>1213</v>
+      </c>
+      <c r="J249" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K249" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L249" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M249" s="0" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>9780738749457</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="J250" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K250" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L250" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H252" s="0" t="n">
+        <v>9780385418867</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L252" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M252" s="0" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>9780691017846</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="J253" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K253" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L253" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M253" s="5" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>9780140367164</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="J255" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K255" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L255" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M255" s="0" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>9781786647634</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="J257" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K257" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L257" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M257" s="0" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H258" s="0" t="n">
+        <v>9780857758217</v>
+      </c>
+      <c r="I258" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J258" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K258" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L258" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M258" s="0" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H259" s="5" t="n">
+        <v>9781787552975</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="J259" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K259" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L259" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H261" s="5" t="n">
+        <v>9781564148643</v>
+      </c>
+      <c r="I261" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="J261" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K261" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L261" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L262" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M262" s="0" t="s">
+        <v>1262</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1" display="https://archive.org/details/isbn_9780312416546/page/n1515/mode/2up"/>
-    <hyperlink ref="M11" r:id="rId2" display="https://archive.org/details/stormingrealitys0000unse"/>
-    <hyperlink ref="M12" r:id="rId3" display="https://www.isfdb.org/cgi-bin/pl.cgi?40864"/>
+    <hyperlink ref="M8" r:id="rId1" display="Edited by Gardner, Lawn, Ridl, &amp; Schakel | &lt;a href=”https://archive.org/details/isbn_9780312416546/page/n1515/mode/2up”&gt;Archive&lt;/a&gt;"/>
+    <hyperlink ref="M11" r:id="rId2" display="Edited by Larry McCaffery.  This collection of fictions by well-known contemporary writers and critical commentary by postmodern theorists addresses issues concerning how cyberpunk functions within postmodern culture.[1] This casebook became the criterion for promoting the interaction between the genre of science fiction and the literary avant-garde.  &lt;a href=”https://www.jstor.org/stable/j.ctv1168ch3”&gt;Duke University Press&lt;/a&gt; | &lt;a href=”https://archive.org/details/stormingrealitys0000unse”&gt;Archive&lt;/a&gt;"/>
+    <hyperlink ref="M12" r:id="rId3" display="Edited by Isaac Asimov and Martin H. Greenberg  &lt;a href=”https://www.isfdb.org/cgi-bin/pl.cgi?40864”&gt;ISFDB&lt;/a&gt;"/>
     <hyperlink ref="J15" r:id="rId4" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1404613595i/13.jpg"/>
-    <hyperlink ref="M21" r:id="rId5" display="https://archive.org/details/harvestofstars0000ande"/>
+    <hyperlink ref="M21" r:id="rId5" display="To save Earth from the crushing grip of totalitarianism, Kyra Davis journeys from the planet's rebel enclaves to the decadence of a lunar colony to a new world threatened by a dying star as she seeks to rescue the leader of Earth's last refuge of freedom. Reprint.  &lt;a href=”https://archive.org/details/harvestofstars0000ande”&gt;Archive&lt;/a&gt;"/>
     <hyperlink ref="L56" r:id="rId6" display="https://www.goodreads.com/book/show/35816.2061?from_search=true&amp;from_srp=true&amp;qid=jAWaoqiZzb&amp;rank=1"/>
     <hyperlink ref="L106" r:id="rId7" display="https://www.goodreads.com/book/show/59924.The_Lathe_of_Heaven?from_search=true&amp;from_srp=true&amp;qid=347YPR7pXU&amp;rank=1"/>
     <hyperlink ref="L107" r:id="rId8" display="https://www.goodreads.com/book/show/13591878-the-unreal-and-the-real?ref=nav_sb_ss_1_28"/>
-    <hyperlink ref="K158" r:id="rId9" display="https://en.wikipedia.org/wiki/The"/>
+    <hyperlink ref="K158" r:id="rId9" display="https://en.wikipedia.org/wiki/The_War_of_the_Worlds"/>
+    <hyperlink ref="M178" r:id="rId10" display="https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/"/>
+    <hyperlink ref="K213" r:id="rId11" display="https://www.penguinrandomhouse.com/books/247692/crap-taxidermy-by-kat-su/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/book_library.xlsx
+++ b/book_library.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1798">
   <si>
     <t xml:space="preserve">shelf</t>
   </si>
@@ -2792,36 +2792,9 @@
     <t xml:space="preserve">https://www.goodreads.com/en/book/show/208894905-the-memory-palace</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://thememorypalace.us/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A vivid collection of surprising true stories that brings to life long-forgotten icons, heroes who never got their due, and ordinary people who never made it to the history books, from the creator of the popular podcast The Memory Palace. What was Dreamland, Brooklyn's most popular attraction, like before it burned down? Whatever happened to Shipwreck Kelly? What were the glistening orbs John Glenn saw from his capsule on his first trip to space? For more than a decade, Nate DiMeo has brought the big and small of American history to life in The Memory Palace, a podcast of crystalline short stories that are all completely true. In this beautifully designed collection, where DiMeo takes advantage of the visual form of a book by creating striking juxtapositions between images and text, he gathers the best of the show and adds brand-new stories exclusive to the book, which especially take their inspiration from photographs and the emergence of photography. The collection adds up to a unique take on the past that asks what gets to count as history in the first place, draws deep meaning from forgotten lives, and often dives into past crazes and the sometimes humorous and sometimes devastating fact that what or who is popular in one moment can become a barely remembered curiosity in the next. He resurrects stories that deserve to be memorialized, like that of the Surfmen of the Outer Banks who saved countless sailors' lives and the workers who risked theirs daily to dig the base of the Brooklyn Bridge.  Each one of these poignant, vivid stories brings the past completely alive with the potential to shift our perspectives on the world today and to send readers out searching for all of the hidden stories it contains, just beyond the surface.</t>
-    </r>
+    <t xml:space="preserve">https://thememorypalace.us/
+https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/
+A vivid collection of surprising true stories that brings to life long-forgotten icons, heroes who never got their due, and ordinary people who never made it to the history books, from the creator of the popular podcast The Memory Palace. What was Dreamland, Brooklyn's most popular attraction, like before it burned down? Whatever happened to Shipwreck Kelly? What were the glistening orbs John Glenn saw from his capsule on his first trip to space? For more than a decade, Nate DiMeo has brought the big and small of American history to life in The Memory Palace, a podcast of crystalline short stories that are all completely true. In this beautifully designed collection, where DiMeo takes advantage of the visual form of a book by creating striking juxtapositions between images and text, he gathers the best of the show and adds brand-new stories exclusive to the book, which especially take their inspiration from photographs and the emergence of photography. The collection adds up to a unique take on the past that asks what gets to count as history in the first place, draws deep meaning from forgotten lives, and often dives into past crazes and the sometimes humorous and sometimes devastating fact that what or who is popular in one moment can become a barely remembered curiosity in the next. He resurrects stories that deserve to be memorialized, like that of the Surfmen of the Outer Banks who saved countless sailors' lives and the workers who risked theirs daily to dig the base of the Brooklyn Bridge.  Each one of these poignant, vivid stories brings the past completely alive with the potential to shift our perspectives on the world today and to send readers out searching for all of the hidden stories it contains, just beyond the surface.</t>
   </si>
   <si>
     <t xml:space="preserve">elias_thomas_dykeman_peter</t>
@@ -3910,6 +3883,1656 @@
   <si>
     <t xml:space="preserve">Creating Circles and Ceremonies is the accumulation of decades of circles, ceremonies, rituals, Mystery plays, initiations, rites of passage, and other magickal workings co-created by the Zell-Ravenhearts, today's foremost Wizard/Witch couple. For more than 30 years, Oberon and Morning Glory have traveled widely throughout the worldwide magickal community--participating in gatherings, conducting workshops, and creating rituals for groups large and small. They have met and made Magick with the leaders of many traditions: Celtic Shamanism, British Dianic, Italian Strega, Welsh Witchcraft, Faerie Trad, Ceremonial Magick, Ozark Druidry, the New Reformed Order of the Golden Dawn (NROOGD), Hinduism, Native American tribes, Greek and Egyptian mythology, and the futuristic Church of All Worlds.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poetry-Plays-Essays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various_authors_poetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">826michivan_volume_vii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 826michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus Volume VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-9966315-0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2j6dbq0eux0bg.cloudfront.net/images/34907054/1606366253.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://826national.org/student-book/ombinbus-vol-vii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onwardrobots.com/OMNIBUS-c58462115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each year, 826michigan puts out the OMNIBUS, a collection of the best of the best of the best student work from all of our programs. Volume 7 features work from the summer of 2014 and the 2014-15 school year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagist_poetry_anthology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagist Poetry, an Anthology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-486-40875-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/81GPJb74ZiL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/375276.Imagist_Poetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Bob Blaisdell.
+Many of the 20th century's most important and influential poets rallied under the banner of Imagism, a radical poetic movement that extended the frontiers of English literature. By following a strict set of principles — including direct treatment of the subject, minimal use of adjectives, precision of language, and the development of an individual rhythmic style — the Imagists created dazzling works of gemlike appeal.
+This volume contains over 180 well-chosen Imagist masterpieces by Erza Pound, D. H. Lawrence, H. D. (Hilda Doolittle), James Joyce, Wallace Stevens, William Carlos Williams, and other masters. Its roster of lesser-known poets features Richard Aldington, Walter Conrad Arensberg, Skipworth Cannéll, Adelaide Crapsey, John Gould Fletcher, and many others.
+Several of these poems appeared first in books by the represented poets and in the very first Imagist anthologies; others were published in such journals as Poetry, The Dial, The Trend, and The Egoist. Carefully chosen for their individual poetic strengths as well as their characteristic illustration of Imagism, these verses represent the very best of thousands of "imagistic" verses published from 1913 to 1922.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segull_reader_poems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Second Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-0-393-93093-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/61kVNFJOdbL._SY445_SX342_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Seagull-Reader-Poems-Second/dp/0393930939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/71059690-the-seagull-reader---poems?from_search=true&amp;from_srp=true&amp;qid=0RXtiGhi0c&amp;rank=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Joseph Kelly
+Less than half the price of full-length anthologies and more economical than most value editions, The Seagull Readers are a portable and inexpensive alternative to bulky anthologies. Each volume offers an inviting mix of classics and less familiar pieces, complemented by concise genre introductions, short headnotes and annotations, brief author biographies, and a glossary of terms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william_gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shelved in Fiction with the other William Gibson).
+William Gibson is known primarily as a novelist, with his work ranging from his groundbreaking first novel, Neuromancer , to his more recent contemporary bestsellers Pattern Recognition, Spook Country , and Zero History . During those nearly thirty years, though, Gibson has been sought out by widely varying publications for his insights into contemporary culture. Wired magazine sent him to Singapore to report on one of the world's most buttoned-up states. The New York Times Magazine asked him to describe what was wrong with the Internet. Rolling Stone published his essay on the ways our lives are all "soundtracked" by the music and the culture around us. And in a speech at the 2010 Book Expo, he memorably described the interactive relationship between writer and reader. These essays and articles have never been collected-until now. Some have never appeared in print at all. In addition, Distrust That Particular Flavor includes journalism from small publishers, online sources, and magazines no longer in existence. This volume will be essential reading for any lover of William Gibson's novels. Distrust That Particular Flavor offers readers a privileged view into the mind of a writer whose thinking has shaped not only a generation of writers but our entire culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moliere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moliere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tartuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tartuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/71etpbReOnL._SL1360_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Tartuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/52823.Tartuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condemned and banned for five years in Molière’s day, Tartuffe is a satire on religious hypocrisy. Tartuffe worms his way into Orgon’s household, blinding the master of the house with his religious "devotion," and almost succeeds in his attempts to seduce his wife and disinherit his children before the final unmasking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platos_republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1386925655i/30289.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Republic_(Plato)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30289.The_Republic?from_search=true&amp;from_srp=true&amp;qid=wpVF4w9YeU&amp;rank=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented in the form of a dialogue between Socrates and three different interlocutors, this classic text is an enquiry into the notion of a perfect community and the ideal individual within it. During the conversation, other questions are raised: what is goodness?; what is reality?; and what is knowledge? The Republic also addresses the purpose of education and the role of both women and men as guardians of the people. With remarkable lucidity and deft use of allegory, Plato arrives at a depiction of a state bound by harmony and ruled by philosopher kings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simon_neil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon, Neil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odd_couple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Odd Couple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347953468i/450573.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Odd_Couple_(play)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/450573.The_Odd_Couple?from_search=true&amp;from_srp=true&amp;qid=jdRUq7gBUN&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy / 6m, 2f / Int. This classic comedy opens as a group of the guys assembled for cards in the apartment of divorced Oscar Madison. And if the mess is any indication, it's no wonder that his wife left him. Late to arrive is Felix Unger who has just been separated from his wife. Fastidious, depressed and none too tense, Felix seems suicidal, but as the action unfolds Oscar becomes the one with murder on his mind when the clean-freak and the slob ultimately decide to room together with hilarious results as The Odd Couple is born.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White, E. B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essays_of_eb_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essays of E. B. White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/71N+l1rQOqL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/E._B._White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/394616.Essays_of_E_B_White?from_search=true&amp;from_srp=true&amp;qid=OCkCy03T3V&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Some of the finest examples of contemporary, genuinely American prose. White's style incorporates eloquence without affection, profundity without pomposity, and wit without frivolity or hostility. Like his predecessors Thoreau and Twain, White's creative, humane, and graceful perceptions are an education for the sensibilities."  —  Washington Post The classic collection by one of the greatest essayists of our time. Selected by E.B. White himself, the essays in this volume span a lifetime of writing and a body of work without peer.  "I have chosen the ones that have amused me in the rereading," he writes in the Foreword, "alone with a few that seemed to have the odor of durability clinging to them." These essays are incomparable; this is a volume to treasure and savor at one's leisure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whitman_walt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitman, Walt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaves_of_grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaves of Grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1657675117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/91BcmmDmgAL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Leaves_of_Grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/27494.Leaves_of_Grass?from_search=true&amp;from_srp=true&amp;qid=K41LJqL6Jy&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of quintessentially American poems, the seminal work of one of the most influential writers of the nineteenth century.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comics-Manga-Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various_authors_comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000_ad_vol_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best of 2000 AD – Volume 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1654100065i/60321147.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/2000_AD_(comics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/60321147-best-of-2000-ad-volume-1?from_search=true&amp;from_srp=true&amp;qid=zRTBqc8ORt&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best of 2000 AD is a landmark series from the cult comic, bursting with our greatest stories for a new generation of readers.
+Every Best of 2000 AD contains a mix of modern classics and gems from the vault. In each edition you'll find an explosive new Judge Dredd adventure, fresh essays by prominent popular culture writers, a graphic novel-length feature presentation by global legends and a vintage Dredd case.
+In this volume: Judge Dredd battles Mutie Block anarchy; Halo Jones escapes in Alan Moore’s first masterpiece; humanity is on the Brink in the space murder mystery from Dan Abnett and INJ Culbard; Judge Anderson takes centre stage in the search for Shamballa.
+Boasting brand new covers from an all-star line-up of artists including Jamie McKelvie (The Wicked + The Divine) and Karl Kerschl (Gotham Academy) with designer Tom Muller (X-Men), Best of 2000 AD is the essential gateway into the Galaxy’s Greatest Comic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book_fuligin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of Fuligin - A Sequential Anthology of Urth and Sky - Written and drawn in the darkest of inks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DM4CGF1Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1725636753i/218556361.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/218556361-book-of-fuligin?from_search=true&amp;from_srp=true&amp;qid=zHbvpNoWUz&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirelessly worked on over the past 2 years, Book of Fuligin is the brainchild behind editor and contributor Ramón Perales Cano. Nearly 40 creators have come together to tell stories honoring Gene Wolfe's The Book of the New Sun and celebrating his genre-defining legacy.
+Spanning the length of 250 or so pages, Book of Fuligin brings together creators from all across the globe to celebrate the legendary author.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fafhrd_gray_mouser_omnibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fafhrd and the Gray Mouser Omnibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1667778906i/63091727.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/63091727-fafhrd-and-the-gray-mouser-omnibus?from_search=true&amp;from_srp=true&amp;qid=fxUpDQoVFL&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz Leiber, Chaykin, Mignola, Williamson
+Collected here are adaptations of some of the finest of these tales--including the Hugo and Nebula Award winning "Ill Met in Lankhmar"--by comics legends Howard Chaykin, Mike Mignola, Dennis O'Neil, Al Williamson, and more. Join the hulking barbarian and the diminutive rogue as they battle swordsmen, necromancers, and flagons of strong drink!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halo_graphic_novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halo Graphic Novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1424146334i/136180.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Halo_Graphic_Novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/136180.The_Halo_Graphic_Novel?from_search=true&amp;from_srp=true&amp;qid=NIJ68skp2Y&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvel and Bungie team up to create The Halo Graphic Novel HC based on the best-selling video game. The graphic novel brings the Halo universe to life for the first time in the sequential art medium in a 128-page, full color, high quality, jacketed, hardcover graphic novel. Stories include: "Last Voyage of the Infinite Succor" by Simon Bisley and Lee Hammock. When communications from a Covenant agricultural support ship are mysteriously terminated, an Elite Commander and his squad of Special Forces are sent to investigate. In "Armor Testing" by Ed Lee and Jay Faerber, the only way to test Spartan armor, is to send a Spartan. The question is what's really being tested? In Tsutomo Nihei's "Breaking Quarantine," the untold tale of Sergeant Johnson's escape from the clutches of the Flood menace is revealed! Finally, Moebius and Brett Lewis' "Second Sunrise Over New Mombasa" tells of the subtler, more dangerous fights taking place on the streets of New Mombasa and in the hearts and minds of men. Cover by Phil Hale. Gallery art created a number of elite artists including Rick Berry, Geof Darrow, Scott Fischer, Sterling Hundley, Craig Mullins, George Pratt, Juan Ramirez, George Staples, Justin Sweet, John Van Fleet and Kent Williams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thrilling_adventrue_hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thrilling Adventure Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1371552862i/17691605.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Thrilling_Adventure_Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17691605-the-thrilling-adventure-hour?ref=nav_sb_ss_1_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the popular Hollywood stage show and Nerdist Industry podcast, The Thrilling Adventure Hour is a rip-roaring adventure anthology in the tradition of old-time radio serials, brought to you by a carnival of Hollywood and comic's finest! In a timeless collection of original genre tales that harken back to the heyday of old-time radio entertainment, The Thrilling Adventure Hour brings to life the wild and wonderful worlds and characters serialized on stage by co-creators Ben Acker and Ben Blacker, and performed regularly by fan-favorite actors and comedians such as Paul F. Tompkins, Paget Brewster, Busy Philipps, Nathan Fillion, Linda Cardellini, Patton Oswalt, Neil Patrick Harris, and many, many more. And now those serialized characters will come to life on the pages of this hardcover anthology featuring all-new stories from the worlds of the TAH universe by top artists from the comics community! Each stand-alone tale celebrates and reinvigorates a new genre from the radio comedies of yesteryear, including science fiction, fantasy, westerns, superheroes, horror, war dramas, and many more. A unique, timey-wimey blend of silver age pulp and post-modern pop, this one-of-a-kind anthology promises something for everyone as this cult phenomenon jumps off the proscenium stage and onto the page for the first time in over eight years and 100+ consecutive shows around the globe!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9monkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9Monkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hands_9monkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Issue #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.squarespace-cdn.com/content/v1/5abf3036cef3724577794909/1690387195966-NX89MDD0C7BET6WEHGPR/HANDScomic_COVER.png?format=500w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.4mrbarry.com/shop/hands-issue-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first 26 pages of my Graphic Novel. This is a taste of whats to come in terms of quality of the art and detail I want to bring to every page. A passion project inspired by myself getting sick at the beginning of the year and unable to work while the topic of AI was obsessed over and caused me to question what even the point is to all of this. I’m hoping to experiment with this one, and that what I try sticks the landing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battista_giovanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battista, Giovanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piranesi_battista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1430799356i/25482916.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Giovanni_Battista_Piranesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/25482916-giovanni-battista-piranesi?from_search=true&amp;from_srp=true&amp;qid=4uCBB0qex0&amp;rank=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The great 18th century architectural artist and master engraver "Piranesi was as savage as Salvator Rosa, fierce as Michelangelo, and exuberant as Rubens+ he has imagined scenes that would startle geometry and exhaust the Indies to realize." --Horace Walpole
+One the greatest architectural artists of all time, and certainly the most famous copper engraver of the 18th century, Giovanni Battista Piranesi (1720-1778) is most known for his terrifyingly original series of etchings of labyrinthine and megalomaniac prisons, Carceri d'Invenzione. In his own day, he was most celebrated for his Vedute, 137 etchings of ancient and modern Rome; so renowned were these startling and dramatic chiaroscuro images, imbued with Piranesi's romantic feeling for archaeological ruins, that they formed the mental picture of Rome for generations after. Indeed, Piranesi could be said to have shaped a whole strain of contemporary architecture, as well as the wider visualization of antiquity itself. In our time, he has had a direct influence on writers such as Borges and Kafka and on filmmakers such as Terry Gilliam and Peter Greenaway. Anyone who contemplates Piranesi's etchings will confront the existential nightmare of human existence and its infinite mysteries+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaing_doug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaing, Doug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robota_chaing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1440685276i/287090.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Robota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/287090.Robota?from_search=true&amp;from_srp=true&amp;qid=FRqaWwDuSZ&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy award winning artist Doug Chiang and best-selling sci-fi author Orson Scott Card join forces for an extraordinary publishing adventure: Robota. An original illustrated science fiction novel, Robota follows the fortunes of a strangely powerful amnesiac named Caps as he navigates an ancient, decaying world in which a dwindling human population battles a society of merciless robot warriors. Aided by talking animals and stalked by terrifying hunter robots, Caps slowly rises to fulfill an awesome destiny. Integrating word and image, Card's masterful storytelling is interwoven with 75 pieces of Chiang's wildly imagined, meticulously rendered art. Packaged in a dramatic metallic case, this unusual and powerful collaboration is tailor-made to thrill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craig_wes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig, Wes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issues 1-5 - Book 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya Book 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1683876498i/62806739.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://imagecomics.com/comics/series/kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/62806739-kaya-vol-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya, a young girl with a magic arm and a fighting spirit is tasked with delivering her little brother to a far away safe harbor. There he’s destined to find the answer to overthrowing the all-powerful empire that destroyed their home. Starting out on their journey, they’ll face lizard-riders, monstrous beasts, and secrets that could tear brother and sister apart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crom_daniel_freedman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crom - Daniel Freedman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birdking_volume_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birdking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birdking – Vol 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1652698660i/60465266.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.darkhorse.com/Books/3008-782/Birdking-Volume-1-TPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/60465266-birdking-volume-1?ref=nav_sb_noss_l_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bianca, teenage apprentice to an infamous arcane blacksmith, is forced to flee her homeland and seek out Atlas, a fabled land of light ruled by “the clean god.” She is joined by a mysterious guardian spirit known only as the “BirdKing”. Together they will have to overcome dozens of enemies to reach Atlas and along the way, unravel the mystery of the BirdKing and their ancestral connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deligdisch_peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deligdisch, Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayfever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayfever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B07L51BLQG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1544201950i/43168762.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/OSwULM9m3Tw?si=yAjTlRo83lF7ucyF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/43168762-dayfever?from_search=true&amp;from_srp=true&amp;qid=l4GxC1Rj06&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 pages of beautifully illustrated adventure that takes you wherever you want to go. Packed full of intricate, twisting lines and stories, sometimes starting and ending in the same place, sometimes trailing on and on for centuries. Find yourself lost in a world of abstractions and vague intensities. Buy this comic book. Black and white drawings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1480459383i/32686477.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Archangel_(Gibson_comic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/32686477-archangel?from_search=true&amp;from_srp=true&amp;qid=Meov81qeO5&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science Fiction Superstar William Gibson's first graphic novel! The U.S. political leaders of 2016 abandon the radioactive planet they ve destroyed and harness the power of humanity s last hope: The Splitter, a colossal machine designed to manufacture a bright new reality for them to infiltrate and corrupt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graham_brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graham, Brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophet_vol1_remission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prophet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prophet Vol. 1: Remission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1607066118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/81WDwFuHiRL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Prophet_(character)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/15770131-prophet-volume-1?from_search=true&amp;from_srp=true&amp;qid=BcLHvZYFEE&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On distant future Earth, changed by time and alien influence, John Prophet awakes from cryosleep. His mission: to climb the the towers of Thauili Van and restart the Earth empire. News of the Empire's return brings old foes and allies out of the recesses of the vast cosmos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ito_junji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ito, Junji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1473607428i/29632242.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Tomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/29632242-tomie?ref=nav_sb_ss_1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomie Kawakami is a femme fatale with long black hair and a beauty mark just under her left eye. She can seduce nearly any man, and drive them to murder as well, even though the victim is often Tomie herself. While one lover seeks to keep her for himself, another grows terrified of the immortal succubus. But soon they realize that no matter how many times they kill her, the world will never be free of Tomie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uzumaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzumaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1476677569i/17837762.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Uzumaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17837762-uzumaki?from_search=true&amp;from_srp=true&amp;qid=sZ5jOcNDWP&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurouzu-cho, a small fogbound town on the coast of Japan, is cursed. According to Shuichi Saito, the withdrawn boyfriend of teenager Kirie Goshima, their town is haunted not by a person or being but by a pattern: uzumaki, the spiral — the hypnotic secret shape of the world. This bizarre masterpiece of horror manga is now available in a single volume. Fall into a whirlpool of terror!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1550552222i/22716175.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Gyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22716175-gyo?ref=nav_sb_ss_1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The floating smell of death hangs over the island. What is it? A strange, legged fish appears on the scene... So begins Tadashi and Kaori's spiral into the horror and stench of the sea. Here is the creepiest masterpiece of horror manga ever from the creator of Uzumaki, Junji Ito. Hold your breath until all is revealed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1596417996i/51323375.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Remina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/51323375-remina?ref=nav_sb_ss_1_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unknown planet emerges from inside a wormhole, and its discoverer, Dr. Oguro, christens the celestial body "Remina" after his own daughter. His finding is met with great fanfare, and Remina herself rises to fame. However, the planet picks up speed as it moves along in its curious orbit, eliminating planets and stars one after another until finally Earth itself faces extinction… Is the girl Remina the true cause of the catastrophe? A masterwork of horror from Junji Ito, unfolding on a universal scale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1618758747i/55711440.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Sensor_(manga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/55711440-sensor?ref=nav_sb_ss_1_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A woman walks alone at the foot of Mount Sengoku. A man appears, saying he’s been waiting for her, and invites her to a nearby village. Surprisingly, the village is covered in hairlike volcanic glass fibers, all shining a bright gold. That night, as the villagers gaze up at the starry sky, countless unidentified flying objects come raining down on them—the opening act for the terror about to occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jemisinn_nk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemisinn, N.K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">far_sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIN: B0DM29GSRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1639593474i/54197207.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Far_Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/54197207-far-sector?ref=nav_sb_ss_1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Jamal Campbell, artist)
+For the past six months, newly chosen Green Lantern Sojourner "Jo" Mullein has been protecting the City Enduring, a massive metropolis of 20 billion people. The city has maintained peace for over 500 years by stripping its citizens of their ability to feel. As a result, violent crime is virtually unheard of, and murder is nonexistent.
+But that's all about to change in this new maxiseries that gives a DC Young Animal spin to the legacy of the Green Lanterns!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jodorowsky_alajandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodorowsky, Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabarons_first_cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabarons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Metabarons – First Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1612105029i/55711102.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Metabarons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/55711102-the-metabarons?ref=nav_sb_ss_1_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Metabarons chronicles the fascinating dynasty of the ultimate warrior. This collection introduces the history of the Metabarons and reveals the origins of their deep-seated principles, their vast wealth, their cybernetic implants, and their most brutal custom: that the only way for a son to become the next Metabaron is to slay his own father in mortal combat. Follow generations of Metabarons as they struggle to overcome the forces amassed against them in a galaxy corrupted by greed, power, and terror.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keatinge_del_duca_gieni_brisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keatinge, Del Duca, Gieni, Brisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutter_volume1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutter - Volume 1 – Wanderlost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1419270968i/23093369.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simonandschuster.com/books/Shutter-Volume-1-Wanderlost/Leila-del-Duca/9781632151452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/23093369-shutter-vol-1?from_search=true&amp;from_srp=true&amp;qid=lgSX1ZQIC4&amp;rank=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIANA JONES FOR THE 21st CENTURY! Marvel Knights: Hulk and Glory writer Joe Keatinge teams up with artist extraordinaire Leila del Duca for her Image Comics debut in an all-new ongoing series combining the urban fantasy of Fables and the globe-spanning adventure of Y: The Last Man. Kate Kristopher, once the most famous explorer of an Earth far more fantastic than the one we know, is forced to return to the adventurous life she left behind when a family secret threatens to destroy everything she spent her life protecting. Collects Shutter #1-6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemier_jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemier, Jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sentient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1573581002i/48734095.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Jeff_Lemire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/48734095-sentient?from_search=true&amp;from_srp=true&amp;qid=s7xmwG0vkq&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Eisner Award-winners Jeff Lemire (Black Hammer) and Gabriel Walta (The Vision). When an attack kills the adults on a colony ship, the on-board A.I. VALERIE must help the ship’s children survive the perils of space. Can Valerie rise to the task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masamune_shirow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masamune, Shirow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghost_shell_fully_compiled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ghost in the Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully Compiled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 to 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1664250317i/61194879.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Ghost_in_the_Shell_(manga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/61194879-the-ghost-in-the-shell?from_search=true&amp;from_srp=true&amp;qid=mTXjqg0xLI&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ghost in the Shell (1991)
+Deep into the twenty-first century, the line between man and machine has been blurred as humans rely on the enhancement of mechanical implants and robots are upgraded with human tissue. In this rapidly converging landscape, cyborg superagent Major Motoko Kusanagi is charged to track down the craftiest and most dangerous terrorists and cybercriminals, including "ghost hackers" who are capable of exploiting the human/machine interface and reprogramming humans to become puppets to carry out the hackers' criminal ends.
+The Ghost in the Shell 1.5: Human-Error Processor (2003)
+The "lost" Ghost in the Shell stories, created by Shirow Masamune after completing work on the original Ghost in the Shell manga and prior to his tour-de-force, Ghost in the Shell 2: Man-Machine Interface. Focusing on Section 9 agents in their daily battle against technocrime, Human-Error Processor. Features the stories "Fat Cat," "Drive Slave," "Mines of Mind," and "Lost Past."
+The Ghost in the Shell 2: Man-Machine Interface (2001)
+March 6, 2035. Motoko Aramaki is a hyper-advanced cyborg, a counter-terrorist Net security expert, heading the investigative department of the giant multi-national Poseidon Industrial. Partly transcending the physical world and existing in a virtual world of networks, Motoko is a fusion of multiple entities and identities, deploying remotely controlled prosthetic humanoid surrogates around the globe to investigate a series of bizarre incidents. Meanwhile, Tamaki Tamai, a psychic detective from the Channeling Agency, has been commissioned to explore strange changes in the temporal universe brought about by two forces, one represented by the teachings of a professor named Rahampol, the other by the complex, evolving Motoko entity. What unfolds will all be in a day's work—a day that will change everything, forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matsumoto_taiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matsumoto, Taiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no5_vol1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 5 - Vol. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1-9747-2076-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dw9to29mmj727.cloudfront.net/products/1974720764.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/No._5_(manga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.viz.com/manga-books/manga/no-5-volume-1/product/6746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a world where most of the earth has become a harsh desert, the Rainbow Council of the Peace Corps has a growing crisis on its hands. No. 5, one member of a team of superpowered global security guardians and a top marksman, has gone rogue. Now the other guardians have to hunt down No. 5 and his mysterious companion, Matryoshka. But why did No. 5 turn against the council, and what will it mean for the future of the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcclean_andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClean, Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head_lopper_vol1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Lopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Island or a Plague of Beasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1525347286i/30419637.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Head_Lopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30419637-head-lopper-vol-1?from_search=true&amp;from_srp=true&amp;qid=Lq4a4pa0dd&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Head Lopper, Norgal, and the nagging severed head of Agatha Blue Witch arrive on the Isle of Barra to find it overrun with beasts; minions of the Sorcerer of the Black Bog. When Queen Abigail hires Norgal and Agatha to slay the Sorcerer, our heroes trek across the island relieving the horrors of their heads - and playing right into the hands of a master manipulator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcelryos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McElroy, Clint, Griffin, Justin, and Travis &amp; Carey Pietsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adventure_zone_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Adventure Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here There Be Gerblins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1507691828i/35684941.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Adventure_Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/35684941-the-adventure-zone-vol-1?from_search=true&amp;from_srp=true&amp;qid=fFcelzh7eD&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARVEL! At the sheer metafictional chutzpah of a graphic novel based on a story created in a podcast where three dudes and their dad play a tabletop role playing game in real time!
+Join Taako the elf wizard, Merle the dwarf cleric, and Magnus the human warrior for an adventure they are poorly equipped to handle AT BEST, guided ("guided") by their snarky DM, in a graphic novel that, like the smash-hit podcast it's based on, will tickle your funny bone, tug your heartstrings, and probably pants you if you give it half a chance.
+With endearingly off-kilter storytelling from master goofballs Clint McElroy and the McElroy brothers, and vivid, adorable art by Carey Pietsch, The Adventure Zone: Here There be Gerblins is the comics equivalent of role-playing in your friend's basement at 2am, eating Cheetos and laughing your ass off as she rolls critical failure after critical failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adventure_zone_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder on the Rockport Limited!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1539399890i/41812788.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/41812788-the-adventure-zone-vol-2?from_search=true&amp;from_srp=true&amp;qid=fFcelzh7eD&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the second Adventure Zone graphic novel (adapted from the McElroy family's wildly popular D&amp;D podcast), we rejoin hero-adjacent sort-of-comrades-in-arms Taako, Magnus, and Merle on a wild careen through a D&amp;D railroad murder mystery. This installment has a little of everything: a genius child detective, an axe-wielding professional wrestler, a surly wizard, cursed magical artifacts, and a pair of meat monsters.
+You know, the usual things you find on a train.
+Hot on the heels of "The Adventure Zone: Here There Be Gerblins", the smash hit graphic novel that launched the series, "Murder on the Rockport Limited" picks up the saga where volume 1 left off. Both books are based on "The Adventure Zone," a tabletop RPG comedy podcast with downloads numbering in the tens of millions and an army of passionately devoted fans. With art and co-adaptation from Carey Pietsch, the McElroys are once again turning their raucous freewheeling D&amp;D campaign into some damn fine comics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mignola_mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mignola, Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellboy_ombnibus_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed of Destruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1506172579i/36290217.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Hellboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36290217-hellboy-omnibus-volume-1?from_search=true&amp;from_srp=true&amp;qid=pPIKxRx3pA&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story jumps from Hellboy's mysterious World War II origin to his 1994 confrontation with the man who summoned him to earth, and the earliest signs of the plague of frogs. Avoiding his supposed fate as the herald of the end of the world, Hellboy continues with the Bureau for Paranormal Research and Defense, fighting alongside Abe Sapien, Liz Sherman, and drafting Roger Homunculus into his own ill-fated service with the B.P.R.D. This 368-page volume covers Hellboy’s adventures from 1994 to 1997, reprinting Seed of Destruction, Wake the Devil, and “Wolves of St August,” “The Chained Coffin,” and “Almost Colossus,” from The Chained Coffin and The Right Hand of Doom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellboy_ombnibus_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1512569030i/36317102.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36317102-hellboy-omnibus-volume-2?ref=nav_sb_ss_2_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellboy loses faith in the Bureau for Paranormal Research and Defense when they strap a bomb to one of his fellow not-quite-human agents. He gets answers about his destiny, like it or not, in over 300 pages of comics mostly drawn by Mignola, featuring award-winning guests Gary Gianni and Richard Corben.
+The four volume Hellboy Omnibus series along with the two volumes of The Complete Short Stories collect all of Mignola's award-winning Hellboy stories in chronological order for a definitive reading experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellboy_ombnibus_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wild Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1506582904i/36317108.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36317108-hellboy-omnibus-volume-3?from_search=true&amp;from_srp=true&amp;qid=pPIKxRx3pA&amp;rank=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible powers determined to kill Hellboy force him strike a deal with the Russian witch, the Baba Yaga, and to confront the truth about his destiny. The human race hangs in the balance, as well as King Arthur's sword Excalibur, in a story that wipes England off the map and sets in motion the end of the world ...
+Mike Mignola and Duncan Fegredo's complete trilogy is collected for the first time in this 512-page volume, reprinting Darkness Calls, The Wild Hunt, and The Storm and the Fury, and the short story "The Mole."
+The four-volume Hellboy Omnibus series along with the two volumes of The Complete Short Stories collect all of Mignola's award-winning Hellboy stories in chronological order for a definitive reading experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellboy_ombnibus_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1513423421i/36317119.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36317119-hellboy-omnibus-volume-4?from_search=true&amp;from_srp=true&amp;qid=pPIKxRx3pA&amp;rank=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hellboy saga concludes, with the most ambitious chapter, Hellboy in Hell, collected in its entirety--all written and drawn by Mike Mignola.
+On the heels of Hellboy Omnibus Volume 3: The Wild Hunt, Hellboy is cast into Hell, where familiar faces reveal secrets of his origins, and previously unknown family members come forward. Hellboy forever alters the face of Hell, giving new significance to his role of Beast of the Apocalypse.
+While featuring big answers and one of the most momentous choices Hellboy's ever made, Hellboy in Hell also offers a return to the simplest and best Hellboy stories, as Hellboy roams a unique world only Mignola could present, filled with strange and magical encounters rich with the power of folklore and myth.
+The four volume Hellboy Omnibus series along with the two volumes of The Complete Short Stories collect all of Mignola's award-winning Hellboy stories in chronological order for a definitive reading experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plague_frots_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.P.R.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague of Frogs 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1403200118i/9048639.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Bureau_for_Paranormal_Research_and_Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/9048639-b-p-r-d?ref=nav_sb_ss_1_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2001, Hellboy quit the B.P.R.D., leaving Abe Sapien to lead Liz Sherman and a bizarre roster of special agents, defending the world from occult threats, including the growing menace of the frog army, first spotted in Hellboy: Seed of Destruction. Mike Mignola and Dark Horse present the complete Plague of Frogs saga, from Hollow Earth to The King of Fear. The first book re-establishes the Bureau for Paranormal Research and Defense after Hellboy's departure, cracks open the secrets of Abe Sapien's origin, and sets the War on Frogs in motion.Hellboy creator Mike Mignola teams with co-writers Christopher Golden (Baltimore), Geoff Johns (Blackest Night), Tom Sniegoski (Buffy the Vampire Slayer), and others for occult adventure rendered by Ryan Sook (X-Factor), Cameron Stewart (Seaguy), Scott Kolins (The Flash), and, making his Hellboy-universe debut, longtime award-winning B.P.R.D. artist Guy Davis!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miyazaki_hayao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyazaki, Hayao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shuna_journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuna's Journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1645392252i/60384799.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Shuna%27s_Journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/60384799-shuna-s-journey?from_search=true&amp;from_srp=true&amp;qid=eveRmv4Qob&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From legendary animator Hayao Miyazaki comes a new manga classic about a prince on a quest for a golden grain that would save his land, never before published in English!
+Shuna, the prince of a poor land, watches in despair as his people work themselves to death harvesting the little grain that grows there. And so, when a traveler presents him with a sample of seeds from a mysterious western land, he sets out to find the source of the golden grain, dreaming of a better life for his subjects.
+It is not long before he meets a proud girl named Thea. After freeing her from captivity, he is pursued by her enemies, and while Thea escapes north, Shuna continues toward the west, finally reaching the Land of the God-Folk.
+Will Shuna ever see Thea again? And will he make it back home from his quest for the golden grain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nausicaa_valley_wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausicaa of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1346688306i/15800525.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Nausica%C3%A4_of_the_Valley_of_the_Wind_(manga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/15800525-nausica-of-the-valley-of-the-wind?from_search=true&amp;from_srp=true&amp;qid=uysa24W3y7&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausicaä of the Valley of the Wind is an epic fantasy tale written and illustrated by legendary Studio Ghibli director Hayao Miyazaki, creator of My Neighbor Totoro, Spirited Away and Howl’s Moving Castle. A modern masterpiece, the entire series is now available in this deluxe box set containing two hardcover volumes with interior color pages and a bonus poster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moore_alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moore, Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watchmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1442239711i/472331.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Watchmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/472331.Watchmen?ref=nav_sb_ss_1_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchmen, the groundbreaking series from award-winning author Alan Moore and Dave Gibbons, presents a world where the mere presence of American superheroes changed history—the U.S. won the Vietnam War, Nixon is still president, and the Cold War is in full effect.
+Considered the greatest graphic novel in the history of the medium, the Hugo Award-winning story chronicles the fall from grace of a group of superheroes plagued by all-too-human failings. Along the way, the concept of the superhero is dissected as an unknown assassin stalks the erstwhile heroes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1509277098i/23529.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/From_Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/23529.From_Hell?from_search=true&amp;from_srp=true&amp;qid=YFLrCycviJ&amp;rank=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having proved himself peerless in the arena of reinterpreting superheroes, Alan Moore turned his ever-incisive eye to the squalid, enigmatic world of Jack the Ripper and the Whitechapel murders of 1888. Weighing in at 576 pages, From Hell is certainly the most epic of Moore's works and remarkably and is possibly his finest effort yet in a career punctuated by such glorious highlights as Watchmen and V for Vendetta. Going beyond the myriad existing theories, which range from the sublime to the ridiculous, Moore presents an ingenious take on the slaughter. His Ripper's brutal activities are the epicentre of a conspiracy involving the very heart of the British Establishment, including the Freemasons and The Royal Family. A popular claim, which is transformed through Moore's exquisite and thoroughly gripping vision, of the Ripper crimes being the womb from which the 20th century, so enmeshed in the celebrity culture of violence, received its shocking, visceral birth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">league_extaordinary_gentlemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The League of Extraordinary Gentlemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1552295653i/297627.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_League_of_Extraordinary_Gentlemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/297627.The_League_of_Extraordinary_Gentlemen_Vol_1?ref=nav_sb_ss_1_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London, 1898. The Victorian Era draws to a close and the twentieth century approaches. It is a time of great change and an age of stagnation, a period of chaste order and ignoble chaos. It is an era in need of champions.
+In this amazingly imaginative tale, literary figures from throughout time and various bodies of work are brought together to face any and all threats to Britain. Allan Quatermain, Mina Murray, Captain Nemo, Dr. Henry Jekyll and Edward Hyde and Hawley Griffin, the Invisible Man, form a remarkable legion of intellectual aptitude and physical prowess: The League of Extraordinary Gentlemen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihei_tsutomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nihei, Tsutomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blame!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997 to 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‎ 978-1942993773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/719shIU19XL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Blame!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/137944730-blame-manga-vol-1-6-complete-master-edition-6-book-set-by-tsutomu-nihei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a future version of Earth, there is a city grown so chaotically massive that its inhabitants no longer recall what "land" is. Within this megastructure the silent, stoic Kyrii is on a mission to find the Net Terminal Gene—a genetic mutation that once allowed humans to access the cybernetic NetSphere. Armed with a powerful Graviton Beam Emitter, Kyrii fends off waves of attacks from fellow humans, cyborgs and silicon-based lifeforms. Along the way, he encounters a highly-skilled scientist whose body has deteriorated from a lengthy imprisonment who promises to help Kyrii find the Net Terminal Gene, once she settles a score for herself...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1942993780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/717pvsvyWzL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Administration contacts Kyrii and Cibo, encouraging them to keep searching for the Net Terminal Gene which will stop the City from its intractable, chaotic growth. The Admin also warns them of the autonomous Safeguards, vicious entities that attempt to kill off any humans who access the Netsphere without the required Net Terminal Gene. Kyrii is attacked, and a group of humans who have settled on the outskirts of Toha Heavy Industries comes to his aid. Kyrii awakens with a newfound ability to read his surroundings, which allows him mere seconds to fend off an attacker lurking among the humans settlement. In the ensuing battle, Cibo makes a heavy sacrifice, but not before learning a startling truth about her traveling companion...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1942993797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/71IJ2aAggYL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cibo has uploaded herself into Sanakan's body, and she struggles to suppress Sanakan's consciousness and the Safeguard commands. Cibo and Kyrii continue their hunt for the Net Terminal Gene inside of Toha Heavy Industries, which appears to be a safe space where neither the Administration nor the Safeguards can interfere. Mensab is one of the few AIs who succeeded in protecting her human charges from the deadly attacks of the Silicon Life. Mensab attempts a forwarding that shunts Kyrii into an unstable space within Toha, where time and space warp at random, and he encounters a familiar face...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1942993803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/71Nmaaoy+WL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanakan attempts to destroy the Central A.I., as Mensab and her guardian knight, Seu, fight for the lives of the human residents they promised to protect. After the Central A.I. recklessly attempts to forward the whole of TOHA Heavy Industries, Kyrii and Cibo are left with a precious genetic sample from a very old human being. Wanting to test the genetic sample for signs of the Net Terminal Gene, Kyrii and Cibo make their way through an unofficial megastructure…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1942993810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/81Pwljxp91L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davine Lu is attempting to access the Netsphere within an unofficial stratum of the megastructure, where temporary access can be granted even without a Net Terminal Gene. After a fierce battle, Pcell steals Cibo's precious capsule of human genetic information and forwards it to Davine Lu. After reuniting with Kyrii, Cibo and the provisional Safeguards try to retrieve the capsule before it's too late. As Davine Lu attempts to connect to the Netsphere, the Administration slows down his connection speed to allow Cibo to give virtual chase and for Dhomochevsky to battle the Silicon Life in base reality. As a final act, Davine Lu steals high-level data and uses Cibo's body to create an unstoppable Level 9 Safeguard... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1942993827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/815b2S4Yi5L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this final installment, Kyrii, still searching for the Net Terminal Gene, traces the steps of Cibo, reincarnated as a Level 9 Safeguard, and Sanakan, now a representative of the Administration. As Sanakan guides Cibo to a safe place where her sphere can develop in peace, Cibo is captured by the Silicon Life. Sanakan contacts Kyrii requesting his help in rescuing Cibo, because in her current form she may hold the key to saving the city. Sanakan risks everything in the battle against the Silicon Life. Kyrii arrives at a critical moment, and continues his endless journey while carrying the embodiment of hope for a different future beyond the outer limits of the city...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame_noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoiSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-1647291396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/91PAVSzJ4OL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/NOiSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/624693.Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What starts as a routine investigation into a series of child kidnappings turns personal when detective Musubi Susono’s partner is viciously murdered by a fanatical cult. Stymied by her superiors and armed only with a mysterious sword, Susono must descend into the depths of her decaying city in search of answers—and what she finds will remake the world as she knows it.
+Set 3,000 years before the events of BLAME!, this dark, action-packed prequel from sci-fi visionary Tsutomu Nihei (Knights of Sidonia, Aposimz) provides a glimpse into the origins of the Safeguards and the NetSphere, while standing alone as a gritty masterpiece of cyberpunk noir. Finally back in print, NOiSE also includes Nihei’s prize-winning debut story, an early version of BLAME!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wolverine_snikt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snikt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.media-amazon.com/images/I/813z4yT3u-L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Wolverine:_Snikt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/381572.Wolverine?from_search=true&amp;from_srp=true&amp;qid=epgKU3bSir&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOLVERINE is the lone hope of the last remaining humans in a ruined dimension as they fight to survive against robotic organisms. Will he manage to save the day and keep his own humanity, or will he lose himself to the berserker rage deep inside him?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omalley_bryan_lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Malley, Bryan Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seconds_graphic_novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds: A Graphic Novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1696956527i/137250871.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Seconds_(comics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/137250871-seconds?from_search=true&amp;from_srp=true&amp;qid=BFQlccPqT8&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie’s got it pretty good. She’s a talented young chef, she runs a successful restaurant, and she has big plans to open an even better one. Then, all at once, progress on the new location bogs down, her charming ex-boyfriend pops up, her fling with another chef goes sour, and her best waitress gets badly hurt. And just like that, Katie’s life goes from pretty good to not so much. What she needs is a second chance. Everybody deserves one, after all—but they don’t come easy. Luckily for Katie, a mysterious girl appears in the middle of the night with simple instructions for a do-it-yourself 1. Write your mistake 2. Ingest one mushroom 3. Go to sleep 4. Wake anew And just like that, all the bad stuff never happened, and Katie is given another chance to get things right. She’s also got a dresser drawer full of magical mushrooms—and an irresistible urge to make her life not just good, but perfect. Too bad it’s against the rules. But Katie doesn’t care about the rules—and she’s about to discover the unintended consequences of the best intentions. From the mind and pen behind the acclaimed Scott Pilgrim series comes a madcap new tale of existential angst, everyday obstacles, young love, and ancient spirits that’s sharp-witted and tenderhearted, whimsical and wise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom_parkingson_morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkinson-Morgan, Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill_6_billion_demons_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill 6 Billion Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1470839015i/31387194.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Kill_Six_Billion_Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/31387194-kill-6-billion-demons-book-1?from_search=true&amp;from_srp=true&amp;qid=9XMRDDmdn0&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this collection of the first story arc of the popular webcomic Kill 6 Billion Demons, sorority sister Allison Ruth must travel to Throne, the ancient city at the center of the multiverse, in an epic bid to save her boyfriend from the clutches of the seven evil kings that rule creation. Includes excerpts from in-universe religious texts, stories, and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill_6_billion_demons_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielder of Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1509680587i/36525679.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36525679-kill-6-billion-demons-book-2?from_search=true&amp;from_srp=true&amp;qid=9XMRDDmdn0&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this collection of the second major arc of the popular webcomic Kill 6 Billion Demons, woefully out-of-place sorority sister Allison Ruth and angelic lawman '82 White Chain' must struggle against their own fears in a fateful clash with one of the seven evil masters of creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill_6_billion_demons_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeker of Thrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1614178220i/41217191.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/42835832-kill-6-billion-demons-vol-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkinson-Morgan/Abaddon's web comic following the further adventures of Allison, a young woman from L.A., transported to another world in a search for her boyfriend. Allison has accidentally received the godhood meant for her boyfriend (book 1) and a motley crew of angels and demons are aiding her on her quest. Book 3 finds the group getting off track and generating more enemies than friends, but ends with new resolves made and deeper understandings between the characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill_6_billion_demons_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Swords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1602971716i/55704259.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/56220014-kill-6-billion-demons-book-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this collection of the fourth chapter of the popular webcomic KILL SIX BILLION DEMONS, heir to the multiverse Allison Ruth must grapple with the limits to her own strength as she enters the world's deadliest multiversal fighting tournament in a desperate struggle against the god-king Solomon David.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pope_paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pope, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one_trick_rip_off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The One Trick Rip-Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1355363555i/15904891.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Paul_Pope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/15904891-the-one-trick-rip-off-deep-cuts?ref=nav_sb_ss_1_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young lovers Tubby and Vim want to escape - escape the mistakes they've made, the lives they've lived, and the dirty city weighing them down. Their plan is simple - all they have to do is rip-off Tubby's pals, the One Tricks, the toughest street gang in LA! If they pull it off, they're set for life. If not, their lives won't matter much anyway. What was going to be a smooth, straight-forward heist becomes a fast-paced battle to the death! From Eisner Award-winning writer/artist Paul Pope (Batman: Year 100, THB, Heavy Liquid, 100%) and presented for the first time in color by Jamie Grant (All-Star Superman), The One Trick Rip-Off is chock-full of raw power, of which over 150 pages are comprised of new, rare, and never-before-seen stories created during Pope's time traveling the world in the 90's. It's a tour de force of pure, kinetic storytelling that will keep your eyes peeled until the very last page!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roy_simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roy, Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1467912887i/30896672.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Simon_Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/30896672-habitat?from_search=true&amp;from_srp=true&amp;qid=qiaFl7pjWg&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All his life, Hank Cho wanted to join the ranks of the Habsec - the rulers of the orbital habitat his people call home. But when he finds a powerful, forbidden weapon from the deep past, a single moment of violence sets his life - and the brutal society of the habitat - into upheaval. Hunted by the cannibalistic Habsec and sheltered by former enemies, Cho finds himself caught within a civil war that threatens to destroy his world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refugium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refugium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1729446885i/220602207.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/220602207-refugium?from_search=true&amp;from_srp=true&amp;qid=JkM5uooZoZ&amp;rank=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci-fi graphic novel about a scribe and a trapper, who find themselves going up-river into the northern wilds of Altamira - in search of a monster. Featuring over a hundred pages of comic art, a 20+ page guidebook to the alien life of Altamira by Jordan k Walker , and an additional 30+ pages of alien life artwork from artists like Linnea Sterte, Callum Stephen Diggle, Jay Eaton, C. M. Kosemen, Alex Ries, Michkin Design and many more...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakurazaka_hiroshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakurazaka, Hiroshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_you_need_is_kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All You Need Is Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1513540437i/22545976.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/All_You_Need_Is_Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/22545976-all-you-need-is-kill?from_search=true&amp;from_srp=true&amp;qid=pIDEBGqW4f&amp;rank=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the alien Mimics invade, Keiji Kiriya is just one of many recruits shoved into a suit of battle armor called a Jacket and sent out to kill. Keiji dies on the battlefield, only to be reborn each morning to fight and die again and again. On his fifth iteration, he gets a message from a mysterious ally—the female soldier known as the Full Metal Bitch. Is she the key to Keiji's escape or his final death?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schmidt_KSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.kickstarter.com/assets/000/022/699/b6106c724f7a828a289e8702731aae63_original.jpg?fit=scale-down&amp;origin=ugc&amp;q=92&amp;v=1339263676&amp;width=680&amp;sig=l6KjsHwVDtUvg6p1bXUYVx2gu%2BHM5PdSG60tQdMAAvk%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kickstarter.com/projects/1226013253/ksw-a-stupid-cool-pseudo-cyberpunk-action-comedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set in a future, cyberpunk New Jersey, KSW is an action-comedy full of bad jokes, dumb fight scenes, and complex social criticisms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schrab_rob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schrab, Rob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scud_disposable_assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scud The Disposable Assassin - The Whole Shebang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1303739136i/1252669.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Scud:_The_Disposable_Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/1252669.Scud?ref=nav_sb_noss_l_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the world of Scud, bullets are cheaper than human life. Corner vending machines provide any weapon you might need. The most popular weapons are Scud disposable assassins: Robot hitmen that self-destruct when they kill their target. This volume follows Scud 1373, assigned to take out a hideous female man-eater named Jeff. While fighting the indestructible Jeff, Scud discovers his infamous warning panel in a bathroom mirror. Realizing that to kill Jeff is to kill himself, Scud blows off her arms and legs and hospitalizes her. Her life support bills will have to be paid, and Scud will have to find more work to stay alive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">singelin_guillaume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singelin, Guillaume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontier_comic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1681133887i/127808228.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Guillaume_Singelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/210619411-frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was inevitable. Our ravenous hunger for resources eventually stripped the Earth dry. Fortunately, our ambitious technology reached the point where we could turn our sights to the stars, which were full of materials to exploit. A New Frontier for a new gold rush.
+In this rustic future, three souls eke out a living: Ji-Soo, a scientist with a passion for discovery, Camina, a feisty, battle-scarred mercenary, and Alex, an asteroid miner who has never been to Earth. Through their exhausting daily lives, they each dream individual dreams, following their own road toward that horizon. But when those paths cross, those dreams change trajectory, taking them all in a direction they couldn’t have imagined. What will become of humanity when it is completely disconnected from its cradle, the Earth?
+Created by artist and author GUILLAUME SINGELIN, FRONTIER is a feature-length snapshot of life in the age of space exploration. Built on a foundation of plausible technology and scientific advancement, FRONTIER explores the new, daily challenges of life in space: from the mundane task of farming to the political strife of corporate trademark and territory claims. Life in space isn’t easy… but where else can you go?
+Told in a breathtaking visual mashup of cartoony characters within hyper-detailed and expansive environments, FRONTIER is unlike anything you’ve seen before. Described as “THE EXPANSE or FIREFLY populated by chibi manga characters,” this premium 200-page graphic novel builds a sprawling new universe that may one day come true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontier_sketchbooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontier: Sketchbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.kickstarter.com/assets/043/112/048/5a739031dc58e6f115c42bc908b96a06_original.jpg?fit=scale-down&amp;origin=ugc&amp;q=92&amp;v=1700341127&amp;width=680&amp;sig=67XiAjjOIR4aNtOTvzII91QCXVL5gG5SEE2xnuppdXE%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kickstarter.com/projects/neurobellum/frontier-by-guillaume-singelin/description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booklet of drawing by Guillaume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stalenhag_simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stålenhag, Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electric State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/en/d/d7/The_electric_state_book_cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Electric_State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/36836025-the-electric-state?from_search=true&amp;from_srp=true&amp;qid=yDcJmpJ0ax&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1997, a runaway teenager and her yellow toy robot travel west through a strange USA. The ruins of gigantic battle drones litter the countryside, heaped together with the discarded trash of a high tech consumerist society in decline. As their car approaches the edge of the continent, the world outside the window seems to be unraveling ever faster—as if somewhere beyond the horizon, the hollow core of civilization has finally caved in.
+Simon Stålenhag is the internationally acclaimed author, concept designer, and artist behind Tales from the Loop and Things from the Flood. His highly imaginative images and stories depicting illusive sci-fi phenomena in mundane, hyper-realistic Scandinavian landscapes have made Stålenhag one of the most sought-after visual storytellers in the world. In The Electric State, Stålenhag turns his unique vision to America.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labytinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Labyrinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1607931640i/55818839.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Simon_St%C3%A5lenhag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/55818839-the-labyrinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A world covered by ruins and ash, the remnants of an otherwordly phenomenon that has ravaged the earth’s atmosphere and forced the few survivors deep underground. Matt, Sigrid and Charlie leave the safe harbor of the enclave for an expedition onto the wastelands of the surface world. During their journey they are forced to confront dark secrets from the time before civilization’s fall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenning_derek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenning, Derek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ek1_born_in_concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born in Concrete - The EK Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1384159836i/17707207.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.borninconcrete.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/17707207-born-in-concrete?from_search=true&amp;from_srp=true&amp;qid=5R0xtFUWjO&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His first personal project, Born in Concrete, was undertaken to dispel his biases towards expressive art, overcome his own perceived limitations and to rejuvenate his creative spirit. This collision of Soviet inspired retro sci-fi and Jewish mystical and qabalistic symbolism has evolved into a filter, or framework, that emotions, ideas and images are pushed through to be given shape and form. This project has been well received, being featured in numerous exhibits, international publications, as well as book and album covers, It continues to unfold and expand….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ek2_lost_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EK2 - The Lost Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1676850213i/81019291.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/81019291-ek2?from_search=true&amp;from_srp=true&amp;qid=V5tITXeXAd&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Stenning’s last few years have been challenging, particularly from a personal work point of view, and a lot of this time seemed lost to him. A terminal illness in the family put him in the position of a primary caregiver. This, along with too much professional work, injury, and family duties left him burnt out, with little time for his own art.
+During these busy times he often turned back to his Entartete Kunst series to distract him from the craziness going on in his life. This art project had rejuvenated him once before with his book  Born in Concrete ; maybe it could do it again. A sketch here or there, or a painting, started to get him through a difficult spot. Few of these pieces were finished; many were begun and left, as he had no time or energy to complete them.
+Thankfully, he has had more breathing room recently, and he circled back to finish those pieces.  The Lost Years  is a collection of model kit design work and production paintings, personal commissions, and a selection of material from a resin statue project.
+He hopes, by completing this work, it will allow him—from an artistic point of view—to reclaim these lost years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van_hamme_jean_rosinski_grzegorz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Hamme, Jean &amp; Rosinski, Grzegorz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">throgal_1_child_stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorgal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child of the Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1563203822i/1875447.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en.wikipedia.org/wiki/Thorgal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/1875447.Thorgal_Vol_1?ref=nav_sb_ss_4_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the wild and inhospitable European far north, in the land of Scandinavian myth and runic legend, Viking warriors discover a child in a space capsule. Leif Haraldson adopts him and gives him the names of his gods: Thorgal Aegirsson, son of Thor (god of lightning) and son of Aegir (master of the sea). Upon Leif’s death, the Viking chief Gandalf the Insane isolates Thorgal from others. Only the friendship of Aaricia, the daughter of Gandalf, brightens Thorgal’s solitary childhood. Their mutual affection quickly turns into true love. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">venditti_robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venditti, Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surrogates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Surrogates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1427338597i/181182.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/The_Surrogates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/181182.The_Surrogates?from_search=true&amp;from_srp=true&amp;qid=xoSkl6GEkA&amp;rank=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The year is 2054, and life is reduced to a data feed. The fusing of virtual reality and cybernetics has ushered in the era of the personal surrogate, android substitutes that let users interact with the world without ever leaving their homes. It's a perfect world, and it's up to Detectives Harvey Greer and Pete Ford of the Metro Police Department to keep it that way. But to do so they’ll need to stop a techno-terrorist bent on returning society to a time when people lived their lives instead of merely experiencing them.
+The Surrogates is a story about progress and whether there exists a tipping point at which technological advancement will stop enhancing and start hindering our lives. It is also a commentary on identity, the Western obsession with physical appearance, and the growing trend to use science as a means of providing consumers with beauty on demand.
+This volume collects all five issues of the acclaimed comic book series. Packed with bonus content, inside you will find never-before-seen sketches and artwork, as well as commentary from the creative team that brought this breakout story to the page.</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -3919,8 +5542,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -3971,7 +5595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3987,7 +5611,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFB7B3CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -3999,13 +5623,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
         <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B3CA"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -4043,7 +5679,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4072,6 +5708,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4092,7 +5732,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4121,16 +5773,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFB7B3CA"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -4173,13 +5825,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B263" activeCellId="0" sqref="B263"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A329" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D330" activeCellId="0" sqref="D330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
@@ -4190,7 +5842,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="63.9"/>
   </cols>
   <sheetData>
@@ -9842,7 +11494,7 @@
       <c r="L178" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="M178" s="5" t="s">
+      <c r="M178" s="7" t="s">
         <v>902</v>
       </c>
     </row>
@@ -10347,7 +11999,7 @@
       <c r="L195" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="M195" s="7" t="s">
+      <c r="M195" s="8" t="s">
         <v>973</v>
       </c>
     </row>
@@ -10410,7 +12062,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B198" s="0" t="s">
@@ -10427,7 +12079,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B199" s="0" t="s">
@@ -10468,7 +12120,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B200" s="0" t="s">
@@ -10485,7 +12137,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B201" s="0" t="s">
@@ -10526,7 +12178,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B202" s="0" t="s">
@@ -10543,7 +12195,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B203" s="0" t="s">
@@ -10584,7 +12236,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B204" s="0" t="s">
@@ -10601,7 +12253,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B205" s="0" t="s">
@@ -10642,7 +12294,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B206" s="0" t="s">
@@ -10659,7 +12311,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B207" s="0" t="s">
@@ -10700,7 +12352,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B208" s="0" t="s">
@@ -10717,7 +12369,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B209" s="0" t="s">
@@ -10758,7 +12410,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B210" s="0" t="s">
@@ -10775,7 +12427,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B211" s="0" t="s">
@@ -10816,7 +12468,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B212" s="0" t="s">
@@ -10833,7 +12485,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B213" s="0" t="s">
@@ -11147,7 +12799,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B223" s="0" t="s">
@@ -11164,7 +12816,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B224" s="0" t="s">
@@ -11205,7 +12857,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B225" s="0" t="s">
@@ -11222,7 +12874,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B226" s="0" t="s">
@@ -11263,7 +12915,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B227" s="0" t="s">
@@ -11280,7 +12932,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B228" s="0" t="s">
@@ -11321,7 +12973,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B229" s="0" t="s">
@@ -11338,7 +12990,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B230" s="0" t="s">
@@ -11379,7 +13031,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B231" s="0" t="s">
@@ -11396,7 +13048,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B232" s="0" t="s">
@@ -11437,7 +13089,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B233" s="0" t="s">
@@ -11454,7 +13106,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B234" s="0" t="s">
@@ -11495,7 +13147,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B235" s="0" t="s">
@@ -11536,7 +13188,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B236" s="0" t="s">
@@ -11553,7 +13205,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B237" s="0" t="s">
@@ -11594,7 +13246,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B238" s="0" t="s">
@@ -11611,7 +13263,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B239" s="0" t="s">
@@ -11652,7 +13304,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B240" s="0" t="s">
@@ -11669,7 +13321,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B241" s="0" t="s">
@@ -11710,7 +13362,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B242" s="0" t="s">
@@ -11727,7 +13379,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B243" s="0" t="s">
@@ -11768,13 +13420,13 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C244" s="11" t="s">
         <v>1176</v>
       </c>
       <c r="D244" s="0" t="s">
@@ -11785,7 +13437,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B245" s="0" t="s">
@@ -11826,7 +13478,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="11" t="s">
+      <c r="A246" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B246" s="0" t="s">
@@ -11843,7 +13495,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B247" s="0" t="s">
@@ -11884,7 +13536,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="11" t="s">
+      <c r="A248" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B248" s="0" t="s">
@@ -11925,7 +13577,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="11" t="s">
+      <c r="A249" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B249" s="0" t="s">
@@ -11934,7 +13586,7 @@
       <c r="C249" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D249" s="12" t="s">
+      <c r="D249" s="3" t="s">
         <v>1201</v>
       </c>
       <c r="E249" s="0" t="s">
@@ -11966,7 +13618,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="11" t="s">
+      <c r="A250" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B250" s="0" t="s">
@@ -12007,7 +13659,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="11" t="s">
+      <c r="A251" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B251" s="0" t="s">
@@ -12024,7 +13676,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11" t="s">
+      <c r="A252" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B252" s="0" t="s">
@@ -12065,7 +13717,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B253" s="0" t="s">
@@ -12106,7 +13758,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="11" t="s">
+      <c r="A254" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B254" s="0" t="s">
@@ -12123,7 +13775,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="11" t="s">
+      <c r="A255" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B255" s="0" t="s">
@@ -12164,7 +13816,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="11" t="s">
+      <c r="A256" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B256" s="0" t="s">
@@ -12181,7 +13833,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="11" t="s">
+      <c r="A257" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B257" s="0" t="s">
@@ -12222,7 +13874,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B258" s="0" t="s">
@@ -12263,7 +13915,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="11" t="s">
+      <c r="A259" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B259" s="0" t="s">
@@ -12304,10 +13956,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="11" t="s">
+      <c r="A260" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="B260" s="3" t="s">
         <v>1255</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -12321,7 +13973,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="11" t="s">
+      <c r="A261" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B261" s="0" t="s">
@@ -12362,44 +14014,3656 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="13" t="s">
         <v>1262</v>
       </c>
       <c r="B262" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="B263" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H263" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I263" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="J263" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K263" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L263" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M263" s="0" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="B264" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H264" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I264" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="J264" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K264" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L264" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="E262" s="0" t="s">
+      <c r="B265" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H265" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I265" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="J265" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K265" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M265" s="5" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="B266" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="G262" s="0" t="s">
+      <c r="B267" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H267" s="0" t="n">
+        <v>9780399158438</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="J267" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="K267" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="L267" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="H262" s="0" t="s">
+      <c r="B268" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="I262" s="0" t="s">
+      <c r="B269" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>1664</v>
+      </c>
+      <c r="H269" s="0" t="n">
+        <v>9781854596376</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J269" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K269" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L269" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M269" s="0" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="J262" s="0" t="s">
+      <c r="B270" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="K262" s="0" t="s">
+      <c r="B271" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="H271" s="0" t="n">
+        <v>9780140449143</v>
+      </c>
+      <c r="I271" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="J271" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K271" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L271" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M271" s="0" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L262" s="0" t="s">
+      <c r="B272" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="M262" s="0" t="s">
+      <c r="B273" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="H273" s="0" t="n">
+        <v>9780573613319</v>
+      </c>
+      <c r="I273" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="J273" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K273" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L273" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M273" s="0" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="13" t="s">
         <v>1262</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>1936</v>
+      </c>
+      <c r="H275" s="0" t="n">
+        <v>9780060932237</v>
+      </c>
+      <c r="I275" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="J275" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K275" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L275" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M275" s="0" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>1855</v>
+      </c>
+      <c r="H277" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="J277" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K277" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L277" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M277" s="0" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H279" s="0" t="n">
+        <v>9781786187062</v>
+      </c>
+      <c r="I279" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="J279" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K279" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L279" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H280" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="J280" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K280" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="L280" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>9781506739762</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="J281" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K281" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="L281" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M281" s="15" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H282" s="0" t="n">
+        <v>9780785123729</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J282" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K282" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L282" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M282" s="0" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>9781936393961</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J283" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K283" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L283" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M283" s="16" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H285" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I285" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J285" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K285" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L285" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M285" s="0" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H287" s="0" t="n">
+        <v>9783822855300</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="J287" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K287" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L287" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M287" s="5" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H289" s="0" t="n">
+        <v>780811840415</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="J289" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K289" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L289" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M289" s="0" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H291" s="0" t="n">
+        <v>9781534324824</v>
+      </c>
+      <c r="I291" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J291" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K291" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L291" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M291" s="0" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H293" s="0" t="n">
+        <v>9781506726076</v>
+      </c>
+      <c r="I293" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J293" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K293" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L293" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M293" s="0" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H295" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I295" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="J295" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K295" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L295" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M295" s="0" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H297" s="0" t="n">
+        <v>9781631408755</v>
+      </c>
+      <c r="I297" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J297" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K297" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L297" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M297" s="0" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H299" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I299" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J299" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K299" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L299" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M299" s="0" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H301" s="0" t="n">
+        <v>9781421590561</v>
+      </c>
+      <c r="I301" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J301" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K301" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="L301" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M301" s="0" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H302" s="0" t="n">
+        <v>9781421561325</v>
+      </c>
+      <c r="I302" s="0" t="n">
+        <v>653</v>
+      </c>
+      <c r="J302" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K302" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L302" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M302" s="0" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G303" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H303" s="0" t="n">
+        <v>9781421579153</v>
+      </c>
+      <c r="I303" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="J303" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K303" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L303" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M303" s="0" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H304" s="0" t="n">
+        <v>9781974717477</v>
+      </c>
+      <c r="I304" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J304" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K304" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L304" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M304" s="0" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H305" s="0" t="n">
+        <v>9781974718900</v>
+      </c>
+      <c r="I305" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J305" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K305" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="L305" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M305" s="0" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H307" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I307" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="J307" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K307" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L307" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M307" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H309" s="0" t="n">
+        <v>9781643375540</v>
+      </c>
+      <c r="I309" s="0" t="n">
+        <v>538</v>
+      </c>
+      <c r="J309" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K309" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="L309" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M309" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H311" s="0" t="n">
+        <v>9781632151452</v>
+      </c>
+      <c r="I311" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J311" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K311" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L311" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M311" s="0" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G313" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H313" s="0" t="n">
+        <v>9781732748545</v>
+      </c>
+      <c r="I313" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J313" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K313" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L313" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M313" s="0" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G315" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H315" s="0" t="n">
+        <v>9781646516315</v>
+      </c>
+      <c r="I315" s="0" t="n">
+        <v>832</v>
+      </c>
+      <c r="J315" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K315" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L315" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M315" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H317" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I317" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="J317" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K317" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L317" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M317" s="0" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H319" s="0" t="n">
+        <v>9781632158864</v>
+      </c>
+      <c r="I319" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="J319" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K319" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L319" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M319" s="0" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E321" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H321" s="0" t="n">
+        <v>9781250153708</v>
+      </c>
+      <c r="I321" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J321" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K321" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L321" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M321" s="5" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E322" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G322" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H322" s="0" t="n">
+        <v>9781250153715</v>
+      </c>
+      <c r="I322" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="J322" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K322" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L322" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M322" s="5" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G324" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H324" s="0" t="n">
+        <v>9781506706665</v>
+      </c>
+      <c r="I324" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="J324" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K324" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L324" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M324" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G325" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H325" s="0" t="n">
+        <v>9781506706672</v>
+      </c>
+      <c r="I325" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="J325" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K325" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L325" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M325" s="5" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G326" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H326" s="0" t="n">
+        <v>9781506706689</v>
+      </c>
+      <c r="I326" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="J326" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K326" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L326" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G327" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H327" s="0" t="n">
+        <v>9781506707495</v>
+      </c>
+      <c r="I327" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="J327" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K327" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L327" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M327" s="5" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G328" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H328" s="0" t="n">
+        <v>9781595826091</v>
+      </c>
+      <c r="I328" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="J328" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K328" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L328" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M328" s="0" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G330" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H330" s="0" t="n">
+        <v>9781250846525</v>
+      </c>
+      <c r="I330" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J330" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K330" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L330" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="M330" s="5" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G331" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H331" s="0" t="n">
+        <v>9781421550640</v>
+      </c>
+      <c r="I331" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="J331" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K331" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L331" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="M331" s="0" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G333" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H333" s="0" t="n">
+        <v>9780930289232</v>
+      </c>
+      <c r="I333" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="J333" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K333" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L333" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="M333" s="5" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G334" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H334" s="0" t="n">
+        <v>9780861661411</v>
+      </c>
+      <c r="I334" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="J334" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K334" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L334" s="0" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M334" s="0" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G335" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H335" s="0" t="n">
+        <v>9781563898587</v>
+      </c>
+      <c r="I335" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="J335" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K335" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L335" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M335" s="5" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I337" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="J337" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K337" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L337" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M337" s="0" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H338" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I338" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="J338" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K338" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L338" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M338" s="0" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H339" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I339" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="J339" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K339" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L339" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M339" s="0" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H340" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I340" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="J340" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K340" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L340" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M340" s="0" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G341" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H341" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I341" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="J341" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K341" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L341" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M341" s="0" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G342" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H342" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I342" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="J342" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K342" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L342" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M342" s="0" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G343" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H343" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I343" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="J343" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K343" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L343" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M343" s="5" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G344" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H344" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I344" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J344" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K344" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L344" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M344" s="0" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G346" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H346" s="0" t="n">
+        <v>9780345529374</v>
+      </c>
+      <c r="I346" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="J346" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K346" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="L346" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M346" s="0" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E348" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G348" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H348" s="0" t="n">
+        <v>9781534300149</v>
+      </c>
+      <c r="I348" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="J348" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K348" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L348" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="M348" s="0" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G349" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H349" s="0" t="n">
+        <v>9781534306455</v>
+      </c>
+      <c r="I349" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J349" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K349" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L349" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M349" s="0" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G350" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H350" s="0" t="n">
+        <v>9781534312012</v>
+      </c>
+      <c r="I350" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J350" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K350" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L350" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M350" s="0" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G351" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H351" s="0" t="n">
+        <v>9781534319134</v>
+      </c>
+      <c r="I351" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="J351" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K351" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L351" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M351" s="0" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G353" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H353" s="0" t="n">
+        <v>9781937278045</v>
+      </c>
+      <c r="I353" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="J353" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K353" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L353" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M353" s="0" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G355" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H355" s="0" t="n">
+        <v>9781632158857</v>
+      </c>
+      <c r="I355" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J355" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K355" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L355" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M355" s="0" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G356" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H356" s="0" t="n">
+        <v>9781738703722</v>
+      </c>
+      <c r="I356" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J356" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K356" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L356" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="M356" s="0" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G358" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H358" s="0" t="n">
+        <v>9781421576015</v>
+      </c>
+      <c r="I358" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="J358" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K358" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L358" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M358" s="0" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G360" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H360" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I360" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J360" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K360" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="L360" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M360" s="0" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F362" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G362" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H362" s="0" t="n">
+        <v>9781582406855</v>
+      </c>
+      <c r="I362" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="J362" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K362" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L362" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M362" s="0" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F364" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G364" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H364" s="0" t="n">
+        <v>9781962413015</v>
+      </c>
+      <c r="I364" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J364" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K364" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="L364" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G365" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H365" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I365" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J365" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K365" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="L365" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M365" s="0" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G367" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H367" s="0" t="n">
+        <v>9789187222672</v>
+      </c>
+      <c r="I367" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="J367" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K367" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L367" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="M367" s="5" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F368" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G368" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H368" s="0" t="n">
+        <v>9789189143173</v>
+      </c>
+      <c r="I368" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J368" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K368" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L368" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="M368" s="0" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E370" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G370" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H370" s="0" t="n">
+        <v>9781624650062</v>
+      </c>
+      <c r="I370" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J370" s="0" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K370" s="0" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L370" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M370" s="0" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E371" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G371" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H371" s="0" t="n">
+        <v>9781624650703</v>
+      </c>
+      <c r="I371" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J371" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K371" s="0" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L371" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="M371" s="5" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G373" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H373" s="0" t="n">
+        <v>9781905460236</v>
+      </c>
+      <c r="I373" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J373" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K373" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L373" s="0" t="s">
+        <v>1787</v>
+      </c>
+      <c r="M373" s="0" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G375" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H375" s="0" t="n">
+        <v>9781891830877</v>
+      </c>
+      <c r="I375" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="J375" s="0" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K375" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L375" s="0" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M375" s="5" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L376" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M376" s="0" t="s">
+        <v>1797</v>
       </c>
     </row>
   </sheetData>
@@ -12413,8 +17677,10 @@
     <hyperlink ref="L106" r:id="rId7" display="https://www.goodreads.com/book/show/59924.The_Lathe_of_Heaven?from_search=true&amp;from_srp=true&amp;qid=347YPR7pXU&amp;rank=1"/>
     <hyperlink ref="L107" r:id="rId8" display="https://www.goodreads.com/book/show/13591878-the-unreal-and-the-real?ref=nav_sb_ss_1_28"/>
     <hyperlink ref="K158" r:id="rId9" display="https://en.wikipedia.org/wiki/The_War_of_the_Worlds"/>
-    <hyperlink ref="M178" r:id="rId10" display="https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/"/>
+    <hyperlink ref="M178" r:id="rId10" display="https://thememorypalace.us/&#10;https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/&#10;A vivid collection of surprising true stories that brings to life long-forgotten icons, heroes who never got their due, and ordinary people who never made it to the history books, from the creator of the popular podcast The Memory Palace. What was Dreamland, Brooklyn's most popular attraction, like before it burned down? Whatever happened to Shipwreck Kelly? What were the glistening orbs John Glenn saw from his capsule on his first trip to space? For more than a decade, Nate DiMeo has brought the big and small of American history to life in The Memory Palace, a podcast of crystalline short stories that are all completely true. In this beautifully designed collection, where DiMeo takes advantage of the visual form of a book by creating striking juxtapositions between images and text, he gathers the best of the show and adds brand-new stories exclusive to the book, which especially take their inspiration from photographs and the emergence of photography. The collection adds up to a unique take on the past that asks what gets to count as history in the first place, draws deep meaning from forgotten lives, and often dives into past crazes and the sometimes humorous and sometimes devastating fact that what or who is popular in one moment can become a barely remembered curiosity in the next. He resurrects stories that deserve to be memorialized, like that of the Surfmen of the Outer Banks who saved countless sailors' lives and the workers who risked theirs daily to dig the base of the Brooklyn Bridge.  Each one of these poignant, vivid stories brings the past completely alive with the potential to shift our perspectives on the world today and to send readers out searching for all of the hidden stories it contains, just beyond the surface."/>
     <hyperlink ref="K213" r:id="rId11" display="https://www.penguinrandomhouse.com/books/247692/crap-taxidermy-by-kat-su/"/>
+    <hyperlink ref="L265" r:id="rId12" display="https://www.goodreads.com/book/show/71059690-the-seagull-reader---poems?from_search=true&amp;from_srp=true&amp;qid=0RXtiGhi0c&amp;rank=3"/>
+    <hyperlink ref="L305" r:id="rId13" display="https://www.goodreads.com/book/show/55711440-sensor?ref=nav_sb_ss_1_6"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/book_library.xlsx
+++ b/book_library.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="1869">
   <si>
     <t xml:space="preserve">shelf</t>
   </si>
@@ -3475,6 +3475,33 @@
 From the opening chase above Tatooine in A New Hope to the Battle of Endor in Jedi, this book presents the visual inspiration behind now-iconic moments. Readers can finally see a full set of storyboards by legendary artist Joe Johnston, as well as early boards for Episode IV by Alex Tavoularis and for Episode V by Ivor Beddoes, rarely seen Episode VI boards by Roy Carnon, and Ralph McQuarrie’s never-before-seen storyboards for Episode V.</t>
   </si>
   <si>
+    <t xml:space="preserve">vaz_mark_cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz, Mark Cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_star_wars_to_indiana_jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Star Wars to Indiana Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Best of the Lucasfilm Archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1387733179i/479879.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.book-info.com/isbn/0-8118-0972-2.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodreads.com/book/show/479879.From_Star_Wars_to_Indiana_Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Lucas has produced some of the most popular movies ever, including the classic "Star Wars" and "Indiana Jones" trilogies. Thanks to Lucas's foresight and the dedication of Lucasfilm archivists, the artifacts used in the making of his films have been painstakingly preserved. "From Star Wars to Indiana Jones" presents some of the best of Lucasfilm's enduring creations, from Yoda and R2-D2 to the Ark of the Covenant and the Holy Grail. Now readers everywhere can take a tour of the marvelous world of the Lucasfilm Archives, with its incredible collection of costumes, props, puppets, models, and matte paintings used in the making of both the "Star Wars" and Indiana Jones movies. Veterans of the legendary first Industrial Light &amp; Magic effects team that created "Star Wars" share their secrets, along with an astonishing array of behind-the-scenes production illustrations, storyboards, and prototypes--many appearing for the first time in book form--all accompanied by a lively text that tells the fascinating stories behind the art of movie-making. Lavishly illustrated with hundreds of full-color photographs and illustrations, this treasury captures the remarkable imagery, as well as the wonder, of the Lucasfilm universe in an essential acquisition for countless fans the world over.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Art-Instruction</t>
   </si>
   <si>
@@ -5738,7 +5765,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5785,6 +5812,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -5872,7 +5906,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5918,6 +5952,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6132,10 +6170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N385"/>
+  <dimension ref="A1:N387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F160" activeCellId="0" sqref="F160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F231" activeCellId="0" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8141,7 +8179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
@@ -8163,7 +8201,7 @@
       <c r="G57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="1" t="n">
         <v>1968</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -14017,72 +14055,66 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="G230" s="4"/>
+      <c r="H230" s="1"/>
+      <c r="N230" s="6"/>
+    </row>
+    <row r="231" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F231" s="1" t="s">
+      <c r="G231" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G231" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H231" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="I231" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I231" s="1" t="n">
+        <v>9780811809726</v>
+      </c>
+      <c r="J231" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="J231" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="K231" s="1" t="s">
+      <c r="L231" s="12" t="s">
         <v>1130</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="M231" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="M231" s="1" t="s">
+      <c r="N231" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="N231" s="1" t="s">
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="13" t="s">
         <v>1133</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12" t="s">
-        <v>1124</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1134</v>
@@ -14101,8 +14133,8 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12" t="s">
-        <v>1124</v>
+      <c r="A233" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1136</v>
@@ -14120,16 +14152,16 @@
         <v>1137</v>
       </c>
       <c r="G233" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I233" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="H233" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="I233" s="6" t="n">
-        <v>9781633221376</v>
-      </c>
       <c r="J233" s="1" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>1139</v>
@@ -14145,8 +14177,8 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12" t="s">
-        <v>1124</v>
+      <c r="A234" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1143</v>
@@ -14165,8 +14197,8 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12" t="s">
-        <v>1124</v>
+      <c r="A235" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1145</v>
@@ -14187,13 +14219,13 @@
         <v>1147</v>
       </c>
       <c r="H235" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="I235" s="1" t="n">
-        <v>9781440320620</v>
+        <v>2017</v>
+      </c>
+      <c r="I235" s="6" t="n">
+        <v>9781633221376</v>
       </c>
       <c r="J235" s="1" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>1148</v>
@@ -14209,8 +14241,8 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12" t="s">
-        <v>1124</v>
+      <c r="A236" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1152</v>
@@ -14229,8 +14261,8 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12" t="s">
-        <v>1124</v>
+      <c r="A237" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1154</v>
@@ -14254,10 +14286,10 @@
         <v>2011</v>
       </c>
       <c r="I237" s="1" t="n">
-        <v>9781848378421</v>
+        <v>9781440320620</v>
       </c>
       <c r="J237" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>1157</v>
@@ -14273,8 +14305,8 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12" t="s">
-        <v>1124</v>
+      <c r="A238" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1161</v>
@@ -14293,8 +14325,8 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12" t="s">
-        <v>1124</v>
+      <c r="A239" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1163</v>
@@ -14315,10 +14347,10 @@
         <v>1165</v>
       </c>
       <c r="H239" s="1" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="I239" s="1" t="n">
-        <v>9781581807592</v>
+        <v>9781848378421</v>
       </c>
       <c r="J239" s="1" t="n">
         <v>128</v>
@@ -14337,8 +14369,8 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12" t="s">
-        <v>1124</v>
+      <c r="A240" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1170</v>
@@ -14357,8 +14389,8 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12" t="s">
-        <v>1124</v>
+      <c r="A241" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1172</v>
@@ -14379,13 +14411,13 @@
         <v>1174</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>9781936096992</v>
+        <v>9781581807592</v>
       </c>
       <c r="J241" s="1" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>1175</v>
@@ -14401,14 +14433,14 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12" t="s">
-        <v>1124</v>
+      <c r="A242" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>20</v>
+      <c r="C242" s="2" t="s">
+        <v>1180</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>18</v>
@@ -14416,84 +14448,84 @@
       <c r="E242" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>1180</v>
-      </c>
       <c r="G242" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H242" s="1" t="n">
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H243" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <v>9781936096992</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="I242" s="1" t="n">
+      <c r="I244" s="1" t="n">
         <v>9780823050369</v>
       </c>
-      <c r="J242" s="1" t="n">
+      <c r="J244" s="1" t="n">
         <v>224</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H244" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="I244" s="1" t="n">
-        <v>9780385344630</v>
-      </c>
-      <c r="J244" s="1" t="n">
-        <v>160</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>1190</v>
@@ -14509,8 +14541,8 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12" t="s">
-        <v>1124</v>
+      <c r="A245" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1194</v>
@@ -14529,8 +14561,8 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12" t="s">
-        <v>1124</v>
+      <c r="A246" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1196</v>
@@ -14551,77 +14583,77 @@
         <v>1198</v>
       </c>
       <c r="H246" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I246" s="1" t="n">
+        <v>9780385344630</v>
+      </c>
+      <c r="J246" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H248" s="1" t="n">
         <v>1943</v>
       </c>
-      <c r="I246" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J246" s="1" t="n">
+      <c r="I248" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J248" s="1" t="n">
         <v>257</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G248" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H248" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I248" s="1" t="n">
-        <v>9780823032594</v>
-      </c>
-      <c r="J248" s="1" t="n">
-        <v>176</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>1209</v>
@@ -14637,8 +14669,8 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12" t="s">
-        <v>1124</v>
+      <c r="A249" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1213</v>
@@ -14657,8 +14689,8 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12" t="s">
-        <v>1124</v>
+      <c r="A250" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1215</v>
@@ -14676,103 +14708,103 @@
         <v>1216</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>18</v>
+        <v>1217</v>
       </c>
       <c r="H250" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="I250" s="1" t="n">
+        <v>9780823032594</v>
+      </c>
+      <c r="J250" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I252" s="1" t="n">
         <v>9780764133107</v>
       </c>
-      <c r="J250" s="1" t="n">
+      <c r="J252" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K250" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H252" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="I252" s="1" t="n">
-        <v>9780571202287</v>
-      </c>
-      <c r="J252" s="1" t="n">
-        <v>342</v>
-      </c>
       <c r="K252" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="N252" s="6" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="s">
+      <c r="N252" s="1" t="s">
         <v>1229</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>16</v>
+      <c r="C253" s="14" t="s">
+        <v>1231</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>18</v>
@@ -14784,232 +14816,232 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="s">
-        <v>1229</v>
+    <row r="254" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="13" t="s">
+        <v>1133</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1232</v>
+        <v>18</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="G254" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H254" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I254" s="1" t="n">
+        <v>9780571202287</v>
+      </c>
+      <c r="J254" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="K254" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="G254" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H254" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="I254" s="1" t="s">
+      <c r="L254" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="J254" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="K254" s="1" t="s">
+      <c r="M254" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="M254" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="N254" s="1" t="s">
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="15" t="s">
         <v>1238</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="s">
-        <v>1229</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>20</v>
+      <c r="C255" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F255" s="1" t="s">
+      <c r="C256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="G255" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H255" s="1" t="n">
+      <c r="E256" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H256" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J256" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257" s="1" t="n">
         <v>1611</v>
       </c>
-      <c r="I255" s="1" t="n">
+      <c r="I257" s="1" t="n">
         <v>9789897783616</v>
       </c>
-      <c r="J255" s="1" t="n">
+      <c r="J257" s="1" t="n">
         <v>1590</v>
       </c>
-      <c r="K255" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="L255" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H256" s="1" t="n">
+      <c r="K257" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H258" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="I256" s="1" t="n">
+      <c r="I258" s="1" t="n">
         <v>9780310902713</v>
       </c>
-      <c r="J256" s="1" t="n">
+      <c r="J258" s="1" t="n">
         <v>1213</v>
       </c>
-      <c r="K256" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L256" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H257" s="1" t="n">
+      <c r="K258" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H259" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="I257" s="1" t="n">
+      <c r="I259" s="1" t="n">
         <v>9780738749457</v>
       </c>
-      <c r="J257" s="1" t="n">
+      <c r="J259" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L257" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N257" s="6" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H259" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="I259" s="1" t="n">
-        <v>9780385418867</v>
-      </c>
-      <c r="J259" s="1" t="n">
-        <v>293</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>1264</v>
@@ -15020,19 +15052,19 @@
       <c r="M259" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="N259" s="1" t="s">
+      <c r="N259" s="6" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14" t="s">
-        <v>1229</v>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="15" t="s">
+        <v>1238</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>20</v>
+      <c r="C260" s="2" t="s">
+        <v>1269</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>18</v>
@@ -15040,276 +15072,276 @@
       <c r="E260" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>1269</v>
-      </c>
       <c r="G260" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H260" s="1" t="n">
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H261" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <v>9780385418867</v>
+      </c>
+      <c r="J261" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H262" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="I260" s="1" t="n">
+      <c r="I262" s="1" t="n">
         <v>9780691017846</v>
       </c>
-      <c r="J260" s="1" t="n">
+      <c r="J262" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="K260" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="L260" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N260" s="6" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G262" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H262" s="1" t="n">
+      <c r="K262" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N262" s="6" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H264" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="I262" s="1" t="n">
+      <c r="I264" s="1" t="n">
         <v>9780140367164</v>
       </c>
-      <c r="J262" s="1" t="n">
+      <c r="J264" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="K262" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H264" s="1" t="n">
+      <c r="K264" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H266" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="I264" s="1" t="n">
+      <c r="I266" s="1" t="n">
         <v>9781786647634</v>
-      </c>
-      <c r="J264" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H265" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="I265" s="1" t="n">
-        <v>9780857758217</v>
-      </c>
-      <c r="J265" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H266" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I266" s="6" t="n">
-        <v>9781787552975</v>
       </c>
       <c r="J266" s="1" t="n">
         <v>255</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="L266" s="1" t="s">
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="M266" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="N266" s="6" t="s">
+      <c r="G267" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H267" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I267" s="1" t="n">
+        <v>9780857758217</v>
+      </c>
+      <c r="J267" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="K267" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B267" s="4" t="s">
+      <c r="L267" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="M267" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>18</v>
+      <c r="N267" s="1" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="s">
-        <v>1229</v>
+      <c r="A268" s="15" t="s">
+        <v>1238</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>20</v>
@@ -15321,62 +15353,68 @@
         <v>18</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="I268" s="6" t="n">
-        <v>9781564148643</v>
+        <v>9781787552975</v>
       </c>
       <c r="J268" s="1" t="n">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="N268" s="6" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>1310</v>
+        <v>1238</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>1311</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>16</v>
+        <v>1312</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>1309</v>
+        <v>1238</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1312</v>
+        <v>18</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1313</v>
+        <v>18</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>1314</v>
@@ -15385,449 +15423,449 @@
         <v>18</v>
       </c>
       <c r="H270" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>9781564148643</v>
+      </c>
+      <c r="J270" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N270" s="6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H272" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="J270" s="1" t="n">
+      <c r="I272" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J272" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="K270" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M270" s="1" t="s">
+      <c r="K272" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="16" t="s">
         <v>1318</v>
       </c>
-      <c r="N270" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H271" s="1" t="n">
+      <c r="B273" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H273" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J271" s="1" t="n">
+      <c r="I273" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J273" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="K271" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L271" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N271" s="6" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="K273" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N273" s="6" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G272" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H272" s="1" t="n">
+      <c r="E274" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H274" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="I272" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="J272" s="1" t="n">
+      <c r="I274" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J274" s="1" t="n">
         <v>439</v>
       </c>
-      <c r="K272" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L272" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="M272" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="N272" s="6" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C273" s="2" t="s">
+      <c r="K274" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N274" s="6" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G273" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B274" s="1" t="s">
+      <c r="G275" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F274" s="1" t="s">
+      <c r="C276" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G274" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H274" s="1" t="n">
+      <c r="G276" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H276" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="I274" s="1" t="n">
+      <c r="I276" s="1" t="n">
         <v>9780399158438</v>
       </c>
-      <c r="J274" s="1" t="n">
+      <c r="J276" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="K274" s="1" t="s">
+      <c r="K276" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="L274" s="1" t="s">
+      <c r="L276" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="M274" s="1" t="s">
+      <c r="M276" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N274" s="6" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H276" s="1" t="n">
+      <c r="N276" s="6" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H278" s="1" t="n">
         <v>1664</v>
       </c>
-      <c r="I276" s="1" t="n">
+      <c r="I278" s="1" t="n">
         <v>9781854596376</v>
       </c>
-      <c r="J276" s="1" t="n">
+      <c r="J278" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="K276" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H278" s="1" t="n">
+      <c r="K278" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H280" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="I278" s="1" t="n">
+      <c r="I280" s="1" t="n">
         <v>9780140449143</v>
       </c>
-      <c r="J278" s="1" t="n">
+      <c r="J280" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="K278" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="L278" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G279" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H280" s="1" t="n">
+      <c r="K280" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H282" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="I280" s="1" t="n">
+      <c r="I282" s="1" t="n">
         <v>9780573613319</v>
       </c>
-      <c r="J280" s="1" t="n">
+      <c r="J282" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="K280" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="M280" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N280" s="1" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H282" s="1" t="n">
+      <c r="K282" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H284" s="1" t="n">
         <v>1936</v>
       </c>
-      <c r="I282" s="1" t="n">
+      <c r="I284" s="1" t="n">
         <v>9780060932237</v>
       </c>
-      <c r="J282" s="1" t="n">
+      <c r="J284" s="1" t="n">
         <v>384</v>
-      </c>
-      <c r="K282" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L282" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="M282" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="N282" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="15" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H284" s="1" t="n">
-        <v>1855</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J284" s="1" t="n">
-        <v>624</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>1373</v>
@@ -15844,21 +15882,21 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G285" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="16" t="s">
-        <v>1377</v>
+        <v>1318</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1379</v>
@@ -15867,25 +15905,25 @@
         <v>20</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F286" s="1" t="s">
+      <c r="G286" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H286" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="I286" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="G286" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="H286" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I286" s="1" t="n">
-        <v>9781786187062</v>
-      </c>
       <c r="J286" s="1" t="n">
-        <v>192</v>
+        <v>624</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>1382</v>
@@ -15896,212 +15934,206 @@
       <c r="M286" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="N286" s="6" t="s">
+      <c r="N286" s="1" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="16" t="s">
-        <v>1377</v>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="17" t="s">
         <v>1386</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G287" s="4" t="s">
+      <c r="B288" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="H287" s="1" t="n">
+      <c r="C288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H288" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I288" s="1" t="n">
+        <v>9781786187062</v>
+      </c>
+      <c r="J288" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="N288" s="6" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H289" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I287" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="J287" s="1" t="n">
+      <c r="I289" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J289" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="K287" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="L287" s="1" t="s">
+      <c r="K289" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L289" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="M287" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="N287" s="6" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H288" s="1" t="n">
+      <c r="M289" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N289" s="6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H290" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I288" s="1" t="n">
+      <c r="I290" s="1" t="n">
         <v>9781506739762</v>
       </c>
-      <c r="J288" s="1" t="n">
+      <c r="J290" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="K288" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="L288" s="1" t="s">
+      <c r="K290" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L290" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="M288" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N288" s="6" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G289" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H289" s="1" t="n">
+      <c r="M290" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N290" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H291" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="I289" s="1" t="n">
+      <c r="I291" s="1" t="n">
         <v>9780785123729</v>
       </c>
-      <c r="J289" s="1" t="n">
+      <c r="J291" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K289" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="M289" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="N289" s="1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G290" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H290" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I290" s="1" t="n">
-        <v>9781936393961</v>
-      </c>
-      <c r="J290" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M290" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="N290" s="17" t="s">
+      <c r="K291" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B291" s="1" t="s">
+      <c r="L291" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="M291" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>18</v>
+      <c r="N291" s="1" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="16" t="s">
-        <v>1377</v>
+      <c r="A292" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>20</v>
@@ -16110,7 +16142,7 @@
         <v>18</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1413</v>
+        <v>18</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>1414</v>
@@ -16119,30 +16151,30 @@
         <v>18</v>
       </c>
       <c r="H292" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="I292" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I292" s="1" t="n">
+        <v>9781936393961</v>
+      </c>
+      <c r="J292" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="K292" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="J292" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="K292" s="1" t="s">
+      <c r="L292" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>1417</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="N292" s="1" t="s">
+      <c r="N292" s="18" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="16" t="s">
-        <v>1377</v>
+      <c r="A293" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>1419</v>
@@ -16160,9 +16192,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="16" t="s">
-        <v>1377</v>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1421</v>
@@ -16174,199 +16206,199 @@
         <v>18</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>18</v>
+        <v>1422</v>
       </c>
       <c r="F294" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H294" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J294" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G294" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H294" s="1" t="n">
+      <c r="G296" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H296" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="I294" s="1" t="n">
+      <c r="I296" s="1" t="n">
         <v>9783822855300</v>
       </c>
-      <c r="J294" s="1" t="n">
+      <c r="J296" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="K294" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="L294" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="M294" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="N294" s="18" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G295" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H296" s="1" t="n">
+      <c r="K296" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N296" s="19" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="I296" s="1" t="n">
+      <c r="I298" s="1" t="n">
         <v>780811840415</v>
       </c>
-      <c r="J296" s="1" t="n">
+      <c r="J298" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K296" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="L296" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M296" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="N296" s="1" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F298" s="1" t="s">
+      <c r="K298" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="G298" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H298" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="I298" s="1" t="n">
-        <v>9781534324824</v>
-      </c>
-      <c r="J298" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="K298" s="1" t="s">
+      <c r="L298" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="L298" s="1" t="s">
+      <c r="M298" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="M298" s="1" t="s">
+      <c r="N298" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="N298" s="1" t="s">
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="D299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>1448</v>
@@ -16375,10 +16407,10 @@
         <v>18</v>
       </c>
       <c r="H300" s="1" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I300" s="1" t="n">
-        <v>9781506726076</v>
+        <v>9781534324824</v>
       </c>
       <c r="J300" s="1" t="n">
         <v>160</v>
@@ -16397,8 +16429,8 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="16" t="s">
-        <v>1377</v>
+      <c r="A301" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1453</v>
@@ -16417,8 +16449,8 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="16" t="s">
-        <v>1377</v>
+      <c r="A302" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>1455</v>
@@ -16427,25 +16459,25 @@
         <v>20</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>18</v>
+        <v>1456</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>18</v>
+        <v>570</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H302" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>1457</v>
+        <v>2022</v>
+      </c>
+      <c r="I302" s="1" t="n">
+        <v>9781506726076</v>
       </c>
       <c r="J302" s="1" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>1458</v>
@@ -16461,405 +16493,405 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="16" t="s">
-        <v>1377</v>
+      <c r="A303" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J304" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H304" s="1" t="n">
+      <c r="D305" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I304" s="1" t="n">
+      <c r="I306" s="1" t="n">
         <v>9781631408755</v>
       </c>
-      <c r="J304" s="1" t="n">
+      <c r="J306" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K304" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="L304" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="M304" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="N304" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F306" s="1" t="s">
+      <c r="K306" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="G306" s="4" t="s">
+      <c r="L306" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="H306" s="1" t="n">
+      <c r="M306" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H308" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="I306" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="J306" s="1" t="n">
+      <c r="I308" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J308" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="K306" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="L306" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="M306" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N306" s="1" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G307" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G308" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H308" s="1" t="n">
+      <c r="K308" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H310" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="I308" s="1" t="n">
+      <c r="I310" s="1" t="n">
         <v>9781421590561</v>
       </c>
-      <c r="J308" s="1" t="n">
+      <c r="J310" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="K308" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="L308" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="M308" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="N308" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G309" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H309" s="1" t="n">
+      <c r="K310" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I309" s="1" t="n">
+      <c r="I311" s="1" t="n">
         <v>9781421561325</v>
       </c>
-      <c r="J309" s="1" t="n">
+      <c r="J311" s="1" t="n">
         <v>653</v>
       </c>
-      <c r="K309" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M309" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="N309" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G310" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H310" s="1" t="n">
+      <c r="K311" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="I310" s="1" t="n">
+      <c r="I312" s="1" t="n">
         <v>9781421579153</v>
       </c>
-      <c r="J310" s="1" t="n">
+      <c r="J312" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="K310" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="N310" s="1" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G311" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H311" s="1" t="n">
+      <c r="K312" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H313" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="I311" s="1" t="n">
+      <c r="I313" s="1" t="n">
         <v>9781974717477</v>
       </c>
-      <c r="J311" s="1" t="n">
+      <c r="J313" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="K311" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M311" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N311" s="1" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H312" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I312" s="1" t="n">
-        <v>9781974718900</v>
-      </c>
-      <c r="J312" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="K312" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M312" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N312" s="1" t="s">
+      <c r="K313" s="1" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B313" s="1" t="s">
+      <c r="L313" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="M313" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G313" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="16" t="s">
-        <v>1377</v>
+      <c r="N313" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1515</v>
+        <v>18</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>18</v>
@@ -16873,389 +16905,389 @@
       <c r="H314" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="I314" s="1" t="s">
+      <c r="I314" s="1" t="n">
+        <v>9781974718900</v>
+      </c>
+      <c r="J314" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="K314" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="J314" s="1" t="n">
+      <c r="L314" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J316" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="K314" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="N314" s="6" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G315" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F316" s="1" t="s">
+      <c r="K316" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="G316" s="4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H316" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="I316" s="1" t="n">
-        <v>9781643375540</v>
-      </c>
-      <c r="J316" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="K316" s="1" t="s">
+      <c r="L316" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="L316" s="1" t="s">
+      <c r="M316" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="M316" s="1" t="s">
+      <c r="N316" s="6" t="s">
         <v>1530</v>
       </c>
-      <c r="N316" s="1" t="s">
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="G317" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G317" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1535</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="G318" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H318" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I318" s="1" t="n">
+        <v>9781643375540</v>
+      </c>
+      <c r="J318" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="K318" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="H318" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="I318" s="1" t="n">
-        <v>9781632151452</v>
-      </c>
-      <c r="J318" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="K318" s="1" t="s">
+      <c r="L318" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="L318" s="1" t="s">
+      <c r="M318" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="M318" s="1" t="s">
+      <c r="N318" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="N318" s="1" t="s">
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E320" s="1" t="s">
-        <v>18</v>
+        <v>570</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>18</v>
+        <v>1546</v>
       </c>
       <c r="H320" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I320" s="1" t="n">
+        <v>9781632151452</v>
+      </c>
+      <c r="J320" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M320" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="I320" s="1" t="n">
+      <c r="I322" s="1" t="n">
         <v>9781732748545</v>
       </c>
-      <c r="J320" s="1" t="n">
+      <c r="J322" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="K320" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="L320" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="M320" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="N320" s="1" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G321" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H322" s="1" t="s">
+      <c r="K322" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="I322" s="1" t="n">
+      <c r="L322" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M322" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I324" s="1" t="n">
         <v>9781646516315</v>
       </c>
-      <c r="J322" s="1" t="n">
+      <c r="J324" s="1" t="n">
         <v>832</v>
       </c>
-      <c r="K322" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L322" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M322" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N322" s="6" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G323" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F324" s="1" t="s">
+      <c r="K324" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="G324" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H324" s="1" t="n">
+      <c r="L324" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N324" s="6" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H326" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="I324" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="J324" s="1" t="n">
+      <c r="I326" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J326" s="1" t="n">
         <v>318</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L324" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="M324" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N324" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G325" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H326" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="I326" s="1" t="n">
-        <v>9781632158864</v>
-      </c>
-      <c r="J326" s="1" t="n">
-        <v>280</v>
       </c>
       <c r="K326" s="1" t="s">
         <v>1576</v>
@@ -17271,8 +17303,8 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="16" t="s">
-        <v>1377</v>
+      <c r="A327" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1580</v>
@@ -17280,13 +17312,19 @@
       <c r="C327" s="2" t="s">
         <v>1581</v>
       </c>
+      <c r="D327" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G327" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="16" t="s">
-        <v>1377</v>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>1582</v>
@@ -17297,8 +17335,8 @@
       <c r="D328" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="E328" s="1" t="n">
-        <v>1</v>
+      <c r="E328" s="1" t="s">
+        <v>1573</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>1584</v>
@@ -17307,13 +17345,13 @@
         <v>18</v>
       </c>
       <c r="H328" s="1" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I328" s="1" t="n">
-        <v>9781250153708</v>
+        <v>9781632158864</v>
       </c>
       <c r="J328" s="1" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K328" s="1" t="s">
         <v>1585</v>
@@ -17324,89 +17362,83 @@
       <c r="M328" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="N328" s="6" t="s">
+      <c r="N328" s="1" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="16" t="s">
-        <v>1377</v>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E329" s="1" t="n">
+      <c r="C329" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H330" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I330" s="1" t="n">
+        <v>9781250153708</v>
+      </c>
+      <c r="J330" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N330" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E331" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G329" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H329" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I329" s="1" t="n">
-        <v>9781250153715</v>
-      </c>
-      <c r="J329" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="K329" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="L329" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="M329" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="N329" s="6" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G330" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1598</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>1599</v>
@@ -17415,89 +17447,65 @@
         <v>18</v>
       </c>
       <c r="H331" s="1" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I331" s="1" t="n">
-        <v>9781506706665</v>
+        <v>9781250153715</v>
       </c>
       <c r="J331" s="1" t="n">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="K331" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="L331" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M331" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="M331" s="1" t="s">
+      <c r="N331" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="N331" s="1" t="s">
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="332" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D332" s="1" t="s">
-        <v>1597</v>
+        <v>18</v>
       </c>
       <c r="E332" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="F332" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="G332" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H332" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="I332" s="1" t="n">
-        <v>9781506706672</v>
-      </c>
-      <c r="J332" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="K332" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="L332" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="M332" s="1" t="s">
+      <c r="F333" s="1" t="s">
         <v>1608</v>
-      </c>
-      <c r="N332" s="6" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>1612</v>
       </c>
       <c r="G333" s="4" t="s">
         <v>18</v>
@@ -17506,42 +17514,42 @@
         <v>2018</v>
       </c>
       <c r="I333" s="1" t="n">
-        <v>9781506706689</v>
+        <v>9781506706665</v>
       </c>
       <c r="J333" s="1" t="n">
-        <v>528</v>
+        <v>368</v>
       </c>
       <c r="K333" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N333" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="L333" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="M333" s="1" t="s">
+      <c r="C334" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="N333" s="6" t="s">
+      <c r="F334" s="1" t="s">
         <v>1615</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>1618</v>
       </c>
       <c r="G334" s="4" t="s">
         <v>18</v>
@@ -17550,85 +17558,115 @@
         <v>2018</v>
       </c>
       <c r="I334" s="1" t="n">
+        <v>9781506706672</v>
+      </c>
+      <c r="J334" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="N334" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I335" s="1" t="n">
+        <v>9781506706689</v>
+      </c>
+      <c r="J335" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="N335" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I336" s="1" t="n">
         <v>9781506707495</v>
       </c>
-      <c r="J334" s="1" t="n">
+      <c r="J336" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="K334" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="M334" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="N334" s="6" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G335" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H335" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="I335" s="1" t="n">
-        <v>9781595826091</v>
-      </c>
-      <c r="J335" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="K335" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="L335" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="M335" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="N335" s="1" t="s">
+      <c r="K336" s="1" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B336" s="1" t="s">
+      <c r="L336" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M336" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="N336" s="6" t="s">
         <v>1630</v>
       </c>
-      <c r="G336" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="16" t="s">
-        <v>1377</v>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>1631</v>
@@ -17637,264 +17675,258 @@
         <v>20</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>18</v>
+        <v>1632</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G337" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H337" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="I337" s="1" t="n">
+        <v>9781595826091</v>
+      </c>
+      <c r="J337" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H339" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="I337" s="1" t="n">
+      <c r="I339" s="1" t="n">
         <v>9781250846525</v>
       </c>
-      <c r="J337" s="1" t="n">
+      <c r="J339" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="K337" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="L337" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="M337" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="N337" s="6" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G338" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H338" s="1" t="n">
+      <c r="K339" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="N339" s="6" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="I338" s="1" t="n">
+      <c r="I340" s="1" t="n">
         <v>9781421550640</v>
       </c>
-      <c r="J338" s="1" t="n">
+      <c r="J340" s="1" t="n">
         <v>1104</v>
       </c>
-      <c r="K338" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L338" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="M338" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="N338" s="1" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G339" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H340" s="1" t="n">
+      <c r="K340" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M340" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="I340" s="1" t="n">
+      <c r="I342" s="1" t="n">
         <v>9780930289232</v>
       </c>
-      <c r="J340" s="1" t="n">
+      <c r="J342" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="K340" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="L340" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="M340" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="N340" s="6" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G341" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H341" s="1" t="n">
+      <c r="K342" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N342" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="I341" s="1" t="n">
+      <c r="I343" s="1" t="n">
         <v>9780861661411</v>
       </c>
-      <c r="J341" s="1" t="n">
+      <c r="J343" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="K341" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L341" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="M341" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="N341" s="1" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G342" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H342" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I342" s="1" t="n">
-        <v>9781563898587</v>
-      </c>
-      <c r="J342" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="K342" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="L342" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="M342" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="N342" s="6" t="s">
+      <c r="K343" s="1" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B343" s="1" t="s">
+      <c r="L343" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="M343" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G343" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="16" t="s">
-        <v>1377</v>
+      <c r="N343" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1666</v>
+        <v>18</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>570</v>
+        <v>18</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>1667</v>
@@ -17902,359 +17934,359 @@
       <c r="G344" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H344" s="1" t="s">
+      <c r="H344" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I344" s="1" t="n">
+        <v>9781563898587</v>
+      </c>
+      <c r="J344" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="K344" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="I344" s="1" t="s">
+      <c r="L344" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="J344" s="1" t="n">
+      <c r="M344" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="N344" s="6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J346" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="K344" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="L344" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M344" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N344" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E345" s="1" t="s">
+      <c r="K346" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="F345" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G345" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H345" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I345" s="1" t="s">
+      <c r="E347" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F347" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="J345" s="1" t="n">
+      <c r="G347" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J347" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="K345" s="1" t="s">
+      <c r="K347" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="L345" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M345" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N345" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E346" s="1" t="s">
+      <c r="I348" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J348" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L348" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="F346" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G346" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I346" s="1" t="s">
+      <c r="M348" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="J346" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="K346" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L346" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M346" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N346" s="1" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G347" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="J347" s="1" t="n">
+      <c r="N348" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J349" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="K347" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="L347" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M347" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N347" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G348" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I348" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="J348" s="1" t="n">
+      <c r="K349" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J350" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="K348" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="L348" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M348" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N348" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G349" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J349" s="1" t="n">
+      <c r="K350" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G351" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J351" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="K349" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="L349" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="M349" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N349" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G350" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H350" s="1" t="n">
+      <c r="K351" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H352" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="I350" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J350" s="1" t="n">
+      <c r="I352" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J352" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="K350" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="L350" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="M350" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="N350" s="6" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="G351" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H351" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J351" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="K351" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="L351" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="M351" s="1" t="s">
+      <c r="K352" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="N351" s="1" t="s">
+      <c r="L352" s="1" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B352" s="1" t="s">
+      <c r="M352" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="N352" s="6" t="s">
         <v>1714</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G352" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="16" t="s">
-        <v>1377</v>
+      <c r="A353" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1715</v>
@@ -18263,25 +18295,25 @@
         <v>20</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>18</v>
+        <v>1716</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="G353" s="4" t="s">
-        <v>1717</v>
+        <v>18</v>
       </c>
       <c r="H353" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="I353" s="1" t="n">
-        <v>9780345529374</v>
+        <v>2003</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>1710</v>
       </c>
       <c r="J353" s="1" t="n">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>1718</v>
@@ -18297,8 +18329,8 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="16" t="s">
-        <v>1377</v>
+      <c r="A354" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1722</v>
@@ -18317,8 +18349,8 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="16" t="s">
-        <v>1377</v>
+      <c r="A355" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1724</v>
@@ -18327,527 +18359,527 @@
         <v>20</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E355" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>1725</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>18</v>
+        <v>1726</v>
       </c>
       <c r="H355" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I355" s="1" t="n">
+        <v>9780345529374</v>
+      </c>
+      <c r="J355" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E357" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="I355" s="1" t="n">
+      <c r="I357" s="1" t="n">
         <v>9781534300149</v>
       </c>
-      <c r="J355" s="1" t="n">
+      <c r="J357" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="K355" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="L355" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="M355" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="N355" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E356" s="1" t="n">
+      <c r="K357" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E358" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F356" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G356" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H356" s="1" t="n">
+      <c r="F358" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H358" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="I356" s="1" t="n">
+      <c r="I358" s="1" t="n">
         <v>9781534306455</v>
       </c>
-      <c r="J356" s="1" t="n">
+      <c r="J358" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K356" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="L356" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="M356" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="N356" s="1" t="s">
+      <c r="K358" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E357" s="1" t="n">
+      <c r="E359" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F357" s="1" t="s">
+      <c r="F359" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H359" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I359" s="1" t="n">
+        <v>9781534312012</v>
+      </c>
+      <c r="J359" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="L359" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="G357" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H357" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="I357" s="1" t="n">
-        <v>9781534312012</v>
-      </c>
-      <c r="J357" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="K357" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="L357" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="M357" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="N357" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E358" s="1" t="n">
+      <c r="M359" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E360" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F358" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G358" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H358" s="1" t="n">
+      <c r="F360" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="I358" s="1" t="n">
+      <c r="I360" s="1" t="n">
         <v>9781534319134</v>
       </c>
-      <c r="J358" s="1" t="n">
+      <c r="J360" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="K358" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="L358" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="M358" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="N358" s="1" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G359" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H360" s="1" t="n">
+      <c r="K360" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="I360" s="1" t="n">
+      <c r="I362" s="1" t="n">
         <v>9781937278045</v>
       </c>
-      <c r="J360" s="1" t="n">
+      <c r="J362" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="K360" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="L360" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="M360" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="N360" s="1" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G361" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G362" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H362" s="1" t="n">
+      <c r="K362" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="M362" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="I362" s="1" t="n">
+      <c r="I364" s="1" t="n">
         <v>9781632158857</v>
       </c>
-      <c r="J362" s="1" t="n">
+      <c r="J364" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="K362" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="L362" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="M362" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="N362" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G363" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H363" s="1" t="n">
+      <c r="K364" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I363" s="1" t="n">
+      <c r="I365" s="1" t="n">
         <v>9781738703722</v>
       </c>
-      <c r="J363" s="1" t="n">
+      <c r="J365" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="K363" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="L363" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="M363" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="N363" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C364" s="2" t="s">
+      <c r="K365" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L365" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G364" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G365" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H365" s="1" t="n">
+      <c r="M365" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="I365" s="1" t="n">
+      <c r="I367" s="1" t="n">
         <v>9781421576015</v>
       </c>
-      <c r="J365" s="1" t="n">
+      <c r="J367" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="K365" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="L365" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M365" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="N365" s="1" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G367" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H367" s="1" t="n">
+      <c r="K367" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L367" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H369" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="I367" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J367" s="1" t="n">
+      <c r="I369" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J369" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="K367" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="L367" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="M367" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="N367" s="1" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G368" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G369" s="4" t="s">
-        <v>1785</v>
-      </c>
-      <c r="H369" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I369" s="1" t="n">
-        <v>9781582406855</v>
-      </c>
-      <c r="J369" s="1" t="n">
-        <v>786</v>
-      </c>
       <c r="K369" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="M369" s="1" t="s">
         <v>1788</v>
@@ -18857,8 +18889,8 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="16" t="s">
-        <v>1377</v>
+      <c r="A370" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1790</v>
@@ -18876,9 +18908,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="16" t="s">
-        <v>1377</v>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>1792</v>
@@ -18896,217 +18928,217 @@
         <v>1793</v>
       </c>
       <c r="G371" s="4" t="s">
-        <v>18</v>
+        <v>1794</v>
       </c>
       <c r="H371" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I371" s="1" t="n">
+        <v>9781582406855</v>
+      </c>
+      <c r="J371" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H373" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I371" s="1" t="n">
+      <c r="I373" s="1" t="n">
         <v>9781962413015</v>
       </c>
-      <c r="J371" s="1" t="n">
+      <c r="J373" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="K371" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L371" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="M371" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="N371" s="6" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G372" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H372" s="1" t="n">
+      <c r="K373" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N373" s="6" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H374" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I372" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="J372" s="1" t="n">
+      <c r="I374" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J374" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K372" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="L372" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="M372" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="N372" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G373" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G374" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H374" s="1" t="n">
+      <c r="K374" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I374" s="1" t="n">
+      <c r="I376" s="1" t="n">
         <v>9789187222672</v>
       </c>
-      <c r="J374" s="1" t="n">
+      <c r="J376" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K374" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="L374" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="M374" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="N374" s="6" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G375" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H375" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I375" s="1" t="n">
-        <v>9789189143173</v>
-      </c>
-      <c r="J375" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="K375" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="L375" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="M375" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="N375" s="1" t="s">
+      <c r="K376" s="1" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B376" s="1" t="s">
+      <c r="L376" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="M376" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="D376" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G376" s="4" t="s">
-        <v>18</v>
+      <c r="N376" s="6" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="16" t="s">
-        <v>1377</v>
+      <c r="A377" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E377" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>1822</v>
@@ -19115,13 +19147,13 @@
         <v>18</v>
       </c>
       <c r="H377" s="1" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="I377" s="1" t="n">
-        <v>9781624650062</v>
+        <v>9789189143173</v>
       </c>
       <c r="J377" s="1" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>1823</v>
@@ -19136,117 +19168,117 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="16" t="s">
-        <v>1377</v>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>20</v>
+      <c r="C378" s="2" t="s">
+        <v>1828</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E378" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E379" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I379" s="1" t="n">
+        <v>9781624650062</v>
+      </c>
+      <c r="J379" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="M379" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E380" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F378" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G378" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H378" s="1" t="n">
+      <c r="F380" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G380" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I378" s="1" t="n">
+      <c r="I380" s="1" t="n">
         <v>9781624650703</v>
-      </c>
-      <c r="J378" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="K378" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L378" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="M378" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="N378" s="6" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G379" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E380" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G380" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H380" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I380" s="1" t="n">
-        <v>9781905460236</v>
       </c>
       <c r="J380" s="1" t="n">
         <v>96</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="M380" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="N380" s="1" t="s">
+      <c r="N380" s="6" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="16" t="s">
-        <v>1377</v>
+      <c r="A381" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1841</v>
@@ -19254,12 +19286,19 @@
       <c r="C381" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="G381" s="4"/>
-      <c r="H381" s="1"/>
+      <c r="D381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="16" t="s">
-        <v>1377</v>
+      <c r="A382" s="17" t="s">
+        <v>1386</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1843</v>
@@ -19270,137 +19309,194 @@
       <c r="D382" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="E382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="F382" s="1" t="s">
-        <v>1844</v>
-      </c>
       <c r="G382" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I382" s="1" t="n">
+        <v>9781905460236</v>
+      </c>
+      <c r="J382" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="K382" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="H382" s="1" t="n">
+      <c r="L382" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G383" s="4"/>
+      <c r="H383" s="1"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H384" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="I382" s="6" t="n">
+      <c r="I384" s="6" t="n">
         <v>9781632150783</v>
       </c>
-      <c r="J382" s="1" t="n">
+      <c r="J384" s="1" t="n">
         <v>504</v>
       </c>
-      <c r="K382" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="L382" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="M382" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="N382" s="1" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G383" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G384" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H384" s="1" t="n">
+      <c r="K384" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G385" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G386" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="I384" s="1" t="n">
+      <c r="I386" s="1" t="n">
         <v>9781891830877</v>
       </c>
-      <c r="J384" s="1" t="n">
+      <c r="J386" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="K384" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="L384" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="M384" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="N384" s="6" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="I385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="J385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="K385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="L385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="M385" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="N385" s="1" t="s">
-        <v>1859</v>
+      <c r="K386" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N386" s="6" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>1868</v>
       </c>
     </row>
   </sheetData>
@@ -19420,8 +19516,10 @@
     <hyperlink ref="L165" r:id="rId13" display="https://en.wikipedia.org/wiki/The_War_of_the_Worlds"/>
     <hyperlink ref="N185" r:id="rId14" display="https://thememorypalace.us/&#10;https://www.penguinrandomhouse.com/books/706914/the-memory-palace-by-nate-dimeo/&#10;A vivid collection of surprising true stories that brings to life long-forgotten icons, heroes who never got their due, and ordinary people who never made it to the history books, from the creator of the popular podcast The Memory Palace. What was Dreamland, Brooklyn's most popular attraction, like before it burned down? Whatever happened to Shipwreck Kelly? What were the glistening orbs John Glenn saw from his capsule on his first trip to space? For more than a decade, Nate DiMeo has brought the big and small of American history to life in The Memory Palace, a podcast of crystalline short stories that are all completely true. In this beautifully designed collection, where DiMeo takes advantage of the visual form of a book by creating striking juxtapositions between images and text, he gathers the best of the show and adds brand-new stories exclusive to the book, which especially take their inspiration from photographs and the emergence of photography. The collection adds up to a unique take on the past that asks what gets to count as history in the first place, draws deep meaning from forgotten lives, and often dives into past crazes and the sometimes humorous and sometimes devastating fact that what or who is popular in one moment can become a barely remembered curiosity in the next. He resurrects stories that deserve to be memorialized, like that of the Surfmen of the Outer Banks who saved countless sailors' lives and the workers who risked theirs daily to dig the base of the Brooklyn Bridge.  Each one of these poignant, vivid stories brings the past completely alive with the potential to shift our perspectives on the world today and to send readers out searching for all of the hidden stories it contains, just beyond the surface."/>
     <hyperlink ref="L220" r:id="rId15" display="https://www.penguinrandomhouse.com/books/247692/crap-taxidermy-by-kat-su/"/>
-    <hyperlink ref="M272" r:id="rId16" display="https://www.goodreads.com/book/show/71059690-the-seagull-reader---poems?from_search=true&amp;from_srp=true&amp;qid=0RXtiGhi0c&amp;rank=3"/>
-    <hyperlink ref="M312" r:id="rId17" display="https://www.goodreads.com/book/show/55711440-sensor?ref=nav_sb_ss_1_6"/>
+    <hyperlink ref="K231" r:id="rId16" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1387733179i/479879.jpg"/>
+    <hyperlink ref="L231" r:id="rId17" display="https://www.book-info.com/isbn/0-8118-0972-2.htm"/>
+    <hyperlink ref="M274" r:id="rId18" display="https://www.goodreads.com/book/show/71059690-the-seagull-reader---poems?from_search=true&amp;from_srp=true&amp;qid=0RXtiGhi0c&amp;rank=3"/>
+    <hyperlink ref="M314" r:id="rId19" display="https://www.goodreads.com/book/show/55711440-sensor?ref=nav_sb_ss_1_6"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
